--- a/deuChatbot/research_result/version_2(3000_100).xlsx
+++ b/deuChatbot/research_result/version_2(3000_100).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13841,6 +13841,7297 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 주요 사실을 정확하게 반영하고 있으며, 실기시험의 모집단위, 실기종목, 준비물, 실기주제, 화지크기 및 시험시간에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기시험에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.8600712806265649</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 주로 시각디자인, 산업디자인, 공예디자인이 모집단위이며, 종목별로 기초디자인과 사고의 전환 두 가지가 있습니다. 각 종목에 대한 세부 정보는 다음과 같습니다:
+1. **기초디자인**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구.
+   - **실기주제**: 주제A와 주제B 중 각 1개씩 선택하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "잠자리와 저울"과 같은 주제가 있을 수 있습니다.
+   - **화지크기**: 켄트지3절.
+   - **시간**: 5시간.
+2. **사고의 전환**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구.
+   - **실기주제**: 주제A와 주제B 중 각 1개씩 선택하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "콜라병과 계절"과 같은 주제가 있을 수 있습니다.
+   - **화지크기**: 켄트지2절.
+   - **시간**: 5시간.
+이러한 실기시험은 학생들의 창의성, 표현력, 그리고 문제 해결 능력을 평가하는 데 중점을 두고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 잘 요약하고 있으며, 주요 내용은 정확하게 반영하고 있습니다. 그러나 "기초디자인, 사고의 전환 중 하나를 선택합니다."라는 문구는 원문에서 명시된 두 가지 실기종목을 모두 포함하고 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 대체로 일관되며, 실기종목과 준비물, 실기주제에 대한 정보가 잘 연결되어 있습니다. 그러나 "하나를 선택합니다."라는 표현이 원문과의 일관성을 약간 떨어뜨립니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요구하는 정보와 직접적으로 관련이 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 표현이 자연스럽고 이해하기 쉬운 방식으로 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 실기종목 선택에 대한 부분에서 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 문맥에 적합한 내용을 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.8888397083319521</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 다음과 같습니다:
+1. **실기종목**: 기초디자인, 사고의 전환 중 하나를 선택합니다.
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+   - 예시: 잠자리와 저울, 콜라병과 계절 등.
+4. **화지크기**: 켄트지3절
+5. **시간**: 5시간
+이 정보는 디자인조형학과의 실기고사에 대한 주요 내용을 요약한 것입니다. 준비할 때 필요한 도구와 시간 등을 잘 확인하시고, 추첨된 주제에 맞춰 창의적인 작품을 제작해보세요.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경기지도학과의 인정대회에 대한 정보가 아닌, 다양한 분야의 대회에 대한 정보를 제공하고 있습니다. 원본 텍스트에서 언급된 배드민턴과 축구 관련 대회는 전혀 포함되어 있지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제의 대회에 대한 정보를 제공하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 경기지도학과의 인정대회에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 원본 텍스트와의 연결이 없기 때문에 일관된 흐름이 부족합니다. 여러 주제가 나열되어 있지만, 서로 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 주제가 다르기 때문에 전체적인 이해는 어렵습니다. 내용이 불명확하여 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.6730262248702041</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>2024학년도 경기지도학과 모집요강에 따르면, 경기지도학과 모집을 위한 인정대회는 다음과 같습니다:
+1. **체육**:
+   - 대한체육회 주관 대회 (예: 전국체전)
+   - 한국스포츠진흥원 주관 대회
+   - 한국장애인스포츠진흥원 주관 대회
+2. **음악**:
+   - 대한음악협회 주관 대회 (예: 전국음악경연대회)
+3. **미술**:
+   - 대한미술협회 주관 대회 (예: 전국미술경연대회)
+   - 한국화가협회 주관 대회
+4. **과학**:
+   - 대한과학회 주관 대회 (예: 전국과학기술대회)
+5. **정보기술(IT)**:
+   - 대한정보과학회 주관 대회 (예: 전국정보기술대회)
+   - 한국컴퓨터학회 주관 대회
+6. **언어**:
+   - 한국언어문화협회 주관 대회 (예: 전국언어능력평가)
+7. **자연과학**:
+   - 대한화학회 주관 대회
+   - 대한생물학회 주관 대회
+   - 대한지구과학회 주관 대회
+8. **사회과학**:
+   - 한국사학회 주관 대회 (예: 전국사학대회)
+   - 한국정치학회 주관 대회
+9. **기술**:
+   - 대한전자공학회 주관 대회
+   - 대한기계工程师，您提供的信息中并没有提到“경기지도학과”（体育指导学部）的具体认可比赛项目。根据我找到的信息，“경기지도학과”的招生通常会考虑以下几类比赛的认可：
+1. 体育：韩国体育协会主办的比赛（如全国运动会）
+2. 音乐：韩国音乐协会主办的比赛（如全国音乐竞赛）
+3. 美术：韩国美术协会主办的比赛（如全国美术竞赛）
+4. 科学：韩国科学学会主办的比赛（如全国科技大赛）
+5. 信息技术：韩国信息科学会主办的比赛
+6. 语言：韩国语言文化协会主办的比赛
+7. 自然科学：韩国化学学会、生物学学会和地球科学学会等主办的比赛
+8. 社会科学：韩国历史学、政治学等相关学会主办的比赛
+9. 技术：韩国电子工程学会、机械工程师学会等主办的比赛
+请确认您需要的具体信息是否在这几类比赛之中，或者是否有其他特定的体育指导相关比赛。如果需要更详细的信息，请提供更多的背景或具体要求。</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답에서 주제B에 포함된 항목들이 원본 텍스트의 주제B와 일치하지 않으며, "콜라병", "포카리스웨트(캔)", "마스크", "시계", "맥가이버 칼", "바이러스", "자유", "여행", "계절", "꿈"은 원본 텍스트에 없는 내용입니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 떨어집니다. 주제B의 내용이 원본과 다르기 때문에 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 기초디자인 실기시험의 주제에 대한 정보를 제공하고 있으나, 주제B의 내용이 잘못되어 있어 관련성 점수는 다소 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 구조는 비교적 일관되지만, 주제B의 잘못된 정보로 인해 전체적인 일관성이 떨어져서 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 주제B의 내용이 원본 텍스트와 다르기 때문에 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질이 중간 정도로 평가됩니다. 일부 요소는 잘 수행되었으나, 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 적절한 부분이 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 저해되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.7689139680561616</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로 주제들을 제공하면 다음과 같습니다:
+주제A:
+- 잠자리
+- 무궁화
+- 피망
+- 고양이
+- 양파
+- 달팽이
+- 오렌지
+주제B: 
+- 콜라병
+- 포카리스웨트(캔)
+- 마스크
+- 시계
+- 맥가이버 칼
+- 바이러스
+- 자유
+- 여행
+- 계절
+- 꿈
+당일에는 이 중에서 각각 1개씩을 추첨하여 연결된 주제를 사용하게 됩니다. 예를 들어 "잠자리와 콜라병" 또는 "오렌지와 바이러스" 등과 같은 조합이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 출결 점수가 일부 학생부교과 전형에서 반영된다고 주장하고 있지만, 원문에서는 출결 점수가 반영되지 않는다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 상반된 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있으며, 출결 점수가 반영된다고 주장하는 부분은 원문과 모순됩니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있으며, 학생부 교과 전형에서 출결 점수의 반영 여부에 대한 질문에 직접적으로 답하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 그러나 전반적으로는 이해할 수 있는 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 사실적으로 상반된 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 일관성에서 큰 문제를 가지고 있지만, 관련성과 유창성은 어느 정도 유지하고 있습니다. 그러나 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.6147490435040405</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2024학년도부터 일부 학생부교과 전형에서 출결 점수가 반영됩니다. 예를 들어, 경기지도학과의 실기/실적(경기실적우수자전형)에서는 다음과 같이 출결 점수가 반영됩니다:
+- 전형요소 반영비율: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+따라서, 일부 전형에서는 출결 점수가 학생부 교과 성적과 함께 평가 대상이 됩니다. 하지만 모든 전형에서 출결 점수가 반영되는 것은 아닙니다.</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원이 9명이라고 잘못된 정보를 제공하고 있습니다. 원본 텍스트에서는 17명을 모집한다고 명시되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 모집 인원에 대한 정보가 서로 다릅니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문의 주제와 관련이 있으며, 국어국문학과의 모집에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "일반학생전형"이라는 표현이 조금 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 문장 간의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 1
+   - 모집 인원에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성과 정확성이 매우 낮아 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 의미적으로는 적절하지만, 잘못된 사실을 기반으로 하고 있어 전체적인 의미 전달에 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 명확하고 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.7932753414502107</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학의 국어국문학과에서 가군 일반학생전형으로는 9명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 28명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.6782947358988102</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직입니다. 해당 정보에 따르면 이 과정에서 다군 수능(일반학생전형)으로 모집인원은 28명입니다.</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 22명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.779491086579123</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>22명입니다. 의료보건생활대학 간호학과 나군 일반 학생 전형의 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.9477015484675931</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문은 예술고 학생이 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원 가능성을 언급하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없으며, 주제와도 맞지 않습니다. 원문에서 다루고 있는 내용과는 전혀 다른 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 부정확성으로 인해 전체적인 흐름이 방해받고 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 가지 정보를 나열하고 있지만, 원문과의 관계가 명확하지 않아 일관된 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 문맥에 맞지 않는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문법적으로는 이해할 수 있는 문장으로 구성되어 있지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.5667814443109132</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>依据提供的信息，艺术高中的学生可以考虑通过"나군 학생부교과(농어촌학생전형)"（农村学生专项）申请。但是需要注意以下几点：
+1. **适用对象**：该专项主要针对在农·面地区中学完成整个教育过程并在此期间居住的考生。
+2. **提交材料**：
+   - 6年制课程：需要提供本人及其父母的户籍证明、初中和高中学籍卡。
+   - 12年制课程：需要提供本人的户籍证明、初中的学籍卡以及高中的学籍卡（对于在农·面地区中学完成整个教育过程并在此期间居住的学生，6年制课程也可以提交材料）。
+3. **额外要求**：
+   - 如果父母一方已故，则需提供死亡证明或离婚证。
+   - 需要提供高中学生成长记录簿。
+4. **成绩考虑**：最终注册者还需补充提交高中毕业证书、本人及其父母的户籍证明（共三份）。
+因此，艺术高中的学生如果满足在农·面地区中学完成整个教育过程并在该期间居住的要求，则可以申请“나군 학생부교과(농어촌학생전형)”。建议详细阅读学校的具体要求和补充材料，并确保所有文件齐全。</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 기록과 배점에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 4등급의 기록이 218~221 cm이고 배점이 275점이라고 명시되어 있지만, 생성된 응답에서는 272~275 cm와 300점으로 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 레저스포츠학과의 기록과 배점에 대한 정보를 제공하고 있지만, 잘못된 정보로 인해 원본 텍스트의 핵심 내용을 제대로 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 정보의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 사실성, 일관성, 정확성에서 심각한 문제가 있어 다차원적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 레저스포츠학과의 기록과 배점에 대한 정보를 제공하고 있지만, 잘못된 정보로 인해 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉬운 구조로 되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.8563708519353472</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 272~275 cm이며, 배점은 300점입니다.
+이 정보는 다음과 같은 레저스포츠학과 기록별 배점표에서 추출되었습니다:
+레저스포츠학과 기록별 배점표에서 등급은 4이며,
+- 제자리 멀리뛰기(cm)의 남은 272～275
+- 제자리 멀리뛰기(cm)의 여은 222~225
+- 제자리 멀리뛰기(cm)의 배점은 300
+- Z-런의 남은 14.60~14.79
+- Z-런의 여은 15.50~15.69
+- Z-런의 배점은 300</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있으며, 추가적인 세부사항도 제공하고 있습니다. 모든 정보가 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 출결 반영 비율에 대한 정보가 일치합니다. 추가된 정보도 원본의 내용을 보완하는 형태로 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다. 추가적인 세부사항도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄럽습니다. 읽기 쉽고 이해하기 쉬운 표현으로 잘 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 정보가 잘 연결되어 있습니다. 전체적으로 일관된 구조를 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.6757465235666242</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서는 출결이 전형요소 반영비율에 포함되며, 출결의 반영 비율은 12%입니다.
+상세 내용은 다음과 같습니다:
+- 전형 유형: 실기/실적 위주
+- 전형명: 나군 실기/실적(일반학생전형)
+- 모집 인원: 7명
+- 수능 최저 기준: 없음
+- 전형요소 반영비율(%)의 학생부 교과: 0%
+- 전형요소 반영비율(%)의 출결: 12%
+- 전형요소 반영비율(%)의 서류: 70%
+- 전형요소 반영비율(%)의 면접: 0%
+- 전형요소 반영비율(%)의 실기: 0%
+- 전형요소 반영비율(%)의 수능: 30%
+따라서 경기지도학과에서는 출결이 12%의 비중으로 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.9452619784692259</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 날짜와 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 설명도 원본의 내용을 잘 지지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.5444150843506456</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024. 01. 17.(수)에 있습니다.
+이 정보는 제공된 문단에서 직접 추출한 것입니다.</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 명확히 반영하지 않고 있으며, 구체적인 최소 입학 기준에 대한 정보가 없다고 언급하고 있습니다. 그러나 원문에서 명시된 "수능 최저 학력 기준은 없습니다."라는 사실을 간과하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 수능 최저 학력 기준이 없다고 명확히 언급하고 있지만, 생성된 응답은 그에 대한 구체적인 기준이 없다고 설명하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 응용화학과의 모집단위와 인원에 대한 정보를 제공하지만, 질문의 핵심인 수능 최저 학력 기준에 대한 직접적인 답변이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 다소 떨어집니다. 수능 최저 학력 기준에 대한 정보가 없다는 점이 명확히 드러나지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충하는 내용을 포함하고 있으며, 수능 최저 학력 기준이 없다는 사실을 정확히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 부족한 점이 많아 전반적인 품질이 낮습니다. 사실성, 일관성, 관련성, 정확성 모두에서 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문의 핵심 내용을 반영하지 못해 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.3360706202478381</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到东义大学2024学年应用化学专业的具体最低录取标准。根据您给出的信息，有关应用化学专业的描述是：
+```
+다군 수능(일반학생전형) 모집단위 및 모집인원에서 단과대학은 공과대학이며, 계열은 공학이며, 모집단위은 응용화학과이며, 모집인원은 22이다.
+```
+这表明应用化学专业的招生单位属于工学院，理工科系，并且计划招收22名学生。但是关于具体的最低录取标准（如各科目分数要求等），信息中并未给出。
+如果您需要了解具体的应用化学专业2024学年的最低录取标准，建议直接访问东义大学的官方网站或联系学校的招生办公室获取最准确的信息。通常学校官网会有详细的招生简章和录取条件说明。
+您可以参考以下链接以获得更多信息：
+https://ipsi.deu.ac.kr/main.do
+如果需要进一步的帮助，请告诉我具体想了解哪方面的信息。</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에는 '아동학과'라는 학과가 포함되어 있으나, 이는 원본 텍스트에 명시된 신설 학과 목록에 포함되어 있지 않습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, '아동학과'라는 학과가 추가되어 있습니다. 이는 원본 텍스트와의 일관성을 해칩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 정보를 제공하고 있으나, 잘못된 정보를 포함하고 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, '아동학과'의 설명이 다소 혼란스러울 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 신설 학과 목록을 명확하게 제시하고 있습니다. 그러나 잘못된 정보가 포함되어 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: '아동학과'라는 잘못된 정보가 포함되어 있어 정확성 점수가 낮습니다. 원본 텍스트의 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 기록하고 있으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 의미적으로 완벽하게 적절하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 응답이지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.7941528449305109</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같습니다:
+1. 아동학과 (从前科目的名称：保育·가정상담학과)
+2. 심리학과 
+3. 스마트항만물류학과 
+4. 창업투자경영학과 
+5. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학) 
+위와 같이 2024년에 신설된 학과들이 있습니다.</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 전형요소 반영비율에 대한 정보가 일치합니다. 추가적으로 제공된 설명도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전형요소 반영비율에 대한 정보가 서로 충돌하지 않습니다. 모든 정보가 일관되게 제시되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 전형요소 반영비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.8462591989348192</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율은 지원자의 학생부 교과 성적, 면접 성적 등을 종합적으로 평가하기 위한 기준입니다.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위에 대해 정확하게 언급하고 있으며, 수학(미적분 또는 기하) 응시자에게 10%의 가산점을 부여하는 내용도 포함되어 있습니다. 그러나 의료·보건·생활대학이 누락되어 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 공과대학과 ICT융합공과대학에 대한 정보는 일관되지만, 의료·보건·생활대학에 대한 언급이 없으므로 일관성이 떨어집니다. 전체 모집단위에 대한 정보가 누락되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 가산점 적용에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 주요 내용이 잘 반영되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 의료·보건·생활대학에 대한 언급이 없어서 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 가산점에 대한 정확한 정보를 제공하지만, 모집단위 중 하나가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다. 다만, 누락된 정보로 인해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.8283648528790134</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 공과대학과 ICT융합공과대학 모집단위에서 수능 가산점을 적용합니다. 
+특히, 공과대학 및 ICT융합공과대학 모집단위에 지원하는 학생 중 수학(미적분 또는 기하) 응시자는 수학 표준점수의 10%를 가산점으로 부여받을 수 있습니다.
+관련 정보는 다음과 같습니다:
+- 수능 반영영역 및 가산점에서:
+  - 모집단위은 공과대학, ICT융합공과대학 모집단위
+  - 가산점은 수학(미적분 또는 기하) 응시자 : 수학 취득 표준점수의 10% 가산점
+따라서, 해당 학과에서 수능 성적이 중요한 입학 요건 중 하나이며, 수학을 잘하는 학생들에게 유리한 조건이 제공됩니다.</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 성적이 100% 반영된다고 언급하고 있지만, 구체적인 반영 비율(국어, 수학, 영어, 탐구 각각 25%)은 원본 텍스트에 명시되어 있지 않습니다. 또한, 레저스포츠학과와 태권도학과의 다른 반영 방법에 대한 정보도 원본 텍스트에 포함되어 있지 않아 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보(각 과목의 비율 및 특정 학과의 반영 방법)를 포함하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 수능 성적 반영에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용(100% 반영) 외에 불필요한 세부사항이 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르게 특정 과목의 반영 비율을 제시하고 있으며, 이는 정확성이 떨어지는 요소입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 일부 차원에서 긍정적인 평가를 받을 수 있지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 불일치로 인해 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 불필요한 세부사항으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.7500385417953523</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 다음과 같이 반영됩니다:
+1. **모집단위**: 전 모집단위 (레저스포츠학과, 태권도학과 제외)
+2. **반영 영역 및 비율**:
+   - 국어 표준점수: 25%
+   - 수학 표준점수: 25%
+   - 영어 등급 점수: 25%
+   - 탐구 표준점수: 25%
+3. **특이사항**: 
+   - 레저스포츠학과, 태권도학과의 경우는 다른 반영 방법을 사용합니다 (실기고사 성적 등).
+이렇게 수능 성적이 학생들의 총점에 100%로 반영되며, 각 영역별로 표준점수와 등급 점수가 평균적으로 계산됩니다.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기고사 날짜에 대한 정보를 제공하고 있지만, 1월 17일에 대한 정보는 원본 텍스트에 포함되어 있지 않습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 특히, 1월 17일에 대한 언급은 원본 텍스트와 모순됩니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 정보인 1월 16일의 날짜에 대한 정보가 포함되어 있어 관련성 점수는 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 구조가 복잡하여 약간의 유창성 점수를 낮추는 요소가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 날짜를 나열하고 있지만, 이로 인해 논리적 흐름이 약간 깨지는 경향이 있습니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 잘못된 날짜를 포함하고 있습니다. 이로 인해 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 문제가 있습니다. 따라서 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 잘못된 정보가 포함되어 있어 의미의 일관성이 떨어집니다. 따라서 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.6504616236157805</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사 날짜는 다음과 같습니다:
+- 레저스포츠학과 제자리 멀리뛰기: 2024. 01. 16.(화)
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 및 체육학과: 2024. 01. 17.(수)
+이 정보는 제공된 문书中提到的考试日期如下：
+- 娱乐体育学部立跳远：2024年1月16日（星期二）
+- 设计造型学部（视觉设计、工业设计、工艺设计）和体育学部：2024年1月17日（星期三）
+请根据这些日期进行准备。</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다고 언급하고 있지만, 레저스포츠학과와 태권도학과가 포함되어 있어 사실과 다릅니다. 따라서 일부 사실이 정확하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 레저스포츠학과와 태권도학과의 언급으로 인해 일관성이 떨어집니다. 원본 텍스트에 명시된 경기지도학과가 제외된다는 점과 모순됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 나군 수능 전형에서 제외되는 학과에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전형의 제외 학과에 대한 설명이 일관되게 이어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 제외되는 학과에 대한 정보가 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이며, 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 잘못된 정보로 인해 완전한 적합성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.8128524576481425</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 실기/실적 전형으로 모집되므로 일반학생전형에서는 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제를 직접적으로 다루고 있으며, 관련된 정보를 추가로 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.8483779939266648</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서 수능 최저기준은 없습니다. 
+참조된 정보에 따르면, "전형요소 반영비율" 섹션에서 다음과 같이 언급되어 있습니다:
+- 전형 유형이 수능 위주인 경우에도 
+- 가군 수능(일반학생전형)의 경우 수능최저기준은 없음
+- 나군 수능(일반학생전형)의 경우 수능최저기준은 없음
+- 다군 수능(일반학생전형)의 경우 수능최저기준은 없음
+따라서 동의대학교 2024학년도 다군 전형에서는 수능 최저기준이 적용되지 않는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에서 학부에서 학과로 분리된 학과 목록과 관련된 정보가 전혀 포함되어 있지 않으며, 잘못된 학과 이름과 정보를 제공하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 학과에 대한 정보를 제공하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 동의대학교의 학부에서 학과로의 분리에 대한 정보가 아닌 다른 학과에 대한 정보를 포함하고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기는 쉽지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.5476762757433558</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 미디어커뮤니케이션학과와 스마트항만물류학과가 학부에서 학과로 분리되었습니다. 
+- 미디어커뮤니케이션학과는 단과대학 인문사회과학대학에 속하게 되었습니다.
+- 스마트항만물류학과는 신설된 학과로서, 단과대학 공과대학에 포함되었습니다.
+따라서, 이 두 학과가 분리되어 각각 다른 단과대학의 소속이 되었습니다.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 원서접수 기간도 명확하게 언급하고 있습니다. 모든 사실이 정확하게 반영되었습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용을 잘 보완하고 있습니다. 서로 모순되는 내용이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제를 잘 다루고 있으며, 원서접수 마감일과 관련된 추가 정보를 제공하여 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적인 흐름이 잘 유지되고 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.7737244582053314</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수(인터넷)의 마감일은 2024. 01. 06.(토) 18시까지입니다.
+따라서 원서 접수는 2024년 1월 3일 수요일부터 1월 6일 토요일까지 가능하며, 특히 1월 6일 토요일 오후 6시까지 마감됩니다.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전형 요소 변화에 대한 정보가 일부 잘못되었거나 누락된 부분이 있습니다. 예를 들어, 학생부종합(성인학습자전형)의 2024학년도 조건이 잘못 기재되어 있습니다. 또한, 전형요소 반영비율에 대한 정보가 원본 텍스트와 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있어 일관성이 부족합니다. 특히, 전형 요소의 변경 사항에 대한 설명이 원본과 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 전형 요소 변화에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 내용과는 다소 동떨어진 부분이 있습니다. 전형 요소의 구체적인 변화에 대한 설명이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 문장 구조가 다소 복잡하여 이해하기 어려운 부분이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 일관된 흐름을 가지고 있지만, 원본 텍스트와의 연결이 약해 논리적인 일관성이 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다. 특히 전형 요소의 변경 사항에 대한 정보가 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 편이지만, 일부 내용이 원본과 다르게 표현되어 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.7795861538147166</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 주요 전형들은 다음과 같습니다:
+1. **학생부종합 평가영역 변경**
+   - 2023학년도: 인성 ㅣ 학업역량 ㅣ 전공적합성
+   - 2024학년도: 공동체역량 ㅣ 학업역량 ㅣ 전공적합성
+2. **전형요소 반영비율 변경**
+   - **가군 수능(일반학생전형)**
+     - 2023학년도: 학생부 교과 30%, 출결 12%, 서류 70%
+     - 2024학년도: 학생부 교과 18%, 출결 12%, 서류 70%, 수능 30%
+   - **나군 수능(일반학생전형)**
+     - 2023학년도: 학생부 교과 70%, 면접 30%
+     - 2024학년도: 학생부 교과 60%, 출결 12%, 서류 70%, 면접 40%
+   - **다군 수능(일반학생전형)**
+     - 2023학년도: 학생부 교과 0%, 출결 0%, 서류 0%, 면접 0%, 실기 0%, 수능 100%
+     - 2024학년도: 학생부 교과 0%, 출결 0%, 서류 0%, 면접 0%, 실기 0%, 수능 100%
+3. **전형요소 반영비율 변경**
+   - **나군 학생부종합(평생학습자전형)**
+     - 2023학년도: 서류 70%, 면접 30%
+     - 2024학년도: 서류 70%, 면접 30%
+   - **나군 학생부종합(성인학습자전형)**
+     - 2023학년도: 서류 70%, 면접 30%
+     - 2024학년도: 서류 70%, 면접 30%
+   - **나군 학생부종합(재직자전형)**
+     - 2023학년도: 서류 60%, 면접 40%
+     - 2024학년도: 서류 70%, 면접 30%
+이러한 변화는 학생부 교과성적의 중요성을 강화하고, 출결 및 실기 성적을 반영하는 방향으로 전형 요소가 조정되었습니다.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용을 보완하는 형태로 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 실기 비중에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.7710966661304451</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이 정보는 "전형요소 반영비율" 섹션에서 확인할 수 있습니다:
+전형유형은 실기/실적 위주이며, 
+전형명은 가군 실기/실적(일반학생전형) 레저스포츠학과, 태권도학과이며,
+모집인원은 11명이고,
+전형요소 반영비율의 수능은 30%이며,
+전형요소 반영비율의 실기는 70%입니다.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 세부 전공 목록을 정확하게 반영하고 있으며, 추가된 설명도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공 목록과 관련된 정보가 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 세부 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.8590117097900718</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공을 포함하고 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+이 학부는 미래 융합 분야에 초점을 맞추어 다양한 산업과 문화를 결합한 새로운 전공들을 도입하였습니다.</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '태권도학과'가 언급되지 않았습니다. 또한, '레저스포츠학과'에 대한 실기 종목이 추가되었으나, 원본 텍스트에는 그러한 세부사항이 없습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. '태권도학과'는 원본에 없으며, '레저스포츠학과'에 대한 추가 정보도 원본과 일치하지 않습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있으므로 관련성이 높습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과에 대한 설명이 명확합니다. 그러나 원본과의 불일치로 인해 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질을 고려할 때, 생성된 응답은 일부 유창성과 관련성을 가지고 있지만, 사실성과 일관성에서 큰 결함이 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트와의 불일치로 인해 의미의 일관성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.7203421232214191</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (실기종목: 제자리 멀리뛰기 또는 Z-런)
+2. 태권도학과
+이 두 학과에서는 실기고사가 필수적으로 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 지원 가능한 학과를 두 개만 언급하고 있으며, 원본 텍스트에 나열된 다섯 개의 학과를 모두 포함하지 않고 있습니다. 또한, 모집 인원에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 다섯 개의 학과를 나열하고 있지만, 생성된 응답은 두 개의 학과만 언급하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 모든 학과를 포함하지 않기 때문에 완전한 관련성을 가지지 않습니다. 그러나 실기/실적 위주 전형에 대한 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 지원 가능한 학과 수와 모집 인원에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 양호하지만, 사실성과 일관성에서 큰 문제를 가지고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 정보의 정확성과 일관성이 부족하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.6544013190031286</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 시행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과가 실기/실적 위주 전형을 통해 모집됩니다. 기타 학과들은 다른 전형방법(예: 수능 위주, 학생부교과 위주 등)으로 모집하거나 해당되지 않습니다.
+추가 정보:
+- 이전 년도와 마찬가지로 실기/실적 위주 전형의 경우 학생부 교과, 출결, 서류(실적), 면접, 수능 등의 요소를 반영하지 않습니다.
+- 모집인원은 11명입니다.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록도 일치합니다. 추가된 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공의 수와 종류에 대한 정보가 일치합니다. 추가된 내용도 원본의 맥락을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 표현이 자연스럽고 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.8137694251927226</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 라이프융합학부는 다음과 같은 전공을 제공합니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+따라서, 동의대 라이프융합학부에서는 총 3개의 전공 과정을 개설하여 학생들에게 다양한 분야에서의 교육과 경험을 제공할 계획입니다.</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하지 않고, 다른 조건을 제시하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하지 않으며, 다른 학교 유형을 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하지 않고, 다른 조건을 제시하고 있어 관련성이 떨어집니다. 그러나 원문 링크를 언급하여 추가 정보를 제공하려는 시도는 긍정적입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어 질문에 대한 중국어 응답은 언어적 일관성이 부족합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 조건을 나열하고 있지만, 원문과의 연결이 부족하여 논리적 흐름이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 명시된 사실을 왜곡하고 있으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받고 있어 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족하며, 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장으로 구성되어 있지만, 질문에 대한 명확한 답변이 부족하여 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.5746541605543261</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊教育高中（特수목적고등학교）的学生，并且符合以下条件之一，则有可能申请东义大学的一般学生入学考试：
+1. **科学高中 (과학고)**
+2. **国际高中 (국제고)**
+3. **外语高中 (외국어고)**
+如果满足上述条件，你可以在一般学生入学考试中进行申请。请确保仔细检查具体的招生要求和截止日期，并准备相应的申请材料。
+如果你需要更详细的信息或具体指导，请访问东义大学的官方网站（https://ipsi.deu.ac.kr/main.do）获取最新信息。</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로 언급되었으나, 생성된 응답에서는 경찰행정학과가 가장 많이 모집한다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 포함하고 있습니다. 원본에서 언급된 학과와 모집 인원과는 전혀 다른 내용을 제시하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 원본 텍스트의 핵심 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 경찰행정학과가 가장 많이 모집한다고 하는 것은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부정확합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와는 다소 동떨어져 있으며, 주제에 대한 적절한 맥락을 제공하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.7079485642830257</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 정원 내 모집 인원을 확인해야 합니다. 제공된 정보를 바탕으로, 다음과 같은 학과들이 많은 수의 학생들을 모집하고 있습니다:
+1. **사회복지학과**: 60명
+2. **경찰행정학과**: 70명
+3. **법학과**: 40명
+4. **인문사회과학대학 - 국어국문학과 - 교직**: 45명
+5. **인문사회과학대학 - 중어중국학과 - 교직**: 46명
+6. **인문사회과학대학 - 일본학과 - 교직**: 55명
+7. **인문사회과학대학 - 영어영문학과 - 교직**: 50명
+이 중에서 가장 많은 인원을 모집하는 학과는 경찰행정학과로, 정원 내 모집 인원이 70명입니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **경찰행정학과**라고 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 완전히 반대하는 내용을 담고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 특수목적고등학교 출신자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원이 가능하다고 주장합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 내용을 왜곡하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관성을 유지하고 있지만, 원본 텍스트와의 관계에서 비논리적인 결론을 도출하고 있습니다. 따라서 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.6031940589589768</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교의 학생부교과 농어촌학생전형으로 지원이 가능합니다. 
+특히, "나군 학생부교과(농어촌학생전형) - 정원외 지원자격" 항목에서 다음과 같이 명시되어 있습니다:
+- 지원 자격: 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 중 본인 및 그의 부모 모두가 농어촌(읍·면)지역에 거주한 자 (학생과 부모 거주지가 동일하지 않아도 됨)
+따라서 특수목적고등학교라도, 해당 학교가 농어촌 지역에 위치하고 재학기간 동안 본인 및 부모가 농어촌 지역에 거주했다면 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 정보를 제공하고 있습니다. 원문에서는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 평균 성적을 제시하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 하였고, 생성된 응답은 그와 반대되는 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 연결성이 부족하여 일관성이 떨어집니다. 원문과의 논리적 흐름이 맞지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하지 않는 정보를 포함하고 있으며, 이는 사실적으로 부정확합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.5148633674561836</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최종등록자들의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **317.87**입니다.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상충하는 내용을 담고 있습니다. 원문에서는 해당 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 평균 점수를 제시하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순됩니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 하였고, 생성된 응답은 특정 성적을 제시하고 있어 주제와 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충하는 잘못된 정보를 포함하고 있습니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계에서 전반적으로 부정확하고 일관성이 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없습니다. 원문에서 요청한 정보와는 전혀 다른 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.5321002337061729</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2024학년도 ICT융합공과대학의 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **330.11**입니다.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 조언을 포함하고 있습니다. 원본 텍스트의 구체적인 날짜와 시간 정보가 누락되어 있어 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 있습니다. 원본 텍스트는 특정 날짜와 시간을 명시하고 있지만, 생성된 응답은 그러한 정보를 제공하지 않고 일반적인 조언만 포함하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 질문에 대한 답변으로 관련성이 있지만, 구체적인 일정 정보를 제공하지 않아 다소 부족합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 일관되지만, 원본 텍스트의 구체적인 정보가 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 정확한 정보가 부족하여 점수가 낮습니다. 원본 텍스트의 구체적인 날짜와 시간 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이지만, 구체적인 정보의 부족으로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 구체적인 내용을 반영하지 않아 다소 부족합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.5053378196501873</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>합격자발표 언제</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>ippyeon.deu.ac.kr 웹사이트를 확인하시면 최신 정보와 합격자 발표 일정을 확인하실 수 있습니다. 일반적으로 대학마다 합격자 발표일은 다르므로, 공식 홈페이지에서 가장 정확한 정보를 얻으시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접 일정에 대한 구체적인 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 면접 날짜(2024. 01. 20.)를 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 면접 일정에 대한 정보가 전혀 포함되어 있지 않습니다. 원본 텍스트의 내용과 상충하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 면접 일정에 대한 질문에 대한 답변으로 적절하지 않습니다. 원본 텍스트의 핵심 내용을 다루지 않고 있습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 어느 정도 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 유창성은 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있으나, 원본 텍스트와의 연결이 없기 때문에 논리적인 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 면접 일정에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.3618487882558598</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>題目中並未提供具體的面試時間，因此無法確定學生應在哪一天前往參加面試。如果您是該大學或院校的申請者，建議您查看官方提供的招生簡章、學校網站或是聯繫入學辦公室以獲取詳細的日程安排和通知。通常來說，面試日期會在相關招生信息中明確列出，請確保及時查閱並遵守規定的時間表。</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 무시하고, 다른 정보에 기반하여 일반적인 학력 요구 사항을 추론하고 있습니다. 그러나 원문에서 명시된 "최저학력 기준이 없습니다"라는 사실과 상충하는 내용을 포함하고 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공하고 있으며, 원문에서 명시된 내용과 모순되는 부분이 있습니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 명시된 "최저학력 기준이 없습니다"라는 핵심 정보를 간과하고 있습니다. 따라서 관련성 점수가 중간입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 약해 논리적인 흐름이 다소 부족합니다. 따라서 일관성 점수가 중간입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충하는 내용을 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성 모두 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 일치성이 떨어져 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.3924240570668813</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>从提供的信息中，没有直接提到韩医学科（한의예과）的具体最低学力标准。但是根据其他部分的信息可以推断出一些关于学力要求的一般性内容：
+1. 对于一般学生入学考试，采用的是综合评价的方式，包括：
+   - 学生学业记录
+   - 出勤情况
+   - 申请材料（实绩）
+2. 在不同类型的招生中，对于学生的学业成绩有不同的权重分配。例如：
+   - 普通学生入学考试：100%依赖于学力测试（没有提到具体科目要求）
+   - 实际/实际导向型（경기실적우수자전형）：8%来自学业记录、12%来自出勤情况，70%来自申请材料
+   - 学生综合评价（학생부종합）类型中也有不同的权重分配
+3. 对于韩医学科来说，虽然没有直接提到最低学力标准，但可以推测它会与其他医学相关专业类似，要求学生具备一定的高中学业基础。
+4. 从其他医学类专业的入学要求来看，通常需要完成高中的全部课程，并且在某些科目（如国语、数学等）达到一定水平。
+因此，虽然没有具体数字说明韩医学科的最低学力标准，但可以合理推测它会要求学生具备高中毕业的学业基础，并且在关键科目上达到一定的成绩门槛。具体的最低学力标准可能需要参考学校官方发布的详细招生简章或咨询校方获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 모든 내용이 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 점을 명확히 하고 있습니다. 추가적인 세부사항도 원본과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저학력 기준에 대한 정보를 잘 다루고 있습니다. 모든 내용이 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽힙니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다. 모든 정보가 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.587097165516976</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 제공된 내용에서는 특정 단과대학이나 모집단위별로 수능 최저학력 기준을 명시하고 있지 않습니다. 
+특히 "전형요소 반영비율" 섹션에서 다음과 같이 언급되어 있습니다:
+- 가군 수능(일반학생전형) 전모집단위: 수능최저기준 없음
+- 나군 수능(일반학생전형) 전모집단위: 수능최저기준 없음
+- 다군 수능(일반학생전형) 전모집단위: 수능최저기준 없음
+따라서, 현재 제공된 정보로는 특정 단과대학이나 모집단위별로 수능 최저학력 기준이 없다고 볼 수 있습니다. 하지만 각 학교나 단과대학은 매년 정시모집 시 수능 최저학력기준을 설정할 수 있으므로, 최종적인 정보는 해당 대학의 공식 홈페이지(https://ipsi.deu.ac.kr/main.do)를 확인하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 1차 및 2차 충원합격자 발표 일정을 정확하게 반영하고 있지만, 3차 이후 발표 일정에 대한 정보가 누락되어 있어 완전한 사실성을 갖추지 못하고 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 1차와 2차 발표 일정에 대해 일관성을 유지하고 있으나, 3차 이후 발표 일정이 언급되지 않아 전체적으로 일관성이 떨어진다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 주어진 질문에 대해 직접적으로 관련된 정보를 제공하고 있어 매우 높은 관련성을 보인다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 약간의 어색함이 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 흐름이 자연스럽다. 그러나 3차 발표 일정이 누락되어 있어 완전한 일관성을 제공하지는 않는다.
+6. Accuracy Score (1-5): 4
+   - 설명: 1차 및 2차 발표 일정은 정확하게 전달되었으나, 3차 이후 발표 일정이 누락되어 있어 정확성에서 약간의 부족함이 있다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 보이지만, 3차 발표 일정의 누락으로 인해 일부 차질이 발생하였다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 주어진 맥락에 잘 맞지만, 3차 발표 일정의 누락으로 인해 의미의 완전성이 떨어진다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있으나, 3차 발표 일정의 누락으로 인해 전체적인 이해도가 약간 떨어질 수 있다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.7527055146252021</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2024. 02. 14.(수) 09:00부터 충원 합격자 1차 (인터넷) 발표가 시작됩니다. 이어서 2024. 02. 15.(목) 09:00부터는 충원 합격자 2차 (인터넷) 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정보를 포함하고 있지만, 1차와 2차 발표에 대한 '등록' 시간 정보가 추가되어 있습니다. 이는 원본 텍스트에 명시되어 있지 않은 내용으로, 일부 사실과 일치하지 않거나 과도한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 일치하는 부분이 있지만, '등록' 시간에 대한 정보가 추가되어 있어 일관성이 떨어집니다. 또한, 3차 이후 발표 방식에 대한 설명이 원본 텍스트와 다소 다르게 표현되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 충원합격자 발표 일정에 대한 정보를 잘 전달하고 있습니다. 추가된 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달됩니다. 그러나 '등록' 시간에 대한 추가 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 대체로 일치하지만, '등록' 시간과 같은 추가 정보가 포함되어 있어 정확성이 떨어집니다. 원본 텍스트에 없는 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 사실성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 왜곡할 수 있는 가능성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.774163329331706</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2024학년도 추가합격자는 다음과 같은 일정으로 발표됩니다:
+- 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+- 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00~16:00
+- 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+- 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00~16:00
+추가적으로, 3차 이후의 충원 합격자는 개별 전화 통보를 통해 발표되며, 일정은 2024. 02. 15.(목) 19:00부터 2024. 02. 20.(화) 18시까지입니다.
+이러한 정보는 입학 안내 홈페이지를 통해 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 직접적인 언급이 없다고 주장하지만, 원본 텍스트에서는 추가 모집이 이루어진다고 명확히 설명하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 언급된 추가 모집의 조건을 무시하고 있습니다. 이로 인해 일관성 점수도 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 추가 모집에 대한 일반적인 정보와 절차를 제공하지만, 원본 텍스트의 구체적인 내용과는 관련성이 떨어집니다. 따라서 중간 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 원본 텍스트와의 연결이 부족하여 약간의 흐름이 끊길 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 제공하지만, 원본 텍스트와의 논리적 연결이 부족하여 일관성이 떨어집니다. 따라서 중간 점수를 부여합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 추가 모집에 대한 명확한 정보를 제공하지 않기 때문에 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 잘 맞지 않기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 떨어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.4200591968052572</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到是否进行额外招生（추가모집）的内容。为了给出准确的回答，我需要更多的具体信息或直接访问学校的官方网站以获取最新的招生政策和通知。
+不过，根据一般的大学招生流程，通常会在以下几个阶段考虑额外招生：
+1. 正规录取结束后，如果某个专业还有剩余名额，可能会进行额外招生。
+2. 针对特定群体（如农渔村学生、成人教育等）的特殊招生计划。
+3. 特定时间段内的补录或二次机会招生。
+建议直接访问德岛大学的官方网站（https://ipsi.deu.ac.kr/main.do），查看最新的招生信息和公告，以获取最准确的答案。</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 모집인원과 모집단위에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 모집인원이 11명으로 명시되어 있으나, 생성된 응답에서는 73명으로 잘못 기재되어 있습니다. 또한, '인문사회 계열'이라는 정보는 원본에 없으며, 성인학습자 전형에 대한 언급도 원본에 포함되어 있지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않습니다. 모집인원, 모집단위, 지원자격의 세부사항 등에서 차이가 있으며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있으나, 원본 텍스트의 세부사항과는 다소 차이가 있습니다. 그러나 전반적으로 주제와 관련된 내용을 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 내용이 원본과 다르기 때문에 완전한 유창성은 아닙니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본과의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 여러 사실에서 부정확합니다. 모집인원, 모집단위, 지원자격의 세부사항이 원본과 다르며, 이는 정확성을 저해합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 일부 차이점이 있지만, 전반적으로 관련된 정보를 제공하고 있습니다. 그러나 사실적 정확성과 일관성에서 부족함이 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본의 세부사항과 다르게 표현되어 있어 의미적으로 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으며, 명확한 언어로 작성되어 있습니다. 그러나 원본과의 차이로 인해 일부 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.7641085105570229</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학입시에서 성인 학습자를 위한 특별한 전형입니다. 주요 내용을 요약하면 다음과 같습니다:
+1. 모집단위 및 모집인원:
+   - 미래융합대학 인문사회 계열 라이프융합학부: 73명
+   - 기타 다양한 단과대학 및 학과에서 모집
+2. 지원자격:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+   - 만 30세 이상인 자 (성인학습자 전형)
+3. 제출서류:
+   - 고교 학교생활기록부 (고교 졸업(예정)자)
+   - 검정고시 합격증서 및 성적증명서 (검정고시 출신자)
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업/성적증명서 등
+4. 전형요소 반영비율:
+   - 서류 70%
+   - 면접 30%
+5. 동점자 처리기준:
+   - 면접 성적이 높은 순
+   - 서류 평가 공동체역량 영역 성적 상위자
+   - 서류 평가 전공적합성 영역 성적 상위자
+   - 교과 성적 상위자
+6. 면접평가:
+   - 개별면접, 1인당 10분 이내
+   - 입학사정관 2인이 평가위원으로 참여
+7. 서류평가 영역 및 배점:
+   - 공동체역량: 협업능력 (180점)
+   - 학업역량: 문제해결능력 (166.5점)
+   - 전공적합성: 진로정보 탐색능력 (120점)
+이러한 정보를 바탕으로 평생학습자전형에 대한 자세한 내용을 확인하시려면 공식 입시 사이트인 https://ipsi.deu.ac.kr/main.do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직기간 산정에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 잘못된 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 구조가 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 모든 평가 기준에서 매우 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 맞지 않으며, 주제와도 관련이 없습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 명확하게 작성되었지만, 내용이 원본 텍스트와 관련이 없기 때문에 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.6572266045550735</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가·지방자치단체 및 공공단체 소속 직원 (단, 해당 기관에서 발급하는 공적증명서 확인 가능)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+위와 같은 조건을 충족해야 평생학습자전형의 지원 자격이 주어집니다.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않고, 일반적인 절차와 조언을 제시하고 있습니다. 원본 텍스트의 핵심 정보인 '2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능'이라는 사실을 전혀 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기고사에 대한 구체적인 정보가 부족합니다. 원본 텍스트의 내용과 상충하는 정보가 포함되어 있지 않지만, 원본의 핵심 내용을 무시하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사에 대한 일반적인 정보와 절차를 설명하고 있지만, 원본 텍스트의 구체적인 질문에 대한 답변이 아닙니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 언어가 다르기 때문에, 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 내부적으로 일관된 구조를 가지고 있으며, 논리적인 흐름이 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 전혀 반영하지 않으며, 실기고사에 대한 구체적인 정보가 없습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 핵심 정보를 전혀 반영하지 않기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 맥락과는 맞지 않습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 한국어 사용자에게는 외국어로 작성되어 있어 이해하기 어려울 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.2993508690166107</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>依据提供的信息,关于实操考试(技能测试)的具体地点没有明确说明。通常这类考试会在学校内进行,也有可能在合作的培训机构或指定的考场举行。建议您查看具体的招生简章或者直接咨询学校以获取准确的考试地点信息。一般会包含以下步骤:
+1. 学校官网或招生办公室公布实操考试的时间和地点。
+2. 考生需要提前了解并确认考点的具体位置。
+3. 按照规定时间到指定地点参加考试。
+4. 准备好相关证件和材料,如准考证、身份证等。
+5. 遵守考场纪律,按时完成各项技能测试内容。
+建议您直接联系学校招生办公室或访问学校官网获取最准确的实操考试安排信息。如果有具体的考点名称或其他相关信息,也请一并提供以便给出更详细的答案。</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 정확하게 반영하고 있으며, 2024년 1월 17일에 체육학과의 실기고사가 진행된다는 사실도 포함되어 있습니다. 그러나 "&lt;나&gt;군"이라는 표현이 다소 모호하여 정확한 정보를 제공하지 못할 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 실기고사 일정과 대기실 및 입실시간 안내에 대한 정보를 잘 연결하고 있습니다. 다만, "&lt;나&gt;군"이라는 표현이 원본 텍스트와의 일관성을 약간 떨어뜨릴 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 깊으며, 실기고사 일정과 대기실 및 입실시간 안내에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "&lt;나&gt;군"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 실기고사 일정과 관련된 정보가 명확하게 연결되어 있습니다. 다만, "&lt;나&gt;군"이라는 표현이 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 실기고사 일정과 대기실 및 입실시간 안내에 대한 정보가 정확합니다. 그러나 "&lt;나&gt;군"이라는 표현이 정확성을 떨어뜨릴 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받을 수 있습니다. 그러나 "&lt;나&gt;군"이라는 표현이 약간의 문제를 일으킬 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, "&lt;나&gt;군"이라는 표현이 의미 전달에 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 "&lt;나&gt;군"이라는 표현이 다소 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.6759513135415002</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>2024년도 전형일정에 따르면, &lt;나&gt;군 실기고사 중 체육학과의 실기고사는 2024. 01. 17.(수)에 있습니다. 이 날짜에는 대기실 및 입실시간 안내가 이루어지며, 해당 정보는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 확인할 수 있습니다.
+따라서 체육학과의 실기고사는 다음과 같이 진행됩니다:
+- 일시: 2024. 01. 17.(수)
+- 안내 시간: 2024. 01. 12.(금) 14:00 이후 (입학안내 홈페이지에서 확인 가능)
+이 정보를 참고하여 준비하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 통보가 있을 수 있다고 언급하고 있습니다. 이는 원문과 상충하는 내용입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 전화 통보가 이루어지지 않는다고 명확히 설명하고 있는데, 생성된 응답에서는 전화 통보가 있을 수 있다고 하여 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 전화 통보에 대한 잘못된 정보로 인해 일부 관련성이 떨어집니다. 그러나 합격자 발표 일정과 관련된 정보는 유용합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일치하지 않으며, 잘못된 사실을 포함하고 있습니다. 전화 통보가 이루어질 수 있다는 주장은 원문과 상반됩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성에서 큰 문제가 있으며, 정확성 또한 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 다소 일치하지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 전화 통보에 대한 언급이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.7035283067773745</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2024학년도 수시 모집에서 충원 합격자를 발표한 후에는 개별 전화 통보를 통해 합격 사실을 알려주는 경우가 있습니다. 하지만 모든 학생에게 전화로 알림이 가는 것은 아니며, 주로 인터넷으로 합격자 명단을 확인한 후에 추가적인 안내나 서류 제출 등 필요한 사항을 전화로 통보받으실 수 있습니다.
+합격자 발표 이후의 일정은 다음과 같습니다:
+1. **2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지** : 합격자 발표 및 등록금 납부 충원 합격자 3차 이후 (개별 전화 통보) 발표
+2. **개별 전화 통보 시 안내** : 이 기간 동안 합격 사실을 개별적으로 전화로 알려드리며, 추가적인 안내나 서류 제출 등 필요한 사항을 안내드립니다.
+따라서 충원합격자 발표 후에는 입학관리팀으로부터 개별 전화 통보를 받으실 가능성이 있습니다. 만약 합격 사실을 확인했지만 추가 안내가 필요하다면, 입학관리팀에 연락하시거나 홈페이지에서 안내사항을 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않다는 사실을 언급하고 있지만, 2024년의 모집 계획과 관련된 정보로 초점을 맞추고 있어 원본 텍스트의 핵심 내용을 왜곡하고 있습니다. 또한, 원본 텍스트는 한국어로 작성되었으나, 생성된 응답은 중국어로 되어 있어 정보 전달의 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 2023학년도에 대한 정보가 없다고 명확히 언급하고 있지만, 생성된 응답은 2024년의 정보에 초점을 맞추고 있어 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 2023학년도에 대한 정보가 없다는 점을 강조하지 않고 2024년의 정보에 더 많은 비중을 두고 있습니다. 따라서 관련성 점수가 낮아졌습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 언어적 차이로 인해 일부 독자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트의 핵심 주제와의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 2023학년도에 대한 정보가 없다는 점을 명확히 전달하지 못하고 있습니다. 또한, 2024년의 정보에 대한 언급이 원본 텍스트와의 정확성을 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 특히 2023학년도에 대한 정보가 없다는 점을 간과하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 언어적 차이로 인해 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.7111559206656242</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到2023学年的警察行政学部(或类似名称)的招生结果。根据给出的信息，主要集中在2024年的招生计划、日期和相关细节，并没有包含2023年具体录取情况的数据。
+如果您需要了解2023学年该专业的实际招生结果（如录取人数、最低分数等），建议直接访问学校官网或联系学校的招生办公室获取最准确的信息。通常，这些信息会在每年的招生简章或者入学公告中公布。
+您也可以参考以下链接以获得更多信息：
+https://ipsi.deu.ac.kr/main.do
+如果您有其他具体问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않아도 지원할 수 있는 전형이 있다고 주장하지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 내용을 포함하고 있습니다. 원문은 수능 응시가 필수라고 명시하고 있는데, 생성된 응답은 수능 응시 여부와 관계없이 지원할 수 있는 전형이 있다고 주장합니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주된 질문에 대한 답변이 아닌 다른 전형에 대한 정보를 제공하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 불일치로 인해 내용의 신뢰성이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 원문과의 내용적 불일치로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 신뢰성이 떨어져 실제로 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.4382921033261546</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2024학년도 모집에서는 일부 전형에서 수능 응시 여부와 관계없이 지원이 가능합니다. 예를 들어, 학생부종합(성인학습자전형), 학생부종합(평생학습자전형) 등은 수능을 응시하지 않아도 지원할 수 있습니다.
+특히, 다음과 같은 전형들은 수능 응시 여부와 관계없이 지원이 가능합니다:
+1. **학생부종합(성인학습자(정원내·외)전형)**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다.
+2. **학생부종합(평생학습자전형)**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자를 대상으로 합니다.
+이러한 전형들은 주로 성인 학습자나 평생 학습자를 대상으로 하므로, 수능 응시 여부와 관계없이 지원할 수 있습니다. 자세한 내용은 입학사정관 홈페이지를 참고하시거나 문의해보시는 것이 좋습니다.
+[입학사정관 홈페이지](https://ipsi.deu.ac.kr/main.do)를 방문하여 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 경과한 경우 정시 지원이 불가능하다고 주장하고 있지만, 원문에서는 졸업 시기와 상관없이 정시 지원이 가능하다고 명시하고 있습니다. 따라서 사실관계가 완전히 잘못되었습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문은 지원 가능성을 언급하는 반면, 생성된 응답은 지원 불가능성을 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 문장 간의 흐름이 자연스럽습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있으며, 사실관계가 전혀 맞지 않습니다. 따라서 정확성 점수는 최하점입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실관계, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와는 상반된 내용을 담고 있어 의미적으로 적절하지 않습니다. 그러나 주제와 관련된 내용을 다루고 있어 최하점은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 쉽습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.6653577045115027</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2024학년도 입시에서는 고등학교 졸업 후 10년이 경과한 경우 일반적으로 정시모집에 지원할 수 없습니다. 대다수의 대학은 고등학교 졸업 후 3년 이내를 기준으로 하고 있으며, 일부 특별한 프로그램을 제외하고는 10년 이상 경과한 경우에는 지원이 불가능합니다.
+만약 10년이 지났더라도 특정 학과나 전형에서 특례로 지원할 수 있는 경우도 있으므로, 해당 대학의 입시 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 확인하거나 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실적 세부사항을 정확하게 반영하고 있으며, 날짜와 비고 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.8686887583766506</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시 모집일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 06.(토) 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 12.(금) 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 
+          제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 등록: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+이 일정들은 동의대학교 정시 모집 과정을 진행하는 데 필요한 주요 단계를 포함하고 있습니다. 각 단계별로 중요한 날짜와 정보가 있으므로, 지원자들은 해당 일정을 체크하여 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 포인트를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.874349043250116</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 06.(토) 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 12.(금) 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 
+          제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 등록: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+이 일정들은 동의대학교 정시 모집 과정을 진행하는 데 필요한 주요 단계를 포함하고 있습니다. 각 단계별로 중요한 날짜와 정보가 있으므로, 지원자들은 해당 일정을 체크하여 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 없다는 사실을 명확히 반영하지 않고, 수능 미응시자가 지원 가능한 전형을 제시하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있어 일관성이 없습니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답에서는 수능 미응시자가 지원 가능한 전형을 나열하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있으나, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원문에서 요구하는 정보와는 상반된 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나열된 형식을 가지고 있으나, 원문과의 내용 불일치로 인해 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 명시된 사실과 완전히 반대되는 정보를 제공하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않는 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.6462035641915505</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로, 동의대학교에서 수능 미응시자도 지원이 가능한 정시모집 전형은 다음과 같습니다:
+1. **나군 실기/실적(일반학생전형)**:
+   - 이 전형에서는 실기 성적이 중요한 요소로 반영되며, 수능 점수는 필요하지 않습니다.
+   - 모집단위: 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과
+2. **나군 학생부종합(조기취업형계약학과전형)**:
+   - 이 전형에서는 주로 학생부와 면접을 통해 평가되며, 수능 점수는 필요하지 않습니다.
+   - 모집단위: 전 모집단위
+이 외의 대부분의 전형은 수능 성적이 필수적인 요소로 포함되어 있습니다. 따라서 수능 미응시자에게는 위에서 언급한 두 가지 전형이 주요하게 지원 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 전자공학과의 충원 합격 인원인 36명을 언급하고 있으며, 이는 원본 텍스트와 일치합니다. 그러나 "2024학년도 데이터를 바탕으로"라는 언급은 원본 텍스트에 명시된 정보와는 다소 차이가 있습니다. 원본 텍스트는 전년도에 대한 정보만을 제공하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, "2024학년도"라는 언급이 원본 텍스트의 내용과 일치하지 않아 일관성이 떨어집니다. 또한, "후보순위"라는 용어는 원본 텍스트에 없으므로 일관성에 영향을 미칩니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용인 충원 합격 인원에 대한 정보를 잘 반영하고 있으며, 관련된 웹사이트 링크도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, "후보순위"라는 용어가 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "2024학년도"라는 언급이 원본 텍스트와의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전자공학과의 충원 합격 인원에 대한 정확한 정보를 제공하고 있지만, "2024학년도"라는 언급이 원본 텍스트의 사실과 일치하지 않으므로 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 세부 사항에서의 불일치로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, "2024학년도"라는 언급이 의미적으로 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 용어가 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.7502973755356038</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로, 전자공학과의 충원 합격 (후보순위)은 36명이었습니다. 이는 지원 인원 105명 중 모집 인원 69명을 채우기 위해 36명이 최종적으로 합격한 것을 의미합니다.
+만약 전년도 데이터가 필요하시다면, 해당 정보를 제공하지 못하겠습니다. 웹사이트 https://ipsi.deu.ac.kr/main.do 에 접속하여 최신 정보를 확인해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호를 명시적으로 언급하지 않고 있으며, 제공된 정보와 상충하는 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 전화번호에 대한 정보가 전혀 포함되어 있지 않아 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 전화번호를 요청하는 질문에 대한 직접적인 답변이 아니며, 관련 정보가 부족합니다. 그러나 웹사이트 링크를 언급하여 일부 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 한국어로 요청된 질문에 대해 중국어로 응답한 점은 유의해야 합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 전화번호에 대한 정보가 전혀 포함되어 있지 않아 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전화번호 요청에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 질문에 대한 적절한 답변이 아니기 때문에 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.6278834889023853</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。为了获取准确的信息，建议访问东义大学官网（https://ipsi.deu.ac.kr/main.do）上的招生页面或联系学校的招生办公室以获得最新的联系电话和其他重要信息。
+如果您需要其他帮助或有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통화가 되지 않을 경우의 절차에 대해 설명하고 있지만, 원본 텍스트에서 언급된 "등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다"라는 중요한 사실을 누락하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 포함하고 있지만, 전화 통화가 되지 않을 경우의 결과에 대한 언급이 부족하여 일관성이 떨어집니다. 원본 텍스트와의 일관성을 고려할 때 점수는 3입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 충원합격자 발표와 등록 과정에 대한 구체적인 절차를 설명하고 있습니다. 따라서 관련성 점수는 5입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 절차가 잘 정리되어 있습니다. 그러나 원본 텍스트의 핵심 내용을 완전히 반영하지 못해 점수는 4입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 제공하지만, 원본 텍스트의 중요한 사실을 누락하고 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 다소 부족함이 있어 점수는 4입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 중요한 내용을 누락하여 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 문장이 길어질 수 있어 점수는 4입니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.6770651886135809</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>3차 이후의 충원 합격자 발표와 등록 과정에서 개별 전화 통보 후에도 전화 통화가 되지 않는 경우, 다음과 같은 절차를 따르게 됩니다:
+1. **발표 일시**: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지입니다.
+2. **발표 방법**:
+   - 홈페이지에서 개별 조회 가능합니다.
+   - 고지서 교부는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+3. **등록 방법**:
+   - 등록장소는 학교 지정은행이며, 등록금 고지서에 기재된 정보를 참고해야 합니다.
+   - 등록 마감 시간은 은행의 마감 시간 내에 이루어져야 합니다 (2024년 2월 15일(목) 09:00부터 16:00까지, 2024년 2월 15일(목) 09:00부터 16:00까지).
+따라서 전화 통화가 되지 않더라도 합격자 발표와 등록 절차는 홈페이지를 통해 진행할 수 있으며, 이 과정에서 필요한 정보를 확인하고 적시에 등록을 마무리하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 잘 반영하고 있으며, 필요한 서류와 관련된 세부 사항을 포함하고 있습니다. 그러나 일부 세부 사항이 누락되거나 간략화되어 있어 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일관된 정보를 제공하지만, 일부 내용이 다소 다르게 표현되어 있어 일관성이 떨어질 수 있습니다. 예를 들어, 특정 서류의 발급 방법에 대한 설명이 원본과 다르게 기술되었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 필요한 서류에 대한 정보를 직접적으로 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 부분에서 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 일부 세부 사항이 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 일부 세부 사항의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 일부 표현에서 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 일부 부분에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.7189874623613421</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 다음과 같은 서류가 필요합니다:
+1. 지원자 본인의 가족관계증명서 (1부)
+2. 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+3. 중학교 학교생활기록부 (1부) - 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+4. 고등학교 학교생활기록부 (1부) - 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+추가로 6년 과정의 경우:
+- 중·고등학교 재학기간 동안 본인 및 부모 모두 농어촌 지역에 거주한 증빙자료 (필요시)
+12년 과정의 경우:
+- 중·고등학교 재학 시 부모가 농어촌 지역에 거주한 증빙자료 (필요시)
+- 고교 졸업증명서
+- 지원자 본인, 부모 각 1부의 초본 (총 3부)
+이 외에도 특정 학과나 모집단위에 따라 추가적인 서류가 필요할 수 있으므로 해당 정보를 확인하시기 바랍니다. 자세한 내용은 동아대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시거나 문의주시면 도움을 드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에는 원본 텍스트에 포함되지 않은 추가 서류(부모의 사망증명서 및 이혼 관련 서류)가 포함되어 있어 사실성이 떨어진다. 원본 텍스트에서 요구하는 서류 목록과 일치하지 않기 때문에 점수가 낮다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족하다. 원본 텍스트의 서류 목록과 생성된 응답의 서류 목록이 서로 다르기 때문에 점수가 낮다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 정보가 원본 텍스트의 요구 사항과 일치하지 않기 때문에 완전한 관련성을 보이지 않는다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되었고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 서류 목록이 잘 정리되어 있다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 보이지 않는다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 요구 사항을 정확하게 반영하지 않으며, 잘못된 정보를 포함하고 있다. 따라서 정확성 점수가 낮다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성에서 낮은 점수를 받아 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 정보가 원본의 맥락과 맞지 않아 의미적으로 완전하지 않다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.830990589333423</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형에서 제출해야 하는 주요 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상 교 및 미동의자)
+5. 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 '사망'이 명시되어 있지 않은 경우 제적등본 1부를 추가로 제출)
+6. 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부와 본인의 기본증명서(상세) 1부를 추가로 제출
+위 서류들은 지원자의 학력 및 거주 경력을 증빙하기 위한 것입니다. 특히, 중학교와 고등학교의 학교생활기록부는 교육과정 이수 여부를 확인하는 데 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 정시 모집 전형에 대한 정보를 제공하고 있지만, '이대'라는 잘못된 명칭을 사용하고 있습니다. 또한, 기회균등 전형이 존재하지 않는다는 사실을 명확히 전달하지 않고, '운영하지 않는 것 같습니다'라는 불확실한 표현을 사용하여 사실성을 떨어뜨립니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 정보를 제공해야 하지만, '이대'라는 다른 대학을 언급하고 있어 일관성이 결여되어 있습니다. 또한, 기회균등 전형이 존재하지 않는다는 사실과 모순되는 표현이 포함되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 정시 모집 전형에 대한 질문에 관련된 정보를 제공하고 있지만, '이대'라는 잘못된 언급으로 인해 약간의 관련성이 떨어집니다. 그러나 전반적으로 주제와 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, '운영하지 않는 것 같습니다'라는 표현이 다소 애매하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 정보가 잘 연결되어 있습니다. 그러나 '이대'라는 잘못된 언급이 흐름을 방해할 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 정시 모집 전형에 대한 정확한 정보를 제공하지 않고, '이대'라는 잘못된 정보를 포함하고 있습니다. 또한, 기회균등 전형이 존재하지 않는다는 사실을 명확히 전달하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, '이대'라는 잘못된 언급으로 인해 의미 전달이 부적절합니다. 그러나 전반적으로 주제와 관련된 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 표현이 애매하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.5351246393847107</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 이대의 정시모집에서는 저소득 기회균등 전형을 실시하지 않는 것으로 나타났습니다. 주요 변경사항 중에서 관련 내용을 찾지 못했으며, 현재 공개된 정보로는 이대가 2024학년도 정시모집에서 저소득 기회균등 전형을 운영하지 않는 것 같습니다.
+만약 최신 정보나 추가 변경 사항이 있는 경우, 대학의 공식 웹사이트 또는 입학처와 직접 확인하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급의 절사 여부에 대한 정보가 포함되어 있지 않다는 원문 내용을 완전히 무시하고 있으며, 2.5등급이 절사되지 않고 그대로 반영된다고 주장하고 있습니다. 이는 원문과 상충되는 잘못된 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 전혀 없습니다. 원문에서는 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 이를 반박하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문 질문에 대한 직접적인 답변을 제공하지 않고, 잘못된 정보를 바탕으로 설명하고 있습니다. 원문에서 요구하는 정보와는 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 완전히 상반되는 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 최하점입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적 적절성 점수는 최하점입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.5358363731944261</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2.5등급은 절사되지 않고 그대로 반영됩니다.
+수능 영어 영역의 등급 평균을 산출할 때, 2.5등급이 나오더라도 이는 절사 처리 대상이 아닙니다. 즉, 2.5등급은 실제 평균점수로 계산되며, 해당 점수가 수능 성적 산출에 사용됩니다.
+예를 들어:
+- 과탐(사회) 영역에서 2.0 등급
+- 과탐(과학) 영역에서 3.0 등급
+이 경우 평균은 (2.0 + 3.0) / 2 = 2.5 등급으로 계산됩니다.
+따라서, 2.5등급은 실제 평균 점수로 반영되며, 절사 처리는 이루어지지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시 충원 합격자 발표의 차수와 일정에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "등록금 납부"와 같은 추가 정보는 원본 텍스트에 명시되어 있지 않으므로, 완전한 일치라고 보기는 어렵습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 따르지만, "2차 발표"의 시간대가 원본 텍스트와 다르게 "09:00~16:00"으로 기재되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 모든 주요 포인트를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 차수에 대한 정보가 명확하게 나열되어 있습니다. 그러나 약간의 중복이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 일부 세부사항에서 차이가 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부사항에서의 불일치로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본에 없기 때문에 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어질 경우 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.6843266445098638</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2024년 정시 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00
+   - 내용: 합격자 발표 및 등록금 납부
+2. **2차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 09:00~16:00
+   - 내용: 합격자 발표 및 등록금 납부
+3. **3차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지
+   - 내용: 합격자 발표 및 등록금 납부
+각 차례별로 홈페이지에서 개별 조회가 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행으로, 등록금 고지서에 기재된 정보를 참고해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e-비즈니스학과의 모집 인원과 지원 인원, 경쟁률, 수능 성적 평균 및 표준 편차에 대한 정보를 포함하고 있지만, 원본 텍스트에서 제공된 수능 4개 영역 등급과 관련된 정보가 잘못 해석되었습니다. 특히, 4.6이라는 점수가 평균보다 낮다고 언급했으나, 원본 텍스트에서는 4.6이 최초 합격자와 최종 등록자의 평균을 약간 상회한다고 설명하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일부 일치하는 정보가 있지만, 수능 성적에 대한 해석에서 일관성이 부족합니다. 원본 텍스트는 4.6이 평균을 초과한다고 명시하고 있으나, 생성된 응답에서는 이를 반대로 해석하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 e-비즈니스학과의 추가 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으며, 경쟁률과 수능 성적에 대한 분석을 포함하고 있습니다. 그러나 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 이해하는 데 시간이 걸릴 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 나열하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 수능 성적에 대한 해석이 원본 텍스트와 상충하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르게 해석된 부분이 많습니다. 특히, 수능 성적에 대한 해석이 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 의미와 다르게 해석된 부분이 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 복잡하게 표현되어 있어 이해하는 데 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.6324054435005969</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看e비즈니스학과的相关信息。根据提供的信息：
+1. **e비즈니스학과의 모집인원 및 지원 인원**:
+   - e비즈니스학과는 모집인원이 31명이고, 지원 인원은 89명입니다.
+   - 경쟁률은 2.857 (89 / 31) 입니다.
+2. **수능 성적 평균 및 표준 편차**:
+   - e비즈니스학과의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 426.25이고, 표준 편차는 14.02입니다.
+3. **전형요소 반영비율**:
+   - e비즈니스학과는 수능 성적을 100%로 반영합니다.
+4. **동점자 처리기준**:
+   - 동점자 처리 기준은 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수) 영역의 합계점수 상위자입니다.
+### 분석
+1. **경쟁률과 지원 인원**:
+   - e비즈니스학과는 경쟁률이 2.857로 비교적 낮습니다.
+   - 지원 인원은 89명으로 많지만, 모집인원도 31명이므로 여전히 많은 수의 학생들이 충원되지 못할 가능성이 있습니다.
+2. **수능 성적**:
+   - 주어진 수능 점수가 4.6이라는 것은 표준 변환 점수를 의미하는 것 같습니다.
+   - 평균 점수는 426.25이고, 표준 편차가 14.02이므로, 4.6은 약 30점 정도 아래에 해당합니다.
+### 결론
+- 주어진 수능 성적 (4.6)은 평균보다 상당히 낮습니다.
+- 그러나 e비즈니스학과의 경쟁률이 낮고 모집인원도 많으므로, 이 점수로 추가 합격 가능성은 있습니다.
+- 하지만 확실한 것은 아니며, 최종 결정은 입학사정관들의 평가와 동점자 처리 기준에 따라 달라질 수 있습니다.
+**추천 조치:**
+1. 다른 전형 (예: 정시 등)을 준비하는 것이 좋습니다.
+2. 추가적으로 수능 공부를 강화하여 높은 점수를 얻는 것을 고려해 보세요.
+3. 입학사정관 면접에서도 좋은 성적을 받기 위해 준비하세요.
+이 정보와 분석을 바탕으로, 주어진 수능 성적이 e비즈니스학과로 추가 합격 가능할 것으로 보입니다만, 최종 결정은 입학사정관들의 평가에 따라 달라질 수 있으므로, 정확한 결과는 입학사정관의 판단을 기다리는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 등급과 경쟁률에 대한 정보를 포함하고 있으며, 정시 등급 5.3에 대한 합격 가능성을 언급하고 있습니다. 그러나, 원본 텍스트에서 제공된 평균 등급과 비교할 때, 구체적인 수치가 다소 다르게 해석될 수 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률과 모집 인원에 대한 추가 정보를 제공하여 원본 텍스트와의 일관성이 떨어질 수 있습니다. 특히, 합격 가능성에 대한 해석이 원본 텍스트와 다소 상충할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 e비즈니스학과의 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 원본 텍스트의 주요 주제를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 다소 복잡한 표현이 사용되어 약간의 유창성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 원본 텍스트의 흐름과 약간의 차이를 보일 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있지만, 일부 수치나 해석에서 차이가 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 추가 정보가 원본의 의도와 다르게 해석될 수 있는 여지가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 복잡한 표현이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.6673905717448966</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 모집 상황을 살펴보겠습니다.
+- **모집 인원**: 10명
+- **지원 인원**: 89명
+- **경쟁률**: 8.90
+- **최종 합격 (후보순위)**: 31명
+이 정보를 바탕으로, 정시 등급 5.3에 해당하는 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.20이며, 표준 편차는 7.56입니다.
+**평균 점수와 지원자 분포를 고려할 때:**
+- **평균 점수**: 317.20
+- **표준 편차**: 7.56
+이러한 통계에서, 등급 5.3에 해당하는 학생의 점수가 평균보다 약간 높은 수준으로 추정됩니다.
+**경쟁률과 최종 합격자 분포를 고려할 때:**
+- **최종 합격자**: 31명 중에서 충원된 합격자는 5명입니다.
+- 이는 경쟁률이 높은 상황임을 의미합니다.
+**결론:**
+정시 등급 5.3에 해당하는 점수가 평균보다 약간 높으므로, 최초합격 가능성은 있습니다만, 매우 높은 경쟁률을 고려하면 안전한 합격을 보장받기 위해서는 더 높은 점수를 받는 것이 좋습니다. 
+따라서, 정시 등급 5.3으로 e비즈니스학과에 최초합격 가능성은 있으나, 확실하지 않으며, 추가적인 준비와 노력이 필요할 수 있습니다.
+추가적으로, 동의대학교의 입학 관련 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하여 자세한 정보를 확인하시거나, 대학 측에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 내용과 관련이 없으며, e비즈니스학과의 예비 합격 가능성에 대한 질문에 대한 적절한 답변을 제공하지 않습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 전혀 다른 주제에 대해 논의하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 원본 텍스트의 정보와 생성된 응답의 내용은 서로 모순됩니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보나 부정확한 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.2841569938957967</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个方面：
+1. **你的成绩**：你需要提供具体的国语、数学和英语的标准化转换分数。
+2. **学校生活记录和个人陈述**：需要详细描述你在高中期间的表现，包括学业态度、团队合作能力等。
+3. **面试表现**（如果适用）：面试中的回答是否符合招生标准。
+假设你提供的信息如下：
+- 国语 (Korean) 标准化转换分数: 90
+- 数学 (Math) 标准化转换分数: 85
+- 英语 (English) 等级: B (对应标准化转换分数约70)
+- 学校生活记录和个人陈述：你在高中期间表现出色，积极参与团队活动，并且在学业上也取得了不错的成绩。
+- 面试表现：你的回答清晰、有条理，展示了对所申请专业的热情和理解。
+根据你提供的信息：
+1. **国语 + 数学 + 英语 (标准化转换分数)**
+   - 90 + 85 + 70 = 245
+2. **学校生活记录和个人陈述**：你的表现符合招生标准，展示了良好的团队合作能力和积极的学习态度。
+3. **面试表现**：你的回答清晰、有条理，并且对所申请的专业表现出浓厚的兴趣和理解。
+根据这些信息来看，你的成绩在平均范围内。虽然没有达到最高分，但整体表现良好，具备一定的竞争力。具体能否预估为预录取（预审合格），还需要参考具体的招生标准和竞争情况。
+建议你：
+1. **详细准备面试**：确保你在面试中能够清晰、有条理地回答问题。
+2. **补充材料**：如果有任何可以进一步展示你的能力和热情的额外材料，尽量提供。
+3. **关注官方信息**：定期查看学校官网发布的最新招生信息和通知。
+希望这些信息对你有所帮助！如果需要更具体的建议，请提供更多详细信息。</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 영어 등급 평균과 수능 4개 영역 등급 평균에 대한 정보를 포함하고 있으며, 3.44의 성적이 합격하기 어려울 수 있다는 점을 잘 반영하고 있습니다. 그러나 "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균은 353.48"이라는 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 반영하고 있지만, 추가된 정보(예: 모집인원, 지원인원, 경쟁률 등)가 원본 텍스트와 일치하지 않거나 명시되지 않은 내용이므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 간호학과에 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 원본 텍스트에 없는 세부사항(예: 경쟁률 등)이 포함되어 있어 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 세부사항에서 약간의 부정확성이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있지만, 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.7357624491443262</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>3.44의 영어 등급 점수로 동의대학교 간호학과에 합격하기는 어렵다고 볼 수 있습니다. 간호학과의 최종등록자 중에서 가장 낮은 영어 등급 평균은 2.34였습니다 (간호학과 모집인원 22명, 지원인원 145명, 경쟁률 6.59). 이는 3.44보다 훨씬 낮은 점수입니다.
+또한, 간호학과의 최종등록자들의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균은 353.48였습니다. 이 값도 3.44로는 크게 높습니다.
+따라서, 현재의 성적만으로는 간호학과에 합격하기 어렵다고 판단할 수 있습니다. 그러나 다음과 같은 방법들을 고려해볼 수도 있습니다:
+1. **추가 지원**: 다른 모집단위나 전형을 추가로 지원하여 기회를 늘릴 수 있습니다.
+2. **재수 시도**: 성적 향상을 위해 재수를 계획할 수 있습니다.
+3. **기타 자격**: 학생부, 실기 등 기타 평가 요소에서 우수한 점수를 받을 경우 합격 가능성은 높아질 수 있습니다.
+추가로 지원하거나 재수를 고려하는 경우에는 전문적인 컨설팅을 받아보는 것이 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 2.52라는 점수가 낮다고 언급하고 있으며, 이는 사실입니다. 그러나 응답은 간호학과의 평균 등급보다 높은 성적을 가지고 있다고 한 원문과 모순됩니다. 원문에서는 2.52가 평균보다 높은 성적이라고 했지만, 생성된 응답에서는 이를 부정하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 2.52가 평균보다 높은 성적이라고 했으나, 생성된 응답에서는 이를 낮은 수준으로 평가하고 있습니다. 이로 인해 두 텍스트 간의 정보가 상충합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 간호학과의 경쟁률 및 평가 기준에 대한 정보를 포함하고 있습니다. 그러나 원문에서 제시된 합격 가능성에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 추천 조치와 전략이 명확하게 제시되어 있습니다. 그러나 원문과의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 2.52라는 점수를 낮게 평가하고 있으며, 이는 원문과의 사실적 일치가 없습니다. 원문에서는 2.52가 평균보다 높은 성적이라고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정보가 유용하지만, 원문과의 사실적 불일치로 인해 전반적인 품질이 저하되었습니다. 정보의 일관성과 정확성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원문과의 의미적 일치가 부족하여 적절성에 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 추천 조치와 전략이 제시되어 있습니다. 그러나 원문과의 연결이 약해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.5506152248456183</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 상당히 낮은 수준입니다. 동의대학교 간호학과의 경우, 최신 데이터를 보면 다음과 같은 특징이 있습니다:
+1. **경쟁률**: 6.59 (최종 등록자 기준)
+2. **국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균**: 353.48
+3. **영어 등급 평균**: 2.34
+이러한 데이터를 바탕으로, 2.52라는 점수는 매우 낮은 수준이며, 일반적으로 최종 합격 가능성은 매우 낮습니다.
+**추천 조치:**
+1. **다른 대학이나 전형 탐색**: 경쟁률이 높고 기준점수가 높은 간호학과에서 합격하기는 어렵습니다. 다른 대학의 간호학과나 다른 전형(예: 특기자전형, 실기전형 등)을 고려해보세요.
+2. **개인적 강점을 살리기**: 동의대학교에서는 서류평가와 면접평가가 중요한 역할을 합니다. 개인적인 경험, 활동, 열정 등을 잘 준비하여 서류와 면접에서 좋은 평가를 받는 것이 중요합니다.
+**추천 전략:**
+1. **서류 준비**: 학교생활기록부와 자기소개서를 철저히 준비하고, 실제 경험이나 활동을 구체적으로 기재하세요.
+2. **면접 준비**: 지원 동기, 학업계획, 전공적합성 등을 잘 준비하여 면접에서 좋은 평가를 받도록 하세요.
+이런 조치들을 통해 합격 가능성은 높아질 수 있습니다. 그러나 여전히 낮은 점수로 인해 큰 어려움을 겪을 가능성이 높습니다.</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3.7의 GPA가 좋은 점수라고 언급하지만, 원본 텍스트에서는 3.7이 간호학과의 평균 등급보다 낮다고 명시하고 있습니다. 따라서, GPA에 대한 평가가 원본과 일치하지 않으며, 이로 인해 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 고려해야 한다고 언급하지만, 원본 텍스트의 주된 내용과는 다소 일치하지 않는 부분이 있습니다. 특히, GPA에 대한 해석이 원본과 상충하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 간호학과에 지원할 때 고려해야 할 여러 요소를 잘 설명하고 있으며, 원본 텍스트의 주제와 관련이 깊습니다. 따라서 관련성 점수는 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 GPA에 대한 정보가 원본 텍스트와 일치하지 않으며, 간호학과의 평균 등급에 대한 해석이 잘못되었습니다. 이로 인해 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 약간의 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, GPA에 대한 해석에서 약간의 차이가 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있으나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.6115019688825764</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 좋은 점수지만, 간호학과에 지원할 때 여러 요소를 고려해야 합니다.
+1. **전형 유형**: 간호학과는 일반적으로 경쟁이 매우 치열합니다. 특히 실기고사가 포함된 전형일 경우, 수능 성적 외에도 실기 성적이 중요하게 평가됩니다.
+2. **수능 성적**: 간호학과의 모집단위 중 일부는 수능 점수가 중요한 요소입니다. 예를 들어, 간호학과 - 교직 - 간호교육인증은 수능 점수가 반영되는 전형일 수 있습니다.
+3. **실기 성적**: 실기고사는 간호학과에서 매우 중요합니다. 제자리 멀리뛰기나 Z-런 등 특정 실기 과목을 준비해야 합니다.
+4. **추천서 및 자기소개서**: 일부 전형에서는 추천서와 자기소개서가 중요한 역할을 하므로, 잘 작성한 서류도 중요합니다.
+5. **동점자 처리 기준**: 동점자가 발생했을 때, 수능 국어, 수학, 영어 등급 점수를 합산하여 상위자를 선발하기 때문에 좋은 성적이 유리합니다.
+6. **추천 및 특기사항**: 추천서나 자기소개서에서 자신의 강점을 잘 표현하고, 간호사로서의 열정과 적합성을 잘 전달하는 것이 중요합니다.
+결론적으로 3.7의 GPA는 좋은 점수이지만, 간호학과에 합격하기 위해서는 수능 성적, 실기 성적, 서류 평가 등 여러 요소를 종합적으로 고려해야 합니다. 특히 실기고사 준비와 추천서 및 자기소개서 작성은 중요합니다.
+추가 정보나 자세한 조언이 필요하시다면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. https://ipsi.deu.ac.kr/main.do 에서 더 많은 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 간호학과의 평균 성적과 관련된 정보를 제공하지만, 원본 텍스트에서 제시된 간호학과의 평균 등급(영어 2.34, 수능 3.37)과는 다른 기준(표준 변환 점수 353.48)으로 평가하고 있습니다. 이로 인해 사실관계가 일치하지 않으며, 잘못된 결론을 도출하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 2.58의 성적이 평균보다 높다고 언급하지만, 생성된 응답은 이 성적이 평균보다 낮다고 주장하고 있습니다. 이러한 모순으로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 간호학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 수치와는 다르게 접근하고 있어 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요인을 고려하여 합격 가능성을 논의하고 있지만, 정보의 흐름이 다소 불명확하고 논리적 연결이 약간 부족합니다. 특히, 원본 텍스트와의 연결이 명확하지 않아 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있습니다. 특히, 성적에 대한 해석이 잘못되어 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실관계, 일관성, 정확성에서 큰 문제를 보이고 있습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 다르게 해석되고 있습니다. 이로 인해 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명을 제공합니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.5996496264017787</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서 국어, 수학, 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48이며, 표준 편차는 4.66입니다.
+현재 성적이 2.58이라면, 이는 표준점수로 환산하면 대략 -1.07 정도 됩니다 (표준점수가 평균 50이고 표준편차가 10일 때, 2.58은 39.42가 되기 때문입니다).
+이 점수는 매우 낮은 수치로, 동의대학교 간호학과의 평균 성적(353.48)에 비해 훨씬 낮습니다. 표준편차가 4.66이라는 것을 고려하면, 이 점수는 평균보다 약 2.3표준편차 아래에 위치합니다.
+따라서, 현재 성적만으로는 동의대학교 간호학과에 정시 전형으로 합격하기는 매우 어려울 것으로 보입니다. 그러나 다음과 같은 요인들을 고려하면 다른 가능성도 있습니다:
+1. **특기사항이나 실적**: 특기사항이나 실적 등이 뛰어나다면, 이 점을 강조하여 입학사정관의 주목을 받을 수 있습니다.
+2. **면접 성적**: 면접에서도 좋은 평가를 받으면 합격 가능성은 높아질 수 있습니다.
+3. **동기부여와 진로계획**: 지원 동기에 대한 설명이 충분히 설득력 있고, 진로 계획이 명확하다면 입학사정관의 호감을 얻을 수 있습니다.
+결론적으로, 현재 성적만으로는 낮은 확률로 합격할 것으로 보입니다. 그러나 특기사항이나 면접 등 다른 요인들을 잘 활용한다면 합격 가능성은 높아질 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보를 왜곡하고 있으며, 예비 7번의 합격 가능성에 대한 명확한 언급이 없습니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 여러 요소를 고려해야 한다고만 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명확히 언급하는 반면, 생성된 응답은 다양한 요소를 고려해야 한다고 하여 모순된 정보를 제공합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않으며, 원본 텍스트의 핵심 내용을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 전체적인 흐름이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름이 부족합니다. 각 요소가 어떻게 연결되는지 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 예비 7번의 합격 가능성에 대한 정확한 정보를 제공하지 않습니다. 원본 텍스트의 내용을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원본 텍스트의 핵심 내용을 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 질문에 대한 적절한 답변을 제공하지 않습니다. 그러나 일부 요소는 관련이 있을 수 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 원본 텍스트와의 관련성이 떨어져서 질문에 대한 명확한 답변을 제공하지 않아 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.563568477607266</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>为了回答您是否能被游戏工学专业录取,我们需要考虑以下几个因素:
+1. 您的高考成绩:
+   - 国语 (语文) 标准分
+   - 数学 (数学) 标准分
+   - 英语 (英语) 等级分数
+   - 科目选择 (选考科目) 的标准分
+2. 专业录取分数线:
+   需要查看游戏工学专业的具体录取分数线,这会根据年份和招生计划有所变化。
+3. 您的排名情况:
+   根据您的成绩在同类别考生中的排名,以及是否有其他加分项(如数学选考)。
+4. 专业具体的录取规则:
+   游戏工学专业的录取方式是按照总分从高到低排序录取,如果有并列分数的情况会参考单科成绩等。
+5. 招生计划人数:
+   该专业2024年计划招生3人,实际报名人数为16人,竞争比为5.33:1。
+根据您提供的信息(预估7号),建议您可以:
+- 参考往年的录取分数线和排名情况
+- 确保自己的成绩在同类别考生中处于前列 
+- 准备好所有需要提交的申请材料
+最终能否录取还需要等待学校公布具体的录取结果。建议密切关注学校的官方通知,并按照要求准备相关材料。
+如果您不确定具体情况,可以访问该大学官网或联系招生办公室获取更详细的信息和指导。https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 최종등록자의 경쟁률과 충원 합격자 수에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 수능 4개 영역 등급 평균(4.78)과 비교할 때, "당신의 성적은 평균보다 약간 낮지만"이라는 표현은 사실과 다릅니다. 원본 텍스트에 따르면, 4.16은 평균보다 높은 성적입니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 성적 비교에 대한 부분에서 일관성이 부족합니다. 원본 텍스트는 4.16이 평균보다 높은 성적이라고 명시하고 있으나, 생성된 응답에서는 이를 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 추가 합격 가능성에 대한 예측을 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급과 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 성적 비교 부분에서의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 성적 비교에 대한 부분에서 부정확한 진술이 포함되어 있습니다. 이는 전체적인 정확성에 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 성적 비교에 대한 부분에서의 부정확성이 의미 전달에 영향을 미칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.6922097707054844</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 수능 최종등록자의 경쟁률이 5.33이며, 충원 합격자는 3명입니다. 평균 국어+수학+탐구(가산점 포함) 표준 변환 점수 합은 303.05이고, 평균 영어 등급은 3.25입니다.
+당신의 수능 성적이 4.16이라면, 이는 대략 300-310 사이의 점수가 될 것입니다 (이 숫자는 표준 변환 점수와 실제 점수 간의 대략적인 관계를 나타내는 것일 뿐 정확한 변환이 아닙니다). 
+현재 게임공학과의 경쟁률은 5.33이고, 충원 합격자는 3명입니다. 이에 비춰볼 때, 당신의 성적은 평균보다 약간 낮지만, 여전히 충분한 수준으로 보입니다.
+따라서, 추가 합격 확률을 예측하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **경쟁자들의 성적 분포**: 현재 지원자의 성적이 어떻게 분포되어 있는지 확인해야 합니다.
+2. **가산점 영향**: 만약 당신이 특정 과목에서 높은 가산점을 받을 수 있다면, 이는 합격 확률을 높일 수 있습니다.
+3. **전형 방식**: 게임공학과의 전형 방식 (예: 수능 성적 + 면접 등)에 따라 추가 합격 가능성도 달라질 수 있습니다.
+이러한 요소들을 고려하면, 당신의 경우 4-6번 정도의 추가 합격 가능성이 있다고 추정할 수 있습니다. 그러나 이는 매우 대략적인 예측이며, 실제 결과는 여러 변수에 의해 결정됩니다.
+추가적으로, 동의대학교의 정시 전형에서는 종종 면접 등 다른 평가 요소들이 포함되므로, 성적 외에도 준비를 철저히 하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 영어 등급 평균을 3.56으로 제시하고 있으나, 원본 텍스트에서는 영어 등급 평균이 2.88로 명시되어 있습니다. 이로 인해 사실관계에 큰 오류가 발생하였고, 다른 수치들도 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않으며, 특히 성적 기준에 대한 정보가 상충합니다. 원본 텍스트의 내용과 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 경영정보학과의 성적 기준에 대한 정보를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 특히 성적 기준에 대한 정보가 잘못되었습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실관계, 일관성, 정확성에서 큰 문제가 있으며, 전반적으로 신뢰할 수 있는 정보가 아닙니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 정보를 제공하려고 하지만, 사실관계의 오류로 인해 의미가 왜곡되었습니다. 따라서 적절성에 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 정보의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.6884903986074575</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>2024학년도 동일 전형의 성적 기준을 확인해보겠습니다.
+주어진 정보에 따르면, 경영정보학과의 경우:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 307.84였습니다.
+- 영어 등급의 평균은 3.56였습니다.
+성적 3.75는 영어 등급에 해당합니다. 
+따라서, 성적이 3.56보다 높으므로, 이 경우로는 최초등록자로 가능할 것으로 보입니다.
+하지만 정확한 판단을 위해서는:
+1. 해당 학과의 최종등록자의 성적 분포를 확인해야 합니다.
+2. 모집인원과 지원 인원의 비율 등을 고려해야 합니다.
+3. 경쟁률이 높다면, 평균 이상의 점수를 가지고 있어야 안전합니다.
+따라서, 3.75라는 성적은 최초등록자로 가능할 것으로 보이나, 확실한 답변을 위해서는 해당 학과의 정확한 성적 분포와 모집인원 등을 확인해보시는 것이 좋습니다. 필요하다면, 대학 입학처에 직접 문의하시는 것도 방법입니다.
+추가 정보를 제공해주신다면 더 정확한 답변을 드릴 수 있을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 성적 4.2가 경영정보학과의 평균 등급보다 높은 점수라고 언급하고 있지만, 원본 텍스트에서는 4.2가 평균보다 낮다고 명시되어 있습니다. 이로 인해 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 포함하고 있습니다. 원본에서는 4.2가 낮은 성적이라고 했으나, 생성된 응답에서는 높은 성적이라고 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 경영정보학과의 정시 모집요강에 대한 정보를 제공하고 있으며, 질문의 맥락과 관련이 있습니다. 그러나 원본 텍스트의 핵심 내용인 합격 가능성에 대한 정보가 충분히 반영되지 않았습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약해져 coherence 점수가 다소 낮아졌습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 성적에 대한 정보가 부정확하여 정확성 점수가 낮습니다. 원본 텍스트의 사실과 상충하는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질이 평균 이하로 평가됩니다. 사실성과 일관성에서 문제가 있으며, 정확성 또한 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 전반적으로 의미가 적절하고 맥락에 맞는 정보를 제공합니다. 그러나 원본 텍스트의 핵심 메시지와는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 내용이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.6900351271916318</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과의 정시 모집요강을 확인해보겠습니다.
+1. **모집단위 및 전형**: 경영정보학과는 일반학생전형으로 모집됩니다.
+2. **성적 요건**:
+   - 수능 성적: 4.2는 매우 높은 점수입니다 (평균 3.5~4.0 사이).
+   - 학생부 종합 평가 영역: 공동체역량, 학업역량, 전공적합성 중 어느 영역에서 좋은 성적이 나와야 합니다.
+3. **학생부 종합 평가**:
+   - 2024학년도에는 학생부 종합 평가 영역이 변경되었습니다: 공동체역량, 학업역량, 전공적합성입니다.
+4. **전형 요소 반영 비율**:
+   - 수능 성적은 100% 반영됩니다.
+   - 학생부 종합 평가는 각 영역별로 점수를 부여받습니다 (공동체역량, 학업역량, 전공적합성).
+5. **최초등록자 기준**:
+   - 최초 등록자는 수능 성적이 높은 경우 일반적으로 충분히 가능합니다.
+   - 학생부 종합 평가에서도 좋은 점수를 받는 것이 중요합니다.
+따라서, 4.2의 수능 성적을 가지고 경영정보학과에 최초등록하는 것은 가능하지만, 학생부 종합 평가에서 좋은 결과를 받아야 합니다. 특히 공동체역량, 학업역량, 전공적합성 등에서 높은 점수를 받는 것이 중요합니다.
+추가적으로, 경쟁률과 지원자들의 성적이 어떻게 분포되어 있는지 확인해보시고, 본인의 강점과 약점을 잘 파악하여 서류 준비와 면접 준비를 철저히 해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 평균 성적에 대한 정보를 제공하지만, 영어 등급 평균이 4.33으로 잘못 기재되어 있습니다. 원본 텍스트에서는 영어 등급 평균이 3.25로 명시되어 있습니다. 이로 인해 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 반영하고 있으나, 영어 등급 평균에 대한 정보가 일치하지 않아 일관성이 떨어집니다. 또한, 추가적인 요소들에 대한 설명이 포함되어 있지만, 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 정보를 잘 다루고 있습니다. 추가적인 요소들에 대한 설명도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 요소가 잘 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 영어 등급 평균에 대한 잘못된 정보로 인해 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 정확성에서의 문제로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 의미를 전달하고 있습니다. 그러나 일부 잘못된 정보가 포함되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다. 
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.651739538189435</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 수능 최종등록자들의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.77
+- 영어 등급의 평균: 4.33
+이러한 데이터를 바탕으로, 정시 성적이 5.33인 경우 동의대학교 경영정보학과에 합격 가능성은 낮습니다. 최종등록자의 평균 점수가 상당히 높기 때문입니다.
+하지만, 다음과 같은 요소들이 있을 때는 합격 가능성이 조금 더 높아질 수 있습니다:
+1. **특이성**: 지원자가 다른 모집단위에서 좋은 성적을 거둔 경험이 있다면 이점을 활용할 수 있습니다.
+2. **면접 성적**: 면접에서도 좋은 점수를 받으면 전체 평가에서 유리해질 수 있습니다.
+3. **추천서 및 자기소개서**: 강력한 추천서나 잘 작성된 자기소개서로 지원자의 적합성을 강조할 수 있습니다.
+따라서, 정시 성적이 5.33이라면 경영정보학과에 합격하기는 어렵지만, 위의 요소들을 잘 활용한다면 조금 더 높은 가능성으로 접근할 수 있을 것입니다. 하지만 확실한 것은 아니므로, 최종 결정을 내리기 전까지는 여러 가지 방법을 고려해보시는 것이 좋습니다.
+추가적으로, 동의대학교 입학 홈페이지나 관련 공지사항을 확인하시거나, 학교 관계자에게 직접 문의하시는 것도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 바이오응용공학부의 평균 성적과 관련된 정보를 제공하지만, 원본 텍스트의 세부 사항과 일치하지 않는 부분이 있습니다. 예를 들어, 영어 등급 평균이 3.33으로 언급되었으나 원본 텍스트에서는 3.82로 명시되어 있습니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있으나, 성적 평균에 대한 언급이 다르기 때문에 일관성이 떨어집니다. 특히, 최초합격자 성적 평균에 대한 정보가 원본과 상충합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 바이오응용공학부의 성적 기준과 경쟁률에 대한 정보를 제공하여 관련성이 높습니다. 그러나 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족하여 점수를 약간 낮추었습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 정보가 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 주요 사실과 일치하지 않는 부분이 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성, 일관성, 정확성에서 부족함이 있어 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 세부 사항에서 차이가 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.761307193014315</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 경우, 정시 모집군과 모집단위에 따라 성적 기준이 다를 수 있습니다. 주어진 정보만으로는 정확한 판단을 하기 어렵지만, 일반적으로 바이오응용공학부는 경쟁률이 높은 학과로 알려져 있습니다.
+주요 정보:
+- 2024학년도 모집단위: 바이오의약공학과, 의생명공학과, 식품공학과
+- 최초합격자 성적 평균: 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균은 312.33이며, 영어 등급의 평균은 3.33입니다.
+주요 참고사항:
+1. **성적 평균**: 주어진 정보에 따르면, 바이오응용공학부 최초합격자의 성적 평균은 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균이 312.33입니다. 이는 3.33보다 높습니다.
+2. **영어 등급**: 주어진 정보에 따르면, 바이오응용공학부 최초합격자의 영어 등급 평균은 3.33입니다. 이는 동일합니다.
+3. **경쟁률 및 모집인원**: 바이오응용공학부의 경쟁률과 모집인원을 고려해야 합니다. 예를 들어, 바이오의약공학과의 경우 모집 인원은 46명이고 지원 인원은 238명으로, 경쟁률이 높습니다.
+결론적으로:
+- **성적**: 주어진 성적이 3.33이라면, 최초합격자 평균보다 낮지만, 영어 등급은 동일합니다.
+- **경쟁률 및 모집인원**: 바이오응용공학부의 경쟁률과 모집인원을 고려해야 합니다.
+따라서, 성적이 3.33이라면 최초합격자 평균보다 낮지만, 실제 가능성을 판단하기 위해서는:
+1. **최종등록자의 성적 분포**를 확인해야 합니다.
+2. **경쟁률과 모집인원**을 고려해야 합니다.
+따라서, 정확한 답변을 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 가장 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 성적 기준에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 등급(영어 2.8, 수능 3.82)과 비교했을 때, 4.4 등급이 합격 가능성이 낮다는 점을 명확히 언급하지 않고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 모집군과 성적 기준에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 내용과 일치하지 않는 부분이 있습니다. 특히, 4.4 등급이 경쟁력이 있다고 언급한 부분은 원본 텍스트의 결론과 상충합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 정보와 관련된 내용을 다루고 있지만, 원본 텍스트의 핵심 내용인 합격 가능성에 대한 직접적인 언급이 부족합니다. 그러나 전반적으로 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 성적 기준에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교했을 때 정확성이 떨어집니다. 4.4 등급이 합격 가능성이 낮다는 점을 간과하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 사실을 충분히 반영하지 못하고 있습니다. 따라서 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 정보와 관련된 내용을 적절하게 전달하고 있습니다. 그러나 원본 텍스트의 의미를 완전히 반영하지는 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 내용이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.6686814642178552</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2024학년도에 방사선학과의 모집요강을 확인해보겠습니다. 하지만 정확한 답변을 드리기 위해서는 방사선학과의 정시 모집군, 모집인원, 그리고 성적 기준 등을 알아야 합니다.
+일반적으로 방사선학과는 다음과 같은 특징이 있습니다:
+1. **정시 모집군**: 대부분의 대학에서는 방사선학과를 (가)군으로 모집합니다.
+2. **성적 기준**: 방사선학과는 일반적으로 국어, 수학, 영어 등 주요 과목에서 높은 성적이 요구됩니다.
+현재 제출된 정보로는:
+- **성적**: 4.4등급
+- **모집군**: (가)군
+방사선학과의 정시 모집군이 (가)군이고, 성적이 4.4정도라면, 이 정도 성적은 충분히 경쟁력을 갖추고 있습니다.
+하지만 정확한 답변을 위해서는:
+1. **2024학년도 방사선학과의 정시 모집군**: (가)군인지 확인해야 합니다.
+2. **성적 기준**: 해당 학과의 최저 성적 기준을 확인해야 합니다.
+따라서, 다음과 같은 정보를 추가로 수집해보세요:
+- 2024학년도 방사선학과의 정시 모집군
+- 2024학년도 방사선학과의 성적 기준
+이런 정보들을 바탕으로 최종적인 판단을 내릴 수 있을 것입니다.
+추가로, 해당 대학의 입학처 웹사이트나 학교 입학상담실에 문의하시면 더 정확한 정보를 얻으실 수 있습니다. 
+https://ipsi.deu.ac.kr/main.do
+이 링크를 통해 추가적인 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 모집 인원에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(영어 2.8, 수능 3.82)에 대한 언급이 없고, 2.66이라는 점수가 평균보다 높다는 원본의 주장을 반박하는 내용이 포함되어 있어 사실관계에서 일부 불일치가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본에서는 2.66이 평균보다 높다고 명시했으나, 생성된 응답에서는 이를 낮은 수치로 간주하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 관련된 정보를 제공하고 있지만, 원본 텍스트의 주요 내용인 평균 등급에 대한 정보가 부족하여 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 모집 인원에 대한 정확한 정보를 제공하지만, 원본 텍스트의 평균 등급에 대한 정보와 상충하는 내용을 포함하고 있어 정확성에서 일부 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실관계와 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 의미와 다소 어긋나는 부분이 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.5638543567345817</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 경쟁률을 고려하면, 정시 모집에서 2.66이라는 표준 변환 점수는 상대적으로 낮은 수치입니다.
+방사선학과의 경우:
+- 모집인원: 5명
+- 지원인원: 36명
+- 경쟁률: 7.20
+이와 관련하여:
+1. **경쟁률**: 7.20이라는 높은 경쟁률을 고려하면, 2.66의 점수는 상대적으로 낮습니다.
+2. **표준 편차**: 표준 변환 점수 합의 표준 편차가 2.74로 비교적 낮아, 이 점수보다 높은 수치를 가진 지원자들이 많을 가능성이 있습니다.
+따라서:
+- **위험성**: 2.66이라는 점수는 경쟁률이 높고 표준 편차가 작은 방사선학과에서 상대적으로 낮은 수치입니다.
+- **추천**: 정시 모집에서는 다른 과목이나 학교생활기록부 등 서류평가 영역을 강화하여 지원 동기를 보여주는 것이 좋습니다.
+결론적으로, 2.66이라는 점수는 방사선학과에서 상대적으로 낮은 수치입니다. 정시에서는 다른 과목이나 활동을 통해 지원 동기를 보여주는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 잘 반영하고 있으며, 3.66의 성적이 평균보다 높은 점을 언급하고 있습니다. 그러나 농어촌 전형에 대한 구체적인 기준이나 세부사항이 부족하여 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 성적과 경쟁률에 대한 긍정적인 요소를 잘 설명하고 있습니다. 다만, 농어촌 전형에 대한 추가적인 정보가 포함되어 있어 약간의 일관성 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 질문자의 성적과 합격 가능성에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확한 정보를 제공하고 있으나, 농어촌 전형의 구체적인 기준에 대한 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 긍정적인 평가를 받을 수 있습니다. 그러나 일부 세부사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 질문자의 상황에 적절한 조언을 제공합니다. 다만, 일부 내용이 다소 일반적일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다. 
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.5616384640907121</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공의 농어촌 전형에 지원하셨다면, 합격 가능성은 있습니다만, 확실한 것은 아닙니다. 이유는 다음과 같습니다:
+1. **성적 기준**: 대부분의 대학에서 농어촌 전형은 일반 전형보다 낮은 성적을 요구하기도 하지만, 정확한 기준은 해당 대학의 공지사항에 따라 다릅니다.
+2. **전형 방식**: 농어촌 전형은 종종 학생부와 출결 등 다른 요소를 고려하므로, 3.66이라는 성적 외에도 지원자들의 학교생활기록부나 출결 기록 등을 종합적으로 평가합니다.
+3. **경쟁률**: 농어촌 전형의 경우 일반 전형보다 경쟁률이 낮을 수 있지만, 여전히 많은 지원자가 있을 가능성이 있습니다.
+4. **추천서 등 추가 서류**: 일부 대학에서는 추천서나 자기소개서 등을 요구하기도 하므로, 이들 문서가 어떻게 평가되는지에 따라 결과가 달라질 수 있습니다.
+5. **면접 성적**: 면접에서도 합격 여부를 결정하는 중요한 요인이 될 수 있으니, 준비를 철저히 해야 합니다.
+**추천 사항:**
+- **공식 홈페이지 확인**: 해당 대학의 입학처 웹사이트나 공지사항을 꼭 확인해보세요. 정확한 합격 기준과 전형 방식이 명시되어 있을 것입니다.
+- **면접 준비**: 면접 질문 유형을 미리 파악하고, 지원 동기와 학업 계획 등을 잘 준비하세요.
+- **추천서 작성**: 필요하다면 추천서를 철저히 준비해보세요.
+결론적으로 3.66의 성적만으로는 확실한 합격을 보장할 수 없습니다. 하지만 충분히 좋은 점수이므로, 지원하시고 결과를 기다리는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 25번의 순위가 높은 위치라고 언급하고 있지만, 원문에서는 예비 25번 이상이 합격한 학과 목록을 제공하고 있으며, 지원한 학과가 그 목록에 포함된다면 합격할 확률이 있다고 명시하고 있습니다. 그러나 생성된 응답은 합격하기 어려울 가능성이 크다고 하여 원문과 상충하는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문에서 제공하는 정보와 일부 일치하지만, 예비 25번의 순위에 대한 해석이 다릅니다. 원문은 특정 학과에 따라 합격 가능성을 언급하고 있으나, 생성된 응답은 일반적인 가능성을 언급하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문에서 제기된 질문에 대한 답변을 제공하고 있으며, 면접 준비와 서류 평가 강화 등의 조언을 포함하고 있어 관련성이 높습니다. 그러나 원문에서 제시한 특정 학과 목록에 대한 언급이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 원문과의 연결성이 약간 떨어져 있어 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제공하는 정보와 다소 상충하는 내용을 포함하고 있습니다. 예비 25번의 순위가 높은 위치라는 점은 맞지만, 합격 가능성에 대한 해석이 원문과 다릅니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 특히 유창성과 관련성에서 좋은 점수를 받았습니다. 그러나 사실성과 일관성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으나, 원문에서 제시한 특정 조건에 대한 해석이 다소 다르게 나타나 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 언어로 작성되어 있어, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.4399127294737257</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 위치입니다. 대부분의 경우, 이 정도 순위에서는 합격하기가 어려울 가능성이 큽니다. 하지만 정시에서 합격 여부는 여러 요인에 따라 결정되므로 완전히 배제할 수는 없습니다.
+다음과 같은 방법으로 준비를 해보세요:
+1. **면접 준비**: 면접은 중요한 부분입니다. 지원동기, 학업계획, 전공적합성 등에 대해 잘 준비해두세요.
+2. **서류 평가 강화**: 서류평가에서 좋은 점수를 받을 수 있도록 학교생활기록부와 기타 제출서류를 철저히 검토하고 정리하세요.
+3. **면접 질문 대비**: 면접 질문 공통문항을 미리 준비해두세요. 예상 질문에 대해 답변할 수 있게 연습해보세요.
+또한, 학교의 전형요소 반영 비율과 동점자 처리 기준 등을 잘 이해하고, 자신의 강점을 최대한 부각시킬 수 있도록 노력하세요. 
+결국, 정확한 확률을 예측하기는 어렵지만, 적극적으로 준비한다면 좋은 결과를 얻을 가능성이 늘어날 것입니다.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 잘못된 정보를 포함하고 있으며, 해당 학부가 존재하지 않는다는 사실을 무시하고 있습니다. 또한, 제시된 성적 기준과 경쟁률 정보는 출처 텍스트와 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 출처 텍스트와 상충되는 정보를 제공합니다. 법경찰행정학부의 존재를 전제로 한 내용은 출처와 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교의 입학 정보에 대한 일반적인 내용을 포함하고 있지만, 법경찰행정학부에 대한 질문에 대한 직접적인 답변이 아니므로 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 정확성과 관련성 부족으로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 여러 요소를 나열하고 있으나, 주제와의 일관성이 부족하여 논리적인 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 응답에 포함된 정보는 사실과 다르며, 특히 법경찰행정학부의 존재에 대한 잘못된 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았으며, 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 일부 적절한 요소가 있으나, 전체적인 맥락과는 맞지 않으며, 주제와의 관련성이 떨어집니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해하기 쉬운 편이나, 내용의 정확성과 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.710720555961754</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 법경찰행정학부의 정시모집 경쟁률과 합격 기준을 정확히 파악하기 위해서는 최신 입학정보를 확인해야 합니다. 하지만 일반적으로 다음과 같은 요소들을 고려할 수 있습니다:
+1. 전년도 성적 평균:
+   - 2023년 법경찰행정학부의 정시모집 경쟁률은 약 4:1이었습니다.
+   - 이에 따라 평균 합격 점수는 대략 90점대 중반에서 100점대 초반까지 변동할 수 있습니다.
+2. 전형별 성적 요건:
+   - 일반전형: 국어, 수학, 영어 등급이 각각 3등급 이상이며, 합계 등급이 4등급 이상일 경우 유리합니다.
+   - 경기실적우수자전형: 경기 실적 우수자로 인정받아야 합니다.
+3. 전반적인 성적 요건:
+   - 국어: 80점 이상
+   - 수학: 75점 이상
+   - 영어: 60점 이상
+4. 학생부 평가 요소:
+   - 공동체역량, 학업역량, 전공적합성 등이 중요합니다.
+5. 추가적인 요인:
+   - 인성 및 특기사항 등 개인적 성장 기록
+   - 면접 성과
+따라서 안정적으로 들어갈 수 있는 평균 성적은 대략 다음과 같습니다:
+- 국어: 80점 이상
+- 수학: 75점 이상
+- 영어: 60점 이상
+- 합계 등급: 4등급 이상 (국어, 수학, 영어 각각 3등급 이상)
+하지만 이는 예측이며 실제 입시 결과는 여러 요인에 따라 변동될 수 있습니다. 최신 정보와 정확한 성적 기준을 확인하기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 가장 좋습니다. 또한, 모의고사 성적 분석과 면접 준비도 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 경쟁률과 관련된 정보를 제공하고 있으며, 정시 등급이 5.33인 경우 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나 원본 텍스트에서 아동학과의 평균 등급에 대한 정보가 포함되어 있었으나, 생성된 응답에서는 보육가정상담학과에 대한 정보로 변경되어 있습니다. 이로 인해 일부 정보가 누락되었으나, 전반적으로 사실에 기반한 내용입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하고 있지만, 원본 텍스트에서 아동학과에 대한 정보가 포함되어 있었기 때문에 일관성이 떨어집니다. 두 학과의 정보가 혼합되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 보육가정상담학과의 합격 가능성에 대한 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조로 작성되어 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 아동학과와 보육가정상담학과의 정보가 혼합되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 경쟁률과 관련된 정확한 정보를 제공하고 있으며, 정시 등급에 대한 해석도 적절합니다. 그러나 아동학과에 대한 정보가 누락되어 있어 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 보육가정상담학과에 대한 정보가 잘 반영되어 있습니다. 그러나 아동학과에 대한 정보가 누락되어 있어 의미의 완전성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 작성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.5311884723408499</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 보육가정상담학과의 경우, 정시 모집군은 "가"군으로 분류되며, 해당 단과대학의 최초합격자와 최종등록자의 경쟁률을 살펴보겠습니다.
+1. **최초합격자**:
+   - 2024년도 모집단위: 보육가정상담학과
+   - 모집 인원: 3명
+   - 지원 인원: 16명
+   - 경쟁률: 5.33 (이와 동일)
+2. **최종등록자**:
+   - 2024년도 모집단위: 보육가정상담학과
+   - 모집 인원: 3명
+   - 지원 인원: 16명
+   - 경쟁률: 5.33 (이와 동일)
+따라서, 정시 산출 등급이 5.33인 경우, 보육가정상담학과에 합격할 가능성은 매우 높습니다. 최초합격자와 최종등록자의 경쟁률이 일치하고, 지원 인원도 동일하기 때문입니다.
+하지만, 정확한 합격 여부는 수능 성적 외에도 학생부 교과성적, 실기/실적 등 다양한 요소가 고려되기 때문에, 최종 결정은 입학사정관의 심사를 통해 이루어집니다. 따라서, 지원 후 최종 합격 여부를 확인하는 것이 가장 정확한 방법입니다.
+추가적으로, 동의대학교의 경우, 수능 성적이 높을수록 유리하므로, 5.33이라는 등급은 좋은 성적으로 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 충원 합격자 발표 및 등록 일정에 대한 정보를 제공하고 있으며, 예비 번호에 따른 합격 가능성에 대한 설명도 포함되어 있습니다. 그러나 발표 시간에 대한 세부 사항이 원본 텍스트와 다소 차이가 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주요 내용과 일치하지만, 발표 시간과 등록 시간에 대한 세부 사항이 다르게 제시되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 예비 번호와 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 일부 세부 사항에서 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 잘 반영하고 있지만, 발표 시간에 대한 정확한 정보가 다소 수정되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서의 불일치로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 세부 사항에서 약간의 차이가 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.7887036804638201</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 충원 합격자 발표 및 등록 일정이 다음과 같습니다:
+- **충원 합격자 3차 발표**: 2024. 02. 15.(목) 09:00
+- **충원 합격자 3차 등록**: 2024. 02. 15.(목) 09:00~16:00
+현재까지의 정보로는 충원 합격자 발표가 예정되어 있으며, 이에 따라 합격 가능성은 있습니다. 그러나 정확한 합격 여부를 알기 위해서는:
+1. **발표 일시**: 2024년 2월 15일 오전 9시 이후 입학안내 홈페이지에서 개별 조회해야 합니다.
+2. **등록 기간**: 발표 후 해당 날짜 내에 등록을 완료해야 합니다.
+또한, 충원 합격자 발표가 이루어진 후에도 추가로 3차 충원이 있을 수 있으므로, 최종적으로는 입학관리팀이나 대학 홈페이지를 통해 확인하는 것이 좋습니다. 
+현재까지의 정보만으로는 예비 12번을 받았다는 점에서 합격 가능성은 있지만, 확실한 것은 발표 이후에 알 수 있습니다. 따라서 기다리면서 준비를 계속하시되, 최종 결과가 발표될 때까지 기대하면서 대비하는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75의 성적이 좋은 성적이라고 언급하고 있지만, 유아교육학과에 지원하기 어려울 것이라는 원본 텍스트의 결론과는 다소 상충하는 부분이 있습니다. 원본 텍스트는 4.75의 성적이 유아교육학과에 지원하기 어려운 점수를 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 여러 요소를 설명하고 있지만, 원본 텍스트에서 제시된 4.75의 성적이 유아교육학과에 지원하기 어려운 점수라는 정보와 일치하지 않습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 지원하기 위한 여러 요소를 설명하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 4.75의 성적이 유아교육학과에 지원하기 어려운 점수라는 점을 간과하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 4.75의 성적이 유아교육학과에 지원하기에 충분하다고 주장하고 있지만, 원본 텍스트에서는 이 성적이 지원하기 어려운 점수라고 명시하고 있습니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 평가를 종합적으로 고려했을 때, 생성된 응답은 일부 긍정적인 요소가 있지만, 원본 텍스트와의 불일치로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 설명이 적절하고 관련성이 있지만, 원본 텍스트의 핵심 메시지와는 다소 어긋납니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.7220178718339586</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4.75의 수능 점수는 상당히 좋은 성적입니다. 특히 국어, 수학, 영어 등 주요 과목에서 높은 점수를 받았다면 더욱 좋습니다.
+유아교육학과에 지원할 때 다음과 같은 요소들을 고려해볼 필요가 있습니다:
+1. **전형 특성**: 유아교육학과는 일반적으로 인성과 교육적 소질을 중시합니다. 따라서 학업 성적이 높은 만큼, 공동체역량이나 학업태도 등 다른 평가 영역에서도 좋은 점수를 받는 것이 중요합니다.
+2. **전형 요소**: 유아교육학과의 경우, 서류평가와 면접평가가 중요한 역할을 합니다. 특히 공동체역량과 학업역량이 주요 평가 항목입니다. 따라서 학교생활기록부에서 협력적 태도나 교사의 긍정적인 평가를 받았다면 이점이 있습니다.
+3. **면접 준비**: 면접에서는 지원동기와 학업계획, 그리고 유아교육에 대한 열정 등을 잘 전달해야 합니다. 실제 경험과 성장과정을 구체적으로 설명하는 것이 좋습니다.
+4. **추천서 및 추천인**: 가능하다면 교사나 직원의 추천서를 받는 것도 도움이 될 수 있습니다.
+5. **추가 활동**: 자원봉사, 교육 관련 프로젝트 등 추가 활동을 통해 자신의 열정과 능력을 보여줄 수 있는 기회도 활용해보세요.
+4.75의 성적은 충분히 유아교육학과에 지원할 만한 수준입니다. 하지만 다른 평가 요소들도 잘 준비하고, 면접에서도 자신감을 가지고 자신의 장점을 잘 전달한다면 좋은 결과를 얻을 가능성이 큽니다.
+추가로, 입학사정관들이 다양한 측면에서 지원자를 평가하기 때문에, 단순히 수능 점수만으로 판단하지 않고, 전체적인 프로필을 고려합니다. 따라서 자신감 있게 지원하시고, 모든 준비를 철저하게 해보세요!</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 4.16 등급이 좋은 점수라는 점을 언급하고 있으며, 합격 가능성을 높게 평가하고 있습니다. 그러나, 원문에서 제공된 구체적인 평균 등급 수치(영어 6.33, 수능 7.08)와 같은 세부 사항은 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 합격 가능성과 관련된 요소들을 고려하고 있지만, 원문에서 제시된 구체적인 데이터와는 일치하지 않는 부분이 있습니다. 예를 들어, 경쟁률과 모집인원에 대한 언급은 원문에 포함되어 있지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높습니다. 합격 가능성을 평가하기 위한 다양한 요소들을 제시하고 있어 주제와 잘 맞아떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나, 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 4.16 등급이 좋은 점수라는 점을 정확하게 반영하고 있으며, 합격 가능성을 높게 평가하고 있습니다. 그러나, 원문에서 제공된 구체적인 수치와 비교할 때 일부 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 유창성, 일관성 등에서 좋은 점수를 받고 있습니다. 그러나, 일부 세부 사항의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높으며, 질문의 맥락에 적절하게 반응하고 있습니다. 다만, 원문에서 제공된 구체적인 데이터가 부족하여 약간의 의미적 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나, 일부 문장이 길어져서 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.5752092526437181</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>4.16 등급은 상당히 좋은 점수입니다. 하지만, 동의대학교 보육가정상담학과의 정시 경쟁률과 모집인원 등을 고려해보면 다음과 같은 점들을 주목해야 합니다:
+1. 경쟁률:
+- 2024년도 지원자 수와 모집인원을 확인해야 합니다.
+- 최근 몇 년간의 평균 경쟁률을 참조하면 도움이 됩니다.
+2. 등급 분포:
+- 동일한 학교 내 다른 전형(학생부종합, 특기자 등)과의 등급 경쟁도 고려해야 합니다.
+- 최근 몇 년간의 최저등급을 확인해보세요.
+3. 서류 및 면접 평가:
+- 보육가정상담학과는 종종 학생부와 면접에서 중요한 역할을 하므로, 서류평가 점수도 중요합니다.
+- 동일 전형의 서류평가 등급 분포를 확인해보세요.
+4. 정원 외 모집:
+- 정원 외로 선발되는 경우가 많으니, 이를 고려해야 합니다.
+5. 학교별 특성:
+- 동의대학교의 전체적인 경쟁률 추세와 보육가정상담학과의 특성을 파악하세요.
+6. 예상 등급 변동:
+- 수능 실시일이 다가오면 등급 변동 가능성도 고려해야 합니다.
+결론적으로, 4.16 등급은 좋은 기반을 제공하지만, 정확한 합격 확률을 예측하기 위해서는 위의 요소들을 종합적으로 고려해야 합니다. 최선을 다해 준비하고, 가능한 모든 정보를 수집하여 결정을 내리는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 원문은 정시 지원이 불가능하다고 명확히 언급하고 있지만, 생성된 응답은 정시 지원에 대한 정보를 제공하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문이 정시 지원이 불가능하다고 명시한 반면, 생성된 응답은 정시 지원을 위한 정보를 제시하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 관련이 없습니다. 원문은 정시 지원 가능성에 대한 질문인데, 생성된 응답은 정시 지원에 대한 정보를 제공하는 것으로, 주제와 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있으나, 원문과의 관계가 명확하지 않아 논리적인 흐름이 약간 부족합니다. 원문과의 연결이 없기 때문에 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공한 사실과 완전히 반대되는 정보를 포함하고 있습니다. 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 없고, 잘못된 정보를 제공합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 전혀 맞지 않으며, 주제와도 관련이 없습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 부적절함으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.4449588107290041</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과를 정시로 지원하려는 경우, 다음과 같은 정보가 도움이 될 것입니다:
+1. **모집단위 및 모집인원**:
+   - 단과대학: ICT공과대학
+   - 모집단위: 소프트웨어융합학과
+   - 모집인원: 7명
+2. **전형방법**:
+   - 정시모집군: 다군 수능(일반학생전형)
+   - 전형요소 반영비율: 수능 100%
+3. **수능 반영 영역 및 가산점**:
+   - 국어, 수학, 영어, 탐구 등급을 모두 반영합니다.
+   - 수학(미적분 또는 기하) 응시자에게는 수학 취득 표준점수의 10% 가산점이 있습니다.
+4. **경쟁률 및 합격 평균 등급**:
+   - 실제 경쟁률과 합격 평균 등급은 정확히 알려지지 않지만, 일반적으로 다음과 같은 수준을 받아야 합니다:
+   - **수능 등급 평균**: 8등급 이상
+     - 국어: 1등급
+     - 수학(미적분 또는 기하): 2등급
+     - 영어: 3등급
+     - 탐구: 4등급
+   - **수능 표준점수 평균**: 90% 이상
+이는 실제 경쟁률과 합격 등급을 반영한 예시이며, 정확히 알려지지 않은 정보입니다. 최종 지원결과를 얻기 위해서는 개인의 수능 성적과 교육경력 등을 고려해야 합니다.
+추가로, 2024학년도에는 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)라는 학과명칭 변경이 이루어졌습니다. 이에 따라 정시모집군이 변경되었을 수 있으므로, 최신 입학정보를 확인하시기 바랍니다.
+참조: [2024학년도 주요 변경사항]에서 구분은 학과 분리(학부→학과), 학부 통합, 학과(전공) 명칭 변경이며, 2023학년도은 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학)였으며, 2024학년도에는 기계공학과, 로봇자동화공학과, 자동차공학과가 신설되었습니다.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 입학 전형에 대한 정보를 제공하고 있으며, 면접 점수와 서류 평가의 비중에 대한 설명이 포함되어 있습니다. 그러나 원본 텍스트에서 언급된 '학생부 교과성적'에 대한 구체적인 언급이 부족하여 완전한 사실성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 반영하고 있지만, 면접 점수와 서류 평가의 비중에 대한 정보가 추가되어 있어 원본과의 일관성이 다소 떨어집니다. 원본 텍스트의 정보와는 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 소프트웨어융합학과의 입학 전형에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 서류 평가와 면접 점수의 중요성에 대한 설명은 원본 텍스트의 주제와 잘 맞아떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 일부 내용이 원본 텍스트와의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확한 정보를 제공하고 있으나, 원본 텍스트에서 언급된 '학생부 교과성적'에 대한 구체적인 내용이 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 사실성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 일부 추가 정보가 원본의 맥락과 완전히 일치하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.616435682983193</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>2024학년도의 입학전형에서 소프트웨어융합학과에 지원할 때, 면접 점수와 서류 평가 점수가 각각 중요한 역할을 합니다. 특히, 서류평가 영역 중 '특기사항'이나 '창의적 체험활동' 등 세부 특기사항은 매우 중요하게 평가됩니다.
+### 1. 면접 점수와 서류 평가의 비중
+- **면접 점수**: 40점 (전공적합성 영역)
+- **서류 평가 점수**: 60점 (공동체역량, 학업역량, 전공적합성)
+따라서 서류평가의 비중이 더 높습니다. 면접에서는 지원자의 문제해결 능력과 전공적합성을 확인하려고 합니다.
+### 2. 세부 특기사항 준비
+- **세부 특기사항**: 이 부분은 지원자가 어떤 활동을 통해 성장했는지, 그리고 그 활동이 어떻게 지원자의 전공 적합성에 기여하는지를 잘 보여주는 것이 중요합니다.
+- **예시**: 
+  - 창의적 체험활동: 동아리 활동이나 프로젝트 참여 경험
+  - 학업역량: 고교에서의 성취와 흥미있는 활동, 문제 해결 능력
+  - 전공적합성: 관련 교내 활동이나 인턴십 경험
+### 3. 서류 준비
+- **서류**: 
+  - **고교 졸업(예정)자**: 학생부 온라인 제공 동의자가 필요합니다.
+  - **검정고시출신자 / 외국고교 졸업(예정)자**: 검정고시 합격증서, 성적증명서 등이 필요합니다.
+### 4. 추가 준비사항
+- **면접 질문 공통문항**: 지원동기와 입학 후 계획, 학업역량에 대한 어려움과 해결 방안, 전공적합성 관련 활동 등을 잘 준비해야 합니다.
+- **실제 경험**: 실제 활동을 통해 얻은 성취와 배운 점들을 구체적으로 서술해야 합니다.
+### 5. 참고 자료
+- **입학사정관의 평가**: 입학사정관들은 지원자의 전반적인 능력과 적합성을 종합적으로 판단하므로, 실제 활동을 통해 얻은 성취와 배운 점들을 구체적으로 서술하는 것이 중요합니다.
+이러한 정보를 바탕으로 소프트웨어융합학과에 지원할 때 세부 특기사항을 잘 준비하고, 면접에서도 자신의 능력과 적합성을 잘 보여주는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 성적에 대한 정보와 관련이 없으며, 잘못된 수치(434.70)를 제시하고 있습니다. 원본 텍스트의 정보와 일치하지 않으며, 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충하는 정보를 제공합니다. 원본 텍스트는 4.08의 성적이 평균에 근접하다고 언급하지만, 생성된 응답은 4.08이 평균보다 낮다고 주장합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 입학 기준에 대한 정보를 제공하지만, 원본 텍스트의 질문과는 관련이 적습니다. 원본 텍스트는 성적에 대한 가능성을 묻고 있으나, 생성된 응답은 다른 수치와 정보를 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 정보가 분리되어 있어 논리적 흐름이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 4.08의 성적이 평균보다 낮다고 잘못 판단하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 연결이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 의미에 부합하지 않으며, 잘못된 정보를 제공하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성과 관련성이 부족하여 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.5225053400681807</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **2024年东国大学软件工程学部的录取标准**：根据提供的信息，该专业的录取情况如下：
+   - 招生人数：45人
+   - 报名人数：146人
+   - 竞争比：3.25
+   - 最终合格者平均综合转换分数（含加分）：434.70
+2. **你的成绩**：
+   - 综合转换分数（含加分）：4.08
+3. **比较标准和你的情况**：
+   - 从提供的数据来看，最终合格者的平均综合转换分数为434.70。
+   - 而你的综合转换分数是4.08。
+显然，你的成绩（4.08）远低于该专业最终合格者的平均综合转换分数（434.70）。因此，在这种情况下，你被录取的可能性非常低。不过，这只是一个基于提供的数据的初步判断，并不完全排除所有可能性。实际录取情况可能会因多种因素而有所不同。
+建议：
+- 你可以参考其他同学的成绩和经验。
+- 如果可能的话，咨询东国大学招生办公室获取更准确的信息。
+- 考虑是否还有其他专业或学校可以申请。</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 수능 평균 등급과 학생부종합 평균 등급에 대한 수치가 출처에 명시된 정보와 일치하지 않습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 출처의 정보와 일치하지 않는 여러 세부사항을 포함하고 있습니다. 예를 들어, 수능 평균 등급과 학생부종합 평균 등급에 대한 정보가 출처에 명시된 내용과 상충합니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 소프트웨어융합학과에 대한 정보를 제공하고 있으며, 질문의 주제와 관련이 있습니다. 그러나 출처의 정보와는 다소 차이가 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 출처의 정보와의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답에 포함된 수치와 정보는 출처의 내용과 일치하지 않으며, 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 긍정적인 요소가 있지만, 사실성과 정확성에서 큰 결함이 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 출처의 정보와의 불일치로 인해 의미적으로 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.6064934800229874</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 소프테이션 융합학부(소프트웨어공학부)의 경우 다음과 같은 특징을 가지고 있습니다:
+1. **전형 유형**: 주로 수능(일반학생전형)과 학생부종합(조기취업형계약학과전형)으로 이루어져 있습니다.
+2. **수능 평균 등급**:
+   - **국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균**: 450.71
+   - **영어 등급 평균**: 3.30
+   - **수능 4개 영역 등급 평균**: 4.12
+3. **학생부종합 평균 등급**:
+   - **공동체역량 평균 등급**: 111점 (등급 기준)
+   - **학업역량 평균 등급**: 222점
+   - **전공적합성 평균 등급**: 240점
+이러한 정보를 바탕으로, 정시 모집에서 5등급을 받은 학생들이 소프트웨어융합학부에 지원하는 것은 가능하지만 매우 경쟁률이 높아 보입니다. 
+- **수능 평균 등급**: 4.12는 5등급보다 약간 높습니다.
+- **학생부종합 평균 등급**: 공동체역량, 학업역량, 전공적합성 모두 3등급 이상이므로 이 부분에서도 경쟁력이 있습니다.
+따라서 5등급을 받은 학생이 소프트웨어융합학부에 지원하는 것은 가능하지만, 매우 높은 경쟁률을 고려해야 합니다. 성적 외에도 다양한 평가 요소를 잘 준비하고 자기소개서와 면접 등에서 좋은 결과를 얻어야 할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 4.28이라는 점수가 신소재공학과의 평균 등급보다 높다는 점을 언급하고 있습니다. 그러나 전형 방법에 대한 세부 사항은 원본 텍스트에 명시되어 있지 않으므로, 일부 정보는 추가적인 해석이 필요합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일관성을 유지하려고 하지만, 전형 방법에 대한 추가적인 세부 사항이 원본 텍스트에 포함되어 있지 않기 때문에 일부 일관성이 떨어질 수 있습니다. 특히, 수학과 영어에 대한 구체적인 언급은 원본 텍스트와의 일관성을 약화시킵니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 신소재공학과에 입학하기 위한 여러 요인들을 잘 설명하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 4.28이라는 점수에 대한 해석도 적절합니다. 그러나 전형 방법에 대한 세부 사항은 원본 텍스트에 명시되어 있지 않으므로, 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 좋은 점수를 받고 있습니다. 그러나 일부 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 일부 추가 정보는 원본 텍스트와의 맥락에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.6219563544806405</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수는 상당히 높은 점수입니다. 하지만 동의대학교 신소재공학과에 입학하기 위해서는 여러 요인을 고려해야 합니다.
+1. **전형방법**: 동의대학교의 전형 방법은 수능 성적, 학생부 등급, 그리고 일부 경우 실기 성적이 반영됩니다. 특히, 신소재공학과는 일반적으로 과학 영역에서 높은 점수를 요구합니다.
+2. **전형방법 세부사항**:
+   - **국어**: 4.28이라는 점수는 상당히 높습니다.
+   - **수학**: 신소재공학과에서는 수학의 중요성이 크므로, 이 영역에서도 높은 점수가 필요합니다.
+   - **영어**: 등급이 4등급 이상이라면 충분할 것입니다. 하지만 최상위권 학생들 사이에서 경쟁이 치열하기 때문에 5등급 이상을 추천드립니다.
+   - **과탐 (과학)**: 신소재공학과에서는 과학 영역의 성적이 중요합니다. 특히, 물리와 화학 등 관련 과목에서 높은 점수를 받는 것이 유리할 것입니다.
+3. **경쟁률**: 동의대학교의 경쟁률이 매우 높습니다. 따라서 4.28이라는 점수만으로는 확실한 입학을 보장받기는 어렵습니다. 하지만 충분히 좋은 성적을 가지고 있으므로, 실기나 학생부 등 다른 요인들을 잘 준비한다면 좋은 결과를 얻을 수 있습니다.
+4. **추천사항**:
+   - **학생부**: 학생부에서 과학 관련 활동이나 프로젝트 경험 등을 잘 기재해보세요.
+   - **실기**: 실기 성적이 있다면 이를 잘 준비하고 점수를 받으세요.
+   - **추천서 및 자기소개서**: 이 부분에서도 과학 분야의 열정과 능력을 잘 표현해보세요.
+결론적으로, 4.28이라는 점수는 좋은 기반이지만, 다른 요인들을 잘 준비하고 경쟁력을 높이는 것이 중요합니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 전화로 문의하시는 것을 추천드립니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 자기소개서가 필요 없다는 점을 언급하고 있지만, 일부 단과대학이나 모집단위에서 요구할 수 있다는 추가 정보를 제공하고 있습니다. 이는 원문과 다소 상충하는 내용으로, 원문에서는 자기소개서가 필요 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 자기소개서가 필요할 수 있다는 점에서 일관성이 떨어집니다. 원문은 자기소개서가 필요 없다고 명확히 말하고 있기 때문에, 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 제공하고 있으며, 자기소개서의 필요성에 대한 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 자기소개서의 필요성에 대한 원문의 명확한 진술과 상충하는 부분이 있어 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 사실성과 일관성에서 다소 부족함이 있어 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 잘 맞는 정보를 제공합니다. 그러나 원문과의 불일치로 인해 완전한 적절성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 일부 내용이 원문과 상충하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.6226058467534171</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2024학년도 동아대학교의 수능 일반학생전형에서는 자기소개서가 필수적으로 요구되는 것은 아닙니다. 일반적으로 수능 전형은 수능 점수를 주요 평가 기준으로 합니다.
+하지만, 일부 단과대학이나 모집단위에서 자기소개서를 제출하도록 하는 경우도 있으므로, 정확한 정보를 얻기 위해서는 동아대학교 입학처 웹사이트나 전형 안내 자료를 확인하는 것이 좋습니다. 특히, 최신 정보와 세부 사항은 공식 홈페이지에서 확인하시길 권장드립니다.
+만약 자기소개서가 필요하다면, 일반적으로 다음과 같은 내용을 포함할 수 있습니다:
+1. 지원 동기
+2. 학업 계획 및 목표
+3. 특기사항이나 활동 경력
+4. 전공과의 연관성
+하지만 이는 선택 사항이며, 기본 평가 기준은 수능 점수에 집중해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 잘 반영하고 있으며, 4.5라는 점수에 대한 해석과 추가 모집에 대한 가능성을 언급하고 있습니다. 그러나 일부 세부사항이 원본 텍스트와 다를 수 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 특정 세부사항에서 차이가 있어 일관성이 떨어질 수 있습니다. 예를 들어, 수능 점수 기준에 대한 설명이 원본 텍스트에 명시된 내용과 다소 다르게 표현되었습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 추가 모집에 대한 정보를 잘 다루고 있습니다. 질문에 대한 직접적인 답변을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 연결되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 약간 어색할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 특정 세부사항에서 정확성이 떨어질 수 있습니다. 예를 들어, 수능 점수 기준에 대한 설명이 원본과 다소 다르게 표현되었습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행하고 있습니다. 그러나 일부 세부사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 일부 표현에서 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.7082040086218088</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 수능 등급으로 보아야 합니다. 한국사와 사회(역사/도덕 포함) 영역을 제외하고 나머지 3개 영역의 등급 평균이 4.5 이상이라는 의미입니다.
+동의대학교의 정시모집에서 수능 점수 기준은 다음과 같습니다:
+1. 가군 (일반학생전형):
+   - 인문사회과학, 상경대학: 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+   - 의료·보건·생활, 공과대학, ICT융합공과대학: 국어 + 수학 + 영어 등급점수 + 탐구 표준점수 + 가산점
+2. 나군 (일반학생전형):
+   - 인문사회과학, 상경대학, 한의예과, 패션디자인학과: 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+   - 의료·보건·생활대학, 공과대학, ICT융합공과대학: 국어 + 수학 + 영어 등급점수 + 탐구 표준점수 + 가산점
+3. 다군 (일반학생전형):
+   - 인문사회과학, 상경대학: 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+   - 공과대학, ICT융합공과대학: 국어 + 수학 + 영어 등급점수 + 탐구 표준점수 + 가산점
+4. 나군 실기/실적 (경기실적우수자전형):
+   - 결석일수 0~2일: 120점
+   - 결석일수 3~6일: 90점
+   - 결석일수 7~12일: 60점
+   - 결석일수 13~20일: 30점
+   - 결석일수 21일 이상: 0점
+4.5라는 등급 평균은 대부분의 모집단위에서 충분한 점수를 보여줍니다. 그러나 추가모집 여부와 모집인원, 경쟁률 등을 고려해야 합니다.
+추가적으로:
+- 경쟁률이 높은 모집단위에서는 4.5 등급 평균만으로는 낮은 확률로 합격할 수 있습니다.
+- 경쟁률이 낮거나 추가모집인 경우, 4.5 이상의 등급 평균은 좋은 점수입니다.
+따라서, 다음과 같은 조치를 취해보시는 것이 좋습니다:
+1. 추가모집 정보 확인: 동의대학교 웹사이트에서 추가모집 정보를 확인하세요.
+2. 경쟁률 확인: 각 모집단위별 경쟁률을 확인하여 합격 가능성 평가.
+3. 지원 전략 수립: 경쟁률이 높은 경우, 다른 대학이나 전형도 고려해보세요.
+결론적으로 4.5 등급 평균만으로는 확실한 합격 보장은 어렵지만, 추가모집 또는 경쟁률이 낮은 모집단위에서는 충분히 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 모집 요강과 수능 반영 방법에 대한 정보를 제공하고 있으며, 원본 텍스트의 평균 등급에 대한 정보도 포함하고 있습니다. 그러나 일부 세부 사항은 원본 텍스트에서 명시된 내용과 다를 수 있어 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가적인 세부 사항이 포함되어 있어 일관성이 떨어질 수 있습니다. 특히, 경쟁률과 관련된 예측 정보는 원본 텍스트에 명시된 내용과는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 신소재공학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 일부 부분에서 정보가 중복되거나 불필요하게 길어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 일부 세부 사항은 추정에 기반하고 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 정보를 제공합니다. 그러나 일부 세부 사항은 원본 텍스트와의 일치성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.6389841154762154</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과(신소재공학과, 고분자나노공학과)의 모집요강을 보면, 정시모집군은 "가군(일반학생전형)"이며, 수능 반영방법은 다음과 같습니다:
+- 국어: 25% 반영
+- 수학: 25% 반영 (확률과통계 or 미적분 or 기하 중 선택)
+- 영어: 25% 반영
+- 탐구(사회탐구 or 과학탐구 중 2개 과목): 25% 반영
+수능 성적 반영방법은 각 영역별로 25%씩 반영되며, 상위 3개 영역을 선택하여 평균 점수가 계산됩니다.
+하지만 정확한 등급 기준을 제공하기 위해서는 해당 학과의 모집인원, 지원자들의 수능 성적 분포 등을 고려해야 합니다. 일반적으로 동의대학교 신소재공학과의 경우, 경쟁률이 높아서 4등급 이상의 영어 등급과 300점 이상의 국어+수학+탐구(2개) 표준변환 점수가 필요할 것으로 예상됩니다.
+하지만 이는 추정이며, 실제 합격 가능 기준은 정시모집일 때 발표되는 최종등록자 및 최초합격자의 성적 분포를 참고해야 합니다. 따라서 가장 정확한 정보는 동의대학교 입학처 웹사이트나 모의고사 결과 등을 통해 확인하는 것이 좋습니다.
+추가적으로, 동의대학교 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)를 방문하여 최신 정보와 자세한 모집요강을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학과의 경쟁률, 충원 합격자 수, 성적 분포에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 표준 변환 점수 378.15점과 비교할 때, 447점이 얼마나 높은지를 명확히 언급하지 않고 있습니다. 또한, 충원 합격 가능성에 대한 언급이 다소 모호하여 정확한 사실을 전달하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 충원 합격 가능성에 대한 결론이 원본의 긍정적인 가능성과는 다소 상충됩니다. 원본 텍스트는 447점이 신소재공학과에 합격할 가능성이 매우 높다고 명시하고 있으나, 생성된 응답은 확실하지 않다고 언급하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학과의 경쟁률과 성적 분포에 대한 정보를 제공하여 관련성을 유지하고 있지만, 원본 텍스트의 핵심 질문인 447점의 합격 가능성에 대한 직접적인 답변이 부족합니다. 따라서 관련성은 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 결론 부분에서 원본 텍스트의 긍정적인 가능성과 상충하는 내용이 있어 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 신소재공학과의 경쟁률과 성적 분포에 대한 정보를 제공하지만, 447점의 합격 가능성에 대한 정확한 판단을 내리지 못하고 있습니다. 원본 텍스트의 정보와 비교할 때, 정확성이 떨어지는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성, 일관성, 정확성에서 다소 부족한 점이 있어 전반적인 품질이 높지 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 맥락에 맞는 의미를 전달하고 있으나, 447점의 합격 가능성에 대한 명확한 결론이 부족하여 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.5367679544251868</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집단위별 경쟁률, 충원 합격자 수 등의 정보를 바탕으로 분석해보겠습니다.
+1. **신소재공학과의 경쟁률 및 충원 합격자 수**:
+   - 신소재공학과는 2024년 모집 인원이 56명이고 지원 인원은 81명으로, 경쟁률은 약 1.45:1입니다.
+   - 충원 합격자는 25명으로, 이는 전체 지원자의 약 31%에 해당합니다.
+2. **최종 등록자와 최초 합격자의 성적 분포**:
+   - 최종 등록자의 경우 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균이 271.64이며, 표준 편차는 19.52입니다.
+   - 최초 합격자의 경우 해당 평균은 286.35이며, 표준 편차는 10.96입니다.
+3. **성적 분포와 경쟁률**:
+   - 신소재공학과의 경쟁률이 약 1.45:1으로 상대적으로 낮은 편입니다.
+   - 이에 따라, 표준점수가 447점인 경우 충원 합격 가능성은 있습니다만, 확실한 것은 아닙니다.
+4. **성적 분포와 경쟁률의 관계**:
+   - 신소재공학과는 모집 인원이 많고 지원 인원도 상대적으로 많은 편입니다.
+   - 이에 따라, 표준점수가 447점인 경우 충원 합격 가능성은 있지만, 확실한 것은 아닙니다. 경쟁률과 성적 분포를 고려할 때, 약간의 우위가 필요합니다.
+5. **최종 등록자와 최초 합격자의 성적 비교**:
+   - 최종 등록자의 평균 점수가 271.64점이고 표준 편차는 19.52입니다.
+   - 이에 비해, 신소재공학과의 충원 합격자들의 평균 점수와 표준 편차를 고려하면, 447점은 상당히 높은 점수로, 경쟁률이 낮아서라도 충원 합격 가능성은 있습니다.
+**결론**: 
+- 신소재공학과의 경우 경쟁률이 낮고 모집 인원이 많으므로, 표준점수가 447점인 경우 충원 합격 가능성은 있지만 확실하지 않습니다.
+- 실제 결과는 지원자의 전체 성적 분포와 입시 전략 등 다양한 요소에 따라 결정되므로, 최종적으로는 입학사정관의 평가를 기다려보는 것이 좋습니다.
+추천: 
+- 추가로 수능을 보충하여 더 높은 점수를 받는 것을 고려해볼 수 있습니다.
+- 지원 전략과 함께 대비를 잘 해두시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 4.3 등급의 성적이 4.1~4.2로 변환될 경우 합격 가능성이 낮다고 언급한 부분은 원본의 내용과 상충합니다. 원본에서는 4.1~4.2 등급이 신소재공학부의 평균 성적보다 다소 높은 편이라고 설명하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 합격 가능성에 대한 결론이 원본과 일치하지 않습니다. 원본에서는 합격 가능성이 높다고 언급했으나, 생성된 응답에서는 낮다고 평가하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신소재공학부에 대한 합격 가능성에 대한 정보를 제공합니다. 그러나 일부 세부 사항이 원본과 다르게 해석되어 다소 관련성이 떨어질 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본과의 일관성이 떨어지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본의 사실과 일부 일치하지만, 합격 가능성에 대한 평가가 원본과 상충하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 원본의 내용을 반영하고 있으나, 사실성과 일관성에서 부족함이 있어 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본의 의미와 맥락을 대체로 잘 전달하고 있으나, 일부 해석에서 차이가 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.551375895371323</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 4.1~4.2로 변환될 경우, 동의대학교 신소재공학과에 지원할 때 합격 가능성은 낮지만 아직 불가능한 것은 아닙니다. 신소재공학과는 수능 반영 비율이 높고, 특히 국어와 수학 영역에서 좋은 성적을 요구하기 때문에 4.1~4.2 등급으로도 합격 가능성은 있습니다.
+다음은 몇 가지 고려사항입니다:
+1. **수능 성적**: 신소재공학과는 수능 반영 비율이 높기 때문에, 수능 국어와 수학의 성적이 중요합니다. 4.3 등급을 유지하거나 조금 더 높여야 합니다.
+2. **등급 변환**: 동의대학교에서 제공하는 등급 변환표를 참조하여 실제 변환이 어떻게 이루어질지 확인해보세요. 이는 합격 가능성에 큰 영향을 줄 수 있습니다.
+3. **전형 요소**: 서류평가와 면접 등의 비중도 고려해야 합니다. 서류 준비와 면접 준비가 충분히 되어 있다면, 성적이 조금 낮더라도 합격 가능성이 있습니다.
+4. **경쟁률**: 신소재공학과의 경쟁률을 확인하여 현재의 성적으로는 어느 정도의 확률로 합격할 수 있는지 판단해보세요.
+5. **추천서 및 자기소개서**: 이 부분에서 강점을 보여줄 수 있다면, 합격 가능성은 높아질 것입니다.
+6. **예비 지원 대상**: 여러 대학과 전형을 다양하게 준비하는 것이 좋습니다. 예비 지원 대상으로 다른 대학이나 전형도 고려해보세요.
+결론적으로, 4.1~4.2 등급으로 신소재공학과에 합격할 수는 있지만 확률은 낮습니다. 성적을 최대한 높이는 것이 중요하며, 서류와 면접 준비를 철저히 해야 합니다. 추가적으로 다른 대학이나 전형도 고려해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 성적 정보를 잘못 전달하고 있으며, 평균 점수와 표준 편차가 모두 다릅니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 예를 들어, 평균 점수와 표준 편차가 원본과 일치하지 않으며, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 정보를 제공하고 있으나, 원본 텍스트의 구체적인 성적 정보와는 다릅니다. 그러나 주제는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되고 있습니다. 그러나 원본과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 성적 정보를 잘못 전달하고 있으며, 이는 정확성에 큰 문제를 일으킵니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성과 정확성이 매우 낮아 전체적인 품질이 저하됩니다. 그러나 유창성과 일관성은 어느 정도 유지되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 적절한 정보를 제공하고 있으나, 원본 텍스트와의 불일치로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으나, 정보의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.7216626356807525</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과 수능 일반학생전형에 대한 최종 등록자의 성적 정보를 확인해보겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 293.11
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 14.35
+- **영어 등급의 평균**: 4.53
+- **영어 등급의 표준 편차**: 0.80
+- **수능 4개 영역 등급의 평균**: 5.25
+- **수능 4개 영역 등급의 표준 편차**: 0.35
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 403.85
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차**: 15.55
+이 정보를 바탕으로, 인공지능학과 수능 일반학생전형에 지원하려는 경우 다음과 같은 성적을 목표로 설정하는 것이 좋습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 403.85 이상 추천
+- **영어 등급**: 4.53 이상 추천
+이러한 성적을 기반으로 준비하시면 좋은 결과를 얻을 수 있을 것입니다. 추가로 실기고사나 다른 전형요소도 고려해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 전형 가능성을 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 학과와 성적 기준에 대한 정보는 포함되어 있지 않다. 따라서 일부 사실이 누락되었다고 평가할 수 있다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일치하는 부분도 있지만, 전형에 대한 설명이 추가되어 있어 원본의 주제와는 다소 일치하지 않는 부분이 있다. 전형에 대한 정보는 유용하지만, 원본의 핵심 정보와는 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27 성적에 대한 전형 가능성을 다루고 있어 관련성이 높지만, 원본 텍스트에서 제시된 구체적인 학과와 성적 기준에 대한 정보는 다루지 않고 있다. 따라서 관련성은 높지만 완전하지 않다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있다. 문장 구조와 표현이 매끄럽다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 전형에 대한 설명이 잘 구성되어 있으며, 각 전형의 특징을 명확하게 전달하고 있다. 그러나 원본 텍스트와의 연결성이 약해져서 완전한 일관성을 제공하지는 않는다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 전형 가능성을 설명하고 있지만, 원본 텍스트에서 제공된 구체적인 학과와 성적 기준에 대한 정보는 누락되어 있다. 따라서 정확성 측면에서 일부 정보가 부족하다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 유용한 정보를 제공하지만, 원본 텍스트의 핵심 내용을 완전히 반영하지는 않는다. 그러나 문법과 표현이 우수하여 전반적인 품질은 높다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 5.27 성적에 대한 전형 가능성을 적절하게 설명하고 있으며, 의미적으로 적절하다. 그러나 원본 텍스트의 특정 세부사항을 반영하지 않아 완전한 적합성은 부족하다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 독자가 쉽게 이해할 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.6192148192290112</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수는 수능 등급으로 보이는데, 이 점수로 어떤 전형에 지원할 수 있는지 확인해보겠습니다.
+1. **일반학생전형 (수능 100% 반영)**:
+   - 5.27 등급은 대략 380-400점 정도의 표준변환 점수가 됩니다.
+   - 이 점수로는 대부분의 학과와 전형에서 충분히 경쟁력을 갖추고 있을 것입니다.
+2. **실기/실적전형 (실기 70%, 수능 30%)**:
+   - 실기 성적이 필요하므로, 해당 학과나 전공에 대한 실기 점수가 있는지 확인해야 합니다.
+   - 수능 5.27 등급으로는 실기 성적을 충족시키기 어렵습니다.
+3. **학생부종합전형**:
+   - 서류와 면접 평가에서 학생의 전반적인 능력과 적합성을 판단하므로, 수능 점수만으로는 부족할 수 있습니다.
+   - 다른 평가 요소 (공동체역량, 학업역량, 전공적합성 등)와 함께 고려되어야 합니다.
+4. **조기취업형계약학과전형**:
+   - 이 전형은 주로 실무 능력과 직무 적합성을 중점적으로 평가하므로, 수능 점수보다는 실무 경험이나 관련 활동이 중요합니다.
+   - 5.27 등급으로는 충분한 경쟁력을 갖추고 있을 것입니다.
+따라서, 5.27 등급으로는 대부분의 학과와 전형에서 지원 가능할 것으로 보입니다. 하지만 최종 결정은 해당 학교의 모집요강과 각 전형의 기준에 따라 달라질 수 있으므로, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 소프트웨어공학부의 평균 성적과 관련된 정보를 포함하고 있으며, 4.2라는 성적이 합격 가능성이 높다는 점을 잘 반영하고 있습니다. 그러나 일부 세부 사항(예: 평균 점수, 경쟁률 등)은 원본 텍스트에 명시된 내용과 다소 차이가 있어 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주요 내용을 다루고 있지만, 추가된 정보(예: 모집 인원, 경쟁률 등)가 원본 텍스트와 일치하지 않거나 모순되는 부분이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 소프트웨어공학부에 지원하기 위한 수능 성적의 중요성을 강조하고 있습니다. 원본 텍스트의 핵심 주제와 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 다소 복잡한 구조가 있어 약간의 유창성 저하가 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 추가되어 흐름이 약간 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 정확한 내용을 전달하고 있지만, 일부 세부 사항에서 정확성이 떨어질 수 있습니다. 예를 들어, 평균 점수와 관련된 정보가 원본과 다를 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 좋은 점수를 받고 있습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 추가 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.6617072658687015</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 소프트웨어공학부에 지원하려면, 수능 성적이 중요한 요소 중 하나입니다. 주요 정보를 바탕으로 분석해보겠습니다:
+1. **수능 성적**: 동의대식 정시 성적 4.2는 상당히 높은 점수입니다. 이 점수는 경쟁률이 낮고 모집인원이 많은 학과에서는 충분한 경쟁력을 가질 수 있습니다.
+2. **소프트웨어공학부 모집인원 및 지원자 수**:
+   - 소프트웨어공학부의 정원 내 모집 인원은 45명입니다.
+   - 지원 인원이 많을 것으로 예상되므로 경쟁률이 높을 가능성이 있습니다.
+3. **성적 평균 및 표준 편차**:
+   - 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균은 434.70입니다.
+   - 이는 동의대식 정시 성적 4.2보다 높습니다.
+4. **경쟁률**:
+   - 소프트웨어공학부의 경쟁률은 1.52:1으로 낮아 보이지만, 지원 인원이 많을 경우 경쟁률이 상승할 수 있습니다.
+5. **가산점**:
+   - 수능 가산점은 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10%를 부여합니다.
+6. **전형별 성적 반영 비율**:
+   - 수능 반영 영역은 국어 (25%), 수학 (25%), 영어 (25%), 탐구 (25%)입니다.
+7. **가산점 없음**: 소프트웨어공학부에서는 가산점이 없습니다.
+결론적으로, 동의대식 정시 성적 4.2는 좋은 점수지만, 경쟁률과 지원 인원 수를 고려할 때 여전히 높은 경쟁력을 갖추고 있습니다. 그러나 소프트웨어공학부는 모집인원이 많아서 경쟁률이 상승할 가능성이 있으므로, 최선의 결과를 얻기 위해서는 다음과 같은 조치들을 고려해볼 수 있습니다:
+- **자기소개서와 면접 준비**: 자기소개서와 면접에서 지원 동기와 전공 적합성을 잘 표현해야 합니다.
+- **추천서 활용**: 가능하다면 교사나 직장의 추천서를 활용하여 지원 경쟁력을 높일 수 있습니다.
+따라서, 동의대식 정시 성적 4.2는 소프트웨어공학부에 충분한 경쟁력을 갖추고 있지만, 최종 결정은 모집인원과 지원 인원, 그리고 개인적인 준비 상태 등 여러 요소에 따라 달라질 수 있습니다.
+더 자세한 정보나 추가 질문이 있으시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부의 평균 성적에 대한 정보를 제공하지만, 영어 등급 평균이 4.17로 언급된 부분은 원본 텍스트의 4.82와 일치하지 않으며, 수능 4개 영역 등급 평균도 5.73이 아닌 308.69로 잘못 해석되고 있습니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 평균 성적에 대한 수치가 다르기 때문에 일관성이 떨어집니다. 또한, 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변으로서 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용과는 약간의 차이가 있습니다. 그러나 전반적으로 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 일부 정보가 원본과 다르기 때문에 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 성적에 대한 수치가 잘못되어 있어 정확성이 떨어집니다. 
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 전반적으로 생성된 응답은 유용한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 정보를 전달하고 있습니다. 다만, 일부 복잡한 문장은 이해를 어렵게 할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.6829761848730359</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>3.92라는 점수는 수능 영어 등급으로 추정됩니다 (등급별 변환점수를 확인하면 됩니다). 화학환경공학부의 경우, 정시 모집에서 수능 성적을 주요 평가 기준으로 합니다.
+다군 수능(일반학생전형)에 대한 정보를 보면:
+- 단과대학: 공과대학
+- 계열: 공학
+- 모집단위: 화학환경공학부
+- 모집인원: 20명
+- 지원 인원: 145명
+- 경쟁률: 7.27
+평균 성적 정보를 보면:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 308.69
+- 영어 등급의 평균은 4.17
+이러한 정보를 바탕으로 판단하면:
+1. 지원자의 3.92는 상당히 높은 수준입니다.
+2. 이 점수는 평균보다 약간 낮지만, 경쟁률이 매우 높아서도 충원 합격자 중 일부가 이 점수를 받았습니다.
+3. 화학환경공학부의 경우, 영어 등급이 중요하므로 4.17 평균보다는 약간 낮지만 가능성이 있습니다.
+결론적으로:
+- 3.92라는 점수로 충분히 지원할 수 있는 가능성은 있지만,
+- 경쟁률이 매우 높아서 확실한 것은 아닙니다.
+- 다른 요인들도 고려해야 하며, 최종 결정을 내리기 위해서는 전체 성적 분포와 지원자들의 평균 점수를 더 자세히 확인해봐야 합니다.
+따라서, 이 점수로 가능하다고 볼 수 있지만 확실한 것은 아니므로 추가 정보 수집 후 결정하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정보를 제공하고 있으며, 성적 산출 방법과 관련된 세부사항을 포함하고 있습니다. 그러나 원문에서 제공된 평균 점수와 비교하여 성적의 합격 가능성을 언급하는 부분이 다소 모호하게 표현되어 있어, 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, 화학환경공학부에 대한 구체적인 정보가 부족하고, 다른 학과(화학공학과, 환경공학과, 응용화학과)에 대한 언급이 추가되어 있어 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 수능 일반학생전형에 대한 정보와 성적에 대한 질문에 적절히 대응하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 정보가 추가되어 있어 원문과의 연결성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 성적 산출 방법에 대한 구체적인 수치가 원문과 다르게 표현되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 주제에 적합한 정보를 제공합니다. 그러나 일부 세부사항이 추가되어 있어 원문의 맥락과 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있어 완전한 이해를 위해 추가적인 설명이 필요할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.6740527743866346</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학공학과, 환경공학과, 응용화학과는 수능 일반학생전형을 통해 모집됩니다. 성적 산출방법은 다음과 같습니다:
+- **국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수**
+당신의 동의대식 정시 성적 4.25는 이 방식으로 화학환경공학부에 원서를 접한 후 수능 일반학생전형을 통해 가능합니다.
+**주의사항:**
+- **수능 영어 등급 점수:** 4등급은 115점입니다.
+- **수능 탐구 영역 점수:** 화학공학과, 환경공학과, 응용화학과는 탐구 영역 중 과학교과를 포함하여 반영합니다.
+당신의 성적 4.25는 수능 일반학생전형을 통해 화학공학과, 환경공학과, 응용화학과에 지원할 수 있는 점수입니다. 원서접수 후, 동일한 모집단위와 전형요소를 반영하여 성적 산출이 가능합니다.
+따라서, **동의대식 정시 성적 4.25**는 **화학공학과, 환경공학과, 응용화학과 수능 일반학생전형**을 통해 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 영화학과의 평균 성적과 관련된 정보를 포함하고 있지만, 일부 세부 사항이 정확하지 않거나 원본 텍스트와 일치하지 않습니다. 예를 들어, "영어 등급의 평균이 3.00"이라는 정보는 원본 텍스트에 명시된 3.66과 다릅니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 경쟁률과 평균 점수에 대한 정보가 원본과 일치하지 않아 일관성이 떨어집니다. 특히, 경쟁률과 평균 점수에 대한 언급이 원본과 다릅니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 적절한 정보를 제공하며, 영화학과의 입학 가능성에 대한 여러 요소를 고려하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 정보가 원본과 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 성적과 경쟁률에 대한 정보가 원본과 다르기 때문에 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 관련성, 유창성, 일관성 등에서 좋은 점수를 받았습니다. 그러나 사실성과 정확성에서 일부 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 질문에 대한 적절한 답변을 제공합니다. 그러나 일부 세부 사항에서 부정확성이 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.642730432607472</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 영어 등급을 포함한 수능 4개 영역의 평균 등급입니다. 영화학과의 경우, 예술디자인체육대학에서 모집하는 전공 중 하나로, 경쟁률이 상대적으로 낮은 편이지만 여전히 입학에 대한 확신을 가질 수는 없습니다.
+수능 점수만으로 합격 가능성을 판단하기보다는 다음과 같은 요소들을 고려해보세요:
+1. **전형방법**: 영화학과의 경우, 정시모집은 주로 수능 성적을 기준으로 합니다. 하지만 일부 전형에서는 서류평가나 면접 등 다른 평가요소도 포함될 수 있으므로, 해당 전형의 세부 내용을 확인해보세요.
+2. **경쟁률**: 영화학과의 경우, 지원 인원이 11명이고 모집인원이 5명으로 경쟁률은 2.20입니다. 이는 상대적으로 낮은 편이지만, 수능 점수가 평균보다 높아야 합니다.
+3. **평균점수**: 영화학과의 경우, 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.80입니다. 이보다 높은 점수가 필요합니다.
+4. **영어 등급**: 영화학과의 경우, 영어 등급의 평균이 3.00이며, 표준 편차가 0.89로 낮아서 3.25 이상의 등급을 보유하고 있다면 이는 긍정적입니다.
+5. **전형별 특성**: 영화학과는 예술 분야에 속하므로, 창의성이나 표현력 등을 평가하는 면접이나 서류평가도 중요한 요소일 수 있습니다. 따라서 이러한 부분을 준비해두면 좋습니다.
+결론적으로 4.2라는 점수로는 합격 가능성이 있지만, 확실한 것은 아닙니다. 영화학과의 경우, 예술적 감각이나 창의성 등 다른 평가 요소도 중요하므로, 이러한 부분을 강화하는 것이 도움이 될 수 있습니다.
+추가적으로, 입학사정관들이 다양한 측면에서 지원자를 평가하기 때문에, 자신만의 특별한 경험이나 성취를 잘 전달할 수 있는 서류나 면접 답변을 준비해보세요.</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있으며, 추가적으로 "이 절차는 모든 면접 형태에서 동일하게 적용됩니다."라는 문장이 포함되어 있습니다. 이 문장은 다소 일반화된 내용이지만, 면접 절차의 본질적인 부분은 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 면접 절차를 설명하고 있습니다. 다만, "모든 면접 형태에서 동일하게 적용됩니다."라는 추가 정보는 원본 텍스트에 포함되어 있지 않지만, 면접 절차의 일관성을 강조하는 데 도움이 됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 면접 절차에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 절차를 순서대로 나열하고 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 면접 절차에 대한 정보는 정확하지만, "모든 면접 형태에서 동일하게 적용됩니다."라는 문장은 다소 일반화된 표현으로, 특정 상황에 따라 다를 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 일반화된 표현이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 문장이 모든 면접에 적용된다는 점에서 다소 논란의 여지가 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.8489562279508704</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접 형태에서 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/deuChatbot/research_result/version_2(3000_100).xlsx
+++ b/deuChatbot/research_result/version_2(3000_100).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21132,6 +21132,6875 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 구체적인 정보를 제공하는 원본 텍스트와 상반된 내용을 담고 있습니다. 원본 텍스트는 실기시험의 세부사항을 명확히 설명하고 있지만, 생성된 응답은 그러한 정보가 포함되어 있지 않다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본 텍스트는 실기시험의 구체적인 내용과 요구사항을 나열하고 있지만, 생성된 응답은 이를 부정하고 일반적인 정보만을 제공합니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 일반적인 정보는 포함하고 있지만, 원본 텍스트의 구체적인 내용과는 관련이 적습니다. 원본 텍스트의 핵심 주제를 다루지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 흐름이 방해받을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 주제에 대한 명확한 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 실기시험에 대한 구체적인 정보를 제공하지 않고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부정적입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 일반적인 설명을 포함하고 있지만, 원본 텍스트의 맥락과는 맞지 않습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.6953221674561085</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 디자인조형학과의 실기시험에 대한 내용이 포함되어 있지 않습니다. 디자인조형학과는 일반적으로 실기시험을 통해 학생들의 창의성, 기술적 능력 등을 평가받습니다. 하지만 정확한 시험 내용은 해당 대학이나 학과에서 공지하는 정보에 따라 달라질 수 있습니다.
+일반적인 디자인조형학과 실기시험의 구성 요소는 다음과 같습니다:
+1. **디자인 아이디어 제시**: 학생들이 주제나 주어진 문제를 바탕으로 창의적으로 아이디어를 제시하고 그 이유를 설명합니다.
+2. **도면 그리기**: 실제 도면을 그려보며 디자인의 구조와 세부적인 부분을 표현합니다.
+3. **색채 사용**: 색상의 조합과 사용법을 통해 작품의 분위기를 조성하는 능력을 평가받습니다.
+4. **제작 실습**: 실제 물건을 제작하거나 모형을 만드는 등의 작업을 통해 학생들의 기술적 능력을 확인합니다.
+5. **프레젠테이션**: 자신의 작품에 대해 설명하고, 그 이유와 의도를 논리적으로 표현하는 능력을 평가받습니다.
+정확한 실기시험 내용과 절차는 해당 대학의 입학처나 학과 홈페이지에서 확인할 수 있습니다. 따라서 디자인조형학과의 실기시험에 대한 자세한 정보를 얻으려면, 관련 대학의 공식 웹사이트를 방문하거나 입학 상담을 받는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 종목별 배점(비율)인 700점(70%)에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 종목별 배점에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트에는 배점에 대한 정보가 없으므로, 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 내용을 모두 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있으나 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 종목별 배점에 대한 추가 정보가 포함되어 있어 약간의 논리적 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 원본 텍스트에 없는 배점 정보를 포함하고 있어 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 좋은 점수를 받고 있습니다. 그러나 배점 정보로 인해 약간의 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 배점 정보가 추가되어 있어 의미적으로 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 배점 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.841048721887356</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 '기초디자인, 사고의 전환'이며, 종목별 배점(비율)은 700점(70%)입니다.
+준비물은 다음과 같습니다:
+- 볼펜
+- 연필 
+- 색연필
+- 수채물감 등 표현에 필요한 도구
+실기주제는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 잠자리와 저울, 콜라병과 계절 등의 조합이 있습니다.
+화지크기는 켄트지3절이며, 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록이 정확하게 나열되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대회에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 요청된 정보에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.8825407866963395</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 배드민턴(남)의 경우 다음과 같은 대회가 인정대회에 포함되어 있습니다:
+1. 한국중·고연맹회장기전국학생선수권대회
+2. 대한배드민턴협회장기전국종별배드민턴선수권대회
+3. 전국학교대항배드민턴선수권대회
+4. 전국종별배드민턴선수권대회
+5. 전국연맹종별배드민턴선수권대회
+6. 전국체육대회
+7. 각종국제대회 (주니어국제대회로 출전한 경우만 인정)
+8. 광역시·도 협회장기 종별대회
+축구(남)의 경우 다음과 같은 대회가 인정대회에 포함되어 있습니다:
+1.춘계한국고등학교축구연맹전
+2.추계한국고등학교축구연맹전
+3.대한축구협회장배전국고등학교축구대회
+4.문화체육관광부장관기전국고등학교축구대회
+5.문화체육관광부장관배전국고등학교축구대회
+6.백운기전국고등학교축구대회
+7.전국고등축구리그(권역별고교축구리그)
+8.전국고등축구리그왕중왕전
+9.무학기전국고등학교축구대회
+10.청룡기전국고등학교축구대회
+11.백록기전국고등학교축구대회
+12.금강대기전국고등학교축구대회
+13.대통령금배전국고등학교축구대회
+14.금석배전국고등학생축구대회
+15.부산MBC전국고등학생축구대회
+16.K리그 U18 챔피언십
+17.K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기록하면 경기지도학과의 모집에 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 주제B의 내용이 원본 텍스트와 다릅니다. 원본 텍스트의 주제B는 "악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음"인데, 생성된 응답에서는 "콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼"로 잘못 기재되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 주제B의 내용이 다르기 때문에, 주제 선정 및 연결 주제 작성에 대한 설명도 일관되지 않게 됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 다루고 있지만, 주제B의 잘못된 정보로 인해 완전한 관련성을 잃었습니다. 그러나 주제A는 정확하게 언급되어 있어 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 주제B의 잘못된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전체적으로 구조가 잘 잡혀 있지만, 주제B의 잘못된 정보로 인해 논리적인 흐름이 약간 깨졌습니다. 주제 선정 및 연결 주제 작성에 대한 설명이 일관되지 않기 때문입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 주제B의 내용이 원본 텍스트와 다르기 때문에 정확성이 낮습니다. 주제A는 정확하지만, 주제B의 오류로 인해 전체적인 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성과 일관성, 정확성이 낮아 전체적인 품질이 떨어집니다. 주제B의 오류가 큰 영향을 미쳤습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미를 전달하려고 하지만, 주제B의 잘못된 정보로 인해 의미 전달이 완전하지 않습니다. 주제A는 적절하지만, 주제B의 오류가 의미의 일관성을 해칩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 주제B의 잘못된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.7810287490062346</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 중에서 각각 1개씩 선정하여 연결된 주제를 작성해야 합니다. 예시로 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+학생들은 당일에 추첨을 통해 선택된 주제를 사용하여 작품을 제작해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 "모든 전형 요소 반영 비율에서 출결의 비율은 0%입니다."라는 추가 정보는 출처에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 점에서 일관성을 유지하고 있지만, 추가된 정보가 출처와 일치하지 않기 때문에 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 출처의 주요 내용을 잘 반영하고 있으며, 관련된 정보를 추가하여 질문에 대한 답변을 보강하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 출처의 내용과 잘 연결되어 있습니다. 그러나 추가된 정보가 다소 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 점수가 반영되지 않는다는 주장은 정확하지만, 추가된 정보는 출처에 명시되어 있지 않으므로 정확성 점수가 다소 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있지만, 일부 정보의 부정확성으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 출처의 맥락과 잘 맞아떨어집니다. 그러나 추가된 정보가 다소 불필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보가 혼란을 줄 수 있어 점수가 다소 낮아졌습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.6960616176585341</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서 출결 점수가 반영되지 않습니다. 관련 정보에 따르면, 모든 전형 요소 반영 비율에서 출결의 비율은 0%입니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원 수와 전형에 대한 정보를 정확하게 반영하고 있습니다. "17명을 모집합니다"라는 내용이 원문과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보의 충돌이나 모순이 없습니다. "가군 일반학생 전형으로 17명을 모집합니다"라는 내용이 동일하게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊습니다. 모집 인원과 전형에 대한 정보가 직접적으로 언급되고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다. "2024년"이라는 추가 정보도 문맥에 잘 어울립니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원문과의 연결이 매끄럽습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공하는 정보와 정확히 일치합니다. 모집 인원과 전형에 대한 정보가 모두 정확하게 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완벽하게 부합합니다. "2024년"이라는 추가 정보도 적절하게 사용되었습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다. 정보가 잘 전달되어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.9301335169561371</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.8744409370897638</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로는 28명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.7773394548845104</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.9428529891538322</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다.
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서의 주장을 완전히 반박하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서의 핵심 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 완전히 상반된 내용을 담고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 내용이 명확하게 전달되지만, 잘못된 정보로 인해 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7255900988754991</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원하는 것은 가능합니다. 그러나 지원 자격 및 제출 서류가 특정 조건을 충족해야 합니다.
+1. **지원 자격**: 
+   - 농어촌(읍·면)지역에 소재한 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 동안 본인 및 부모 모두가 농어촌 지역에 거주해야 합니다.
+2. **제출 서류**:
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부
+특히, 예술고 학생이라면 미디어커뮤니케이션학과나 영화학과 등 예체능 계열의 전공을 선택하는 것이 적합할 수 있습니다. 그러나 이는 지원자의 개인적 경력 및 능력을 기반으로 결정해야 합니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나 대학 입학처에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답에서 "남은 268～271cm"라는 부분은 사실과 다릅니다. 원본 텍스트에서는 4등급 기록이 218~221 cm로 명시되어 있습니다. 따라서 이 부분은 부정확합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. "남은 268～271cm"라는 기록은 원본과 상충하므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 4등급 기록과 배점에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "여은"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 표현이 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - "남은 268～271cm"라는 잘못된 정보로 인해 정확성이 떨어집니다. 원본 텍스트의 사실과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 정보의 관련성은 높지만, 사실성과 정확성이 낮아 다차원적 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답의 의미는 대체로 적절하지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8931953709569624</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 남은 268～271cm, 여은 218~221cm입니다. 이 기록에 대한 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 출결 반영 비율이 12%라는 사실을 명확히 반영하지 않고 있으며, 출결 반영 비율에 대한 구체적인 정보를 제공하지 않고 있습니다. 이는 원본 텍스트의 핵심 사실을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 출결 반영 비율이 12%라고 명시하고 있지만, 생성된 응답은 이 정보를 부정확하게 전달하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 출결 상황에 대한 점수 정보를 제공하지만, 원본 텍스트의 핵심 질문인 출결 반영 비율에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 나열되어 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 출결 반영 비율에 대한 명확한 답변이 없기 때문에 논리적 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 출결 반영 비율에 대한 잘못된 해석을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 출결 상황에 대한 정보를 제공하지만, 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다. 따라서 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트의 핵심 정보를 명확히 전달하지 않기 때문에 일부 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.5922166913455322</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 해당 정보에 따르면 동의대학교 경기지도학과에서 출결상황이 실기/실적 항목 중 반영되고는 있지만, 구체적인 출결 반영 비율은 제공된 내용에서 확인할 수 없습니다. 
+출결 상황에 대한 반영 점수 정보는 다음과 같습니다:
+- 결석일수 0~2일: 반영점수 120
+- 결석일수 3~6일: 반영점수 90
+- 결석일수 7~12일: 반영점수 60
+- 결석일수 13~20일: 반영점수 30
+- 결석일수 21일 이상: 반영점수 0
+이 정보만으로는 출결상황의 비율을 정확히 알 수 없습니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입학처나 관련 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보에 대한 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.9032410896748458</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 정원 내 모집 인원이 4명입니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다. 디자인조형학과의 모집단위와 실기종목에 대한 설명이 정확합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용과 충돌하지 않습니다. 모든 정보가 서로 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정 외에도 디자인조형학과에 대한 유용한 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 자연스러운 표현이 사용되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어져 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 추가된 정보도 관련성이 높습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.4080769448203446</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024. 01. 17.(수)에 있습니다.
+디자인조형학과는 시각디자인, 산업디자인, 공예디자인이 모집단위이며, 실기종목은 기초디자인, 사고의 전환으로 구성되어 있습니다. 종목별 배점(비율)은 각각 700점(70%)입니다.
+더 궁금하신 점이 있으시면 https://ipsi.deu.ac.kr/main.do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 추가 정보에 대한 안내도 포함되어 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저 기준이 없다는 내용을 잘 전달하고 있습니다. 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 최저 기준에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, "제공된 정보에서"라는 표현이 다소 어색하게 느껴질 수 있습니다. 그러나 전반적으로 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 사실에 기반한 정보만을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 약간의 어색한 표현이 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4216967655096949</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 정보는 없습니다. 추가 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do) 웹사이트를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과에 대한 정보가 잘못되었습니다. 원본 텍스트에 명시된 학과(심리학과, 스마트항만물류학과, 창업투자경영학과, 라이프융합학부, 경기지도학과)와는 전혀 다른 학과(게임공학과, 영화학과, 패션디자인학과)를 언급하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 내용과 생성된 응답의 내용이 상충하므로 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트에서 언급된 학과와는 다른 학과에 대한 정보를 제공하고 있어 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.6112924837859051</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과로는 ICT융합공과대학의 게임공학과와 영화학과, 예술디자인체육대학의 패션디자인학과가 있습니다. 각 학과별 모집 인원과 지원 인원은 다음과 같습니다:
+1. **게임공학과**
+   - 모집 인원: 3명
+   - 지원 인원: 16명
+   - 경쟁률: 5.33
+2. **영화학과**
+   - 모집 인원: 5명
+   - 지원 인원: 11명
+   - 경쟁률: 2.20
+3. **패션디자인학과**
+   - 모집 인원: 6명
+   - 지원 인원: 22명
+   - 경쟁률: 3.67
+이러한 정보를 바탕으로, 동의대학교에서 2024학년도에 신설된 학과는 게임공학과, 영화학과, 패션디자인학과입니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 정확한 정보를 제공하지 않고, 오히려 정보가 확인되지 않았다고 주장하고 있습니다. 이는 원문에서 명시된 사실과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서는 명확한 비율이 제시되었으나, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 요구하는 정보와 관련이 있지만, 정보가 확인되지 않았다는 내용으로 인해 주제에서 벗어나 있습니다. 원문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 정보의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 확인되지 않았다는 주장은 원문과의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정확한 정보를 왜곡하고 있으며, 사실과 다릅니다. 원문에서 제시된 비율을 전혀 반영하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 관계가 부정적입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있으나, 정보가 확인되지 않았다는 주장은 원문에서 요구하는 정보와는 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 정보의 부정확성으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.6648806585627581</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)에 대한 정확한 전형요소 반영비율 정보가 제공된 문서에서 확인되지 않았습니다. 해당 정보를 찾기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 최신의 학교 입학규정을 확인하시거나, 동의대학교 입학처에 직접 문의하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 "한의예과"라는 학과가 언급되었으나, 원본 텍스트에는 "한의예과"가 포함되어 있지 않으며, "의료·보건·생활대학"이 포함되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, "한의예과"라는 학과가 추가되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 가산점 적용 학과에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽지만, "한의예과"라는 잘못된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 잘못된 정보로 인해 약간의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: "한의예과"라는 잘못된 정보가 포함되어 있어 정확성이 낮습니다. 원본 텍스트의 내용을 정확히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7997767234338963</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 한의예과, 공과대학, ICT융합공과대학입니다. 이들 학과에서는 수학(미적분 또는 기하) 응시자의 수학 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 언급했지만, 반영 영역과 비율에 대한 정보는 원본 텍스트에 포함되어 있지 않습니다. 원본 텍스트는 수능 성적 반영 방법에 대한 구체적인 내용을 제공하지 않으므로, 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 추가적인 정보를 포함하고 있습니다. 원본 텍스트는 수능 성적을 100% 반영한다고만 언급하고 있으며, 반영 영역과 비율에 대한 정보는 제공하지 않기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적 반영에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 "100% 반영"이라는 점에 대한 구체적인 설명이 부족합니다. 그러나 여전히 관련된 주제를 다루고 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 매끄럽고 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 수능 성적 반영 방법에 대한 구체적인 내용을 제공하지 않으므로, 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 유창성과 관련성에서 좋은 점수를 받았지만, 사실성과 일관성에서 낮은 점수를 받았습니다. 전반적으로 중간 정도의 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가적인 정보가 포함되어 있어 원본의 의도를 완전히 반영하지는 않습니다. 따라서 적절성 점수는 중간입니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7614188803581858</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+1. **반영 영역**: 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목 합)입니다.
+2. **반영 비율**: 각 영역별로 25%를 반영합니다.
+3. **가산점**: 이 부분에서는 가산점이 없습니다.
+따라서, 수능 성적은 국어, 수학, 영어, 탐구 등 네 가지 영역에서 각각 25%씩 총 100%로 반영되며, 추가적인 가산점은 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 가군 실기고사 날짜에 대한 정보를 제공하지만, 원본 텍스트에 명시된 날짜(2024년 1월 16일) 외에 추가적인 날짜(2024년 1월 17일)가 포함되어 있습니다. 이는 원본 정보와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 날짜를 포함하고 있어 일관성이 부족합니다. 원본 텍스트는 단일 날짜를 제공하는 반면, 생성된 응답은 여러 날짜를 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보(다른 학과의 실기고사 날짜)가 포함되어 있어 주제에서 약간 벗어났습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 여러 날짜를 언급함으로써 약간의 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 잘못된 날짜를 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서 낮은 점수를 받아 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 핵심 정보를 왜곡하고 있어 의미의 일관성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 여러 날짜의 언급으로 인해 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.6913508124341782</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같은 날짜에 진행됩니다:
+- 레저스포츠학과와 태권도학과의 실기고사는 2024. 01. 16.(화)입니다.
+- 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과의 실기고사는 2024. 01. 17.(수)입니다.
+이 정보가 도움이 되길 바랍니다. 추가로 궁금한 점이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 한의예과와 경기지도학과를 제외한 다른 학과를 언급하고 있으며, 이는 사실과 다릅니다. 또한, 레저스포츠학과와 태권도학과는 원문에 언급되지 않았습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 이는 일관성을 저해합니다. 원문에서 제외된 학과와 생성된 응답에서 언급된 학과가 다릅니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 완전한 관련성을 갖추지 못합니다. 그러나 전형에 대한 설명은 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 일관된 주제를 유지하지 못합니다. 정보가 혼합되어 있어 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정확한 정보를 반영하지 않으며, 잘못된 학과를 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 의미적으로 완전한 적합성을 갖추지 못합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장은 명확하게 전달됩니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.7943103463100165</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 제외된 모집단위입니다. 이들 학과는 다른 전형에서 별도로 모집되거나, 일반학생전형에서는 해당 학과를 제외하고 수험생을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 올바르게 전달하고 있습니다. 추가적으로 모든 다군 전형에서 공통된 특징이라는 설명도 사실에 부합합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다. 모든 다군 전형에서의 공통된 특징에 대한 언급도 일관성을 유지합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련된 추가 정보를 제공하여 주제와의 관련성을 높이고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있어 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 추가된 정보도 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8340446381397115</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 모든 다군 전형에서 공통된 특징입니다. 자세한 내용은 https://ipsi.deu.ac.kr/main.do를 참조하시면 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 대부분의 학과 분리 정보를 정확하게 반영하고 있지만, "디자인공학부"가 "디자인조형학과"로 잘못 표기되었고, "모집중지"라는 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 대체로 일치하지만, 일부 학과의 명칭이 다르게 표현되거나 추가 정보가 포함되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 학과 분리에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 표현에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 분리 정보를 명확하게 전달하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 대부분의 정보가 정확하지만, 일부 학과의 명칭이 잘못 기재되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 높은 품질을 보이나, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 일부 표현에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 일부 표현에서 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.8353519210224325</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과들이 학부에서 학과로 분리되었습니다.
+1. 보육·가정상담학부 → 아동학과
+2. 경제금융보험학부 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학부 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인조형학과(서양화·한국화·환경조형) → 모집중지
+위와 같이 여러 학과들이 분리되었습니다. 더 자세한 정보가 필요하시다면 https://ipsi. deu. ac. kr/main. do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 날짜와 시간도 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 마감일에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 내용과 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.9086795267404029</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수(인터넷)의 마감일은 2024. 01. 06.(토) 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 전형 요소 변화에 대한 구체적인 내용을 잘못 전달하고 있습니다. 원본 텍스트에서 언급된 다양한 전형의 변화가 누락되었고, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 전형의 세부 사항이 다르게 설명되고 있습니다. 특히, 전형의 배점 변화에 대한 정보가 원본과 상충합니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 전형 요소 변화에 대한 질문에 어느 정도 관련이 있지만, 원본 텍스트의 주요 내용을 충분히 반영하지 못하고 있습니다. 특정 전형에 대한 정보만 제공하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성에 문제가 있어 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 특히, 전형의 배점 변화에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 의미적으로는 어느 정도 적절하지만, 원본 텍스트의 맥락과는 맞지 않는 부분이 많아 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 이해하기 쉬운 문장으로 구성되어 있으나, 내용의 정확성이 떨어져 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.6618407118114108</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형은 학생부종합(성인학습자(정원내·외)전형)입니다. 이 전형의 서류 평가 영역별 배점이 변경되었습니다.
+- **공동체역량**의 1등급 점수는 140점에서 129.5점으로 감소하였습니다.
+- **학업역량**의 1등급 점수는 280점에서 259점으로 감소하였습니다.
+- **전공적합성**의 1등급 점수는 280점에서 259점으로 감소하였습니다.
+이러한 변화로 인해 평가 기준이 조정되었습니다. 자세한 내용은 대학 입학 정보 사이트를 참조하시거나, https://ipsi. deu. ac. kr/main. do 링크를 통해 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련된 정보를 추가하여 더욱 풍부한 내용을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 내용을 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.8358415753168936</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다. 이는 '가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율' 항목에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 세부 전공 목록을 정확하게 반영하고 있으며, 추가적인 설명도 원본의 내용과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 세부 전공에 대한 추가적인 설명도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8659061128854305</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 세부 전공으로 다음과 같이 구성되어 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 세부 전공들은 미래의 산업 트렌드와 맞물려, 창업과 투자, 뷰티 산업, 그리고 생활 문화 분야에 대한 지식을 학생들에게 제공합니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트에 명시된 학과와 다릅니다. 원본에는 '체육학과'와 '레저스포츠학과'만 언급되었으나, 생성된 응답에는 '태권도학과'가 추가되어 있으며, 실기 종목과 배점에 대한 정보도 원본에 포함되지 않은 내용입니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 추가된 정보가 원본의 내용과 상충합니다. 원본에 없는 학과와 실기 종목이 포함되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본의 주제와 관련이 있지만, 원본에 포함되지 않은 정보가 많아 주제에서 벗어난 부분이 있습니다. 원본의 핵심 내용인 '실기고사에 참여해야 하는 학과'에 대한 정보는 포함되어 있으나, 불필요한 세부사항이 추가되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본과의 불일치로 인해 내용의 흐름이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나쁘지 않지만, 원본과의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 원본의 내용과 일치하지 않는 부분이 있어 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본의 사실과 크게 다릅니다. 원본에 포함되지 않은 학과와 실기 종목이 추가되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본과의 불일치가 많아 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본의 주제와 관련이 있지만, 추가된 정보가 원본의 의미와 맥락을 왜곡하고 있습니다. 따라서 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.734670300777982</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (실기종목: 제자리 멀리뛰기 또는 Z-런, 종목별 배점: 350점(35%))
+2. 태권도학과 (실기종목: 태권도 실기고사, 종목별 배점: 350점(35%))
+이러한 학과들은 가군 수능(일반학생전형)에서 실기/실적을 포함하여 평가받습니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정확한 정보를 제공하지 않고, 실제 지원 가능한 학과 목록과는 전혀 다른 학과를 언급하고 있습니다. 원본 텍스트에 명시된 학과들은 언급되지 않았고, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과에 대한 정보를 제공하고 있습니다. 원본 텍스트의 내용과 상충하는 정보가 포함되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 실기/실적 위주 전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 요구하는 특정 학과에 대한 정보와는 관련이 적습니다. 원본 텍스트의 핵심 주제와는 다소 벗어난 내용입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다. 주제와 관련된 정보가 부족하여 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 지원 가능한 학과에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 맞지 않는 정보가 포함되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성과 관련성이 부족하여 독자가 혼란스러울 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.5292593897866676</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '경기실적우수자전형'은 주로 특정 학과에 적용됩니다. 제공된 정보를 바탕으로, 실기/실적 위주 전형을 지원할 수 있는 학과는 ICT융합공과대학의 게임공학과와 영화학부가 해당될 가능성이 높습니다.
+게임공학과의 경우:
+- 모집인원: 3명
+- 지원인원: 16명
+- 경쟁률: 5.33
+영화학과의 경우:
+- 모집인원: 5명
+- 지원인원: 11명
+- 경쟁률: 2.20
+이 두 학과는 실기/실적 위주 전형을 통해 지원할 수 있는 학과로 보입니다. 그러나 정확한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 대학 측에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록과 학부의 신설에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공의 목록과 학부의 신설에 대한 설명이 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.910357234962975</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이러한 세 가지 전공은 학부의 신설 과정으로, 미래 산업 트렌드에 맞춘 다양한 분야를 다루고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 또한, 예시로 과학고, 국제고, 외국어고를 언급하여 관련 정보를 추가적으로 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 내용을 일관되게 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 질문에 대한 명확한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 중국어와 한국어가 혼합되어 있어 일부 독자에게는 다소 혼란스러울 수 있습니다. 그러나 문법적으로는 큰 문제가 없습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 다만, 언어 혼합으로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공하는 정보와 정확히 일치하며, 사실에 대한 왜곡이나 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 질문에 대한 적절한 답변을 제공합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 언어 혼합으로 인해 일부 독자에게는 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.6416951076516993</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你是特殊目的高中学生，可以申请동义大学的一般学生入学类型。
+특수목적 고등학교 학생인 경우, 동의대학교의 일반학생전형으로 지원이 가능합니다. 예를 들어, 과학고, 국제고, 외국어고 등은 모두 해당됩니다.
+따라서, 특수목적 고등학교 출신이라면 동의대학교에서 일반학생전형을 통해 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 주어진 정보에 대한 명확한 사실을 제공하지 않고, 오히려 추가적인 자료를 요구하며, 특정 학과에 대한 정보를 부정확하게 전달하고 있습니다. 원본 텍스트의 내용을 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 특정 학과에 대한 정보를 제공하고 있지만, 생성된 응답은 그러한 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않으며, 관련성이 낮습니다. 원본 텍스트의 핵심 정보를 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부적절함으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 품질 차원에서 매우 낮은 점수를 받으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 적절한 의미 전달이 이루어지지 않았습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.5342298877781781</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에 대한 정확한 가장 많이 모집하는 학과 정보를 제공하기 위해서는 추가적인 자료나 공식 웹사이트를 참조해야 합니다. 현재 주어진 내용만으로는 특정 학과가 가장 많이 모집되는지 알 수 없습니다.
+공식 웹사이트인 "https://ipsi.deu.ac.kr/main.do"에서 최신 정보를 확인하시거나, 동의대학교 입학처에 직접 문의하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 완전히 잘못 해석하고 있습니다. 원본 텍스트는 마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원이 가능하다고 잘못 주장하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있습니다. 원본 텍스트의 내용과 일치하지 않으며, 서로 모순되는 정보를 포함하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 내용을 왜곡하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 결여되어 있어 전체적인 품질이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 지원 자격에 대한 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.5416742570169005</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>你是特殊目的高中学生，根据提供的信息，你可以申请东国大学的学生部教科（农·渔村学生选拔型）。
+具体来说，在「農·漁村學生選拔型」中：
+- 特殊目的高中是可以申请的。
+- 支持的艺术高中、体育高中也是可以申请的。
+- 而科学高中、国际高中和外语高中的支持是不可以的。
+所以，你可以申请艺术高中或体育高中的学生。希望这些信息对你有帮助！如果需要进一步的帮助，请访问“https://ipsi.deu.ac.kr/main.do”。</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 소프트웨어공학부 합격자 평균 성적에 대한 정보가 제공되지 않았다는 사실을 언급하고 있지만, 추가로 제공된 정보(국어 + 수학 + 탐구의 평균 점수 및 영어 등급 평균)는 원본 텍스트에 포함되어 있지 않은 내용입니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분도 있지만, 추가적인 정보가 포함되어 있어 일관성이 떨어집니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 다른 성적 정보를 제공하고 있어 모순이 발생합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보가 포함되어 있어 약간의 비관련성이 있습니다. 그러나 기본적으로 질문에 대한 답변을 제공하고 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있지만 전반적으로 유창합니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해져서 일관성이 떨어집니다. 추가 정보가 포함되어 있어 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 추가된 정보는 원본 텍스트와 관련이 없습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 정보로 인해 의미가 왜곡될 수 있습니다. 따라서 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 추가 정보로 인해 혼란을 줄 수 있는 부분이 있어 약간의 점수를 낮췄습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.7389041475056538</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부의 합격자 평균 성적 정보가 제공되지 않았습니다. 다른 관련 정보는 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 309.71입니다.
+- 영어 등급의 평균은 3.71입니다.
+만약 소프트웨어공학부 합격자들의 평균 성적을 알고 싶다면, 해당 정보를 제공하는 공식 웹사이트나 관련 문서를 확인해보시는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충되는 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원문에서 요청한 정보와 관련이 없으며, 원문에서 명시된 내용과는 전혀 다른 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 부적절함으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 원문과의 연결이 부족하여 일관된 논리적 흐름이 결여되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공된 정보와 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 부적절한 내용을 담고 있습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있으나, 내용이 원문과 관련이 없기 때문에 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.5055093969688483</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가적인 정보와 세부사항이 포함되어 있어 원본과의 일치성이 떨어진다. 특히, 최초 합격자 등록 일정과 관련된 정보는 원본에 명시되어 있지 않다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있어 일관성이 부족하다. 예를 들어, 최초 합격자 등록 일정이 추가되어 원본의 내용과 충돌한다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하고 있지만, 원본 텍스트에 없는 추가적인 세부사항이 포함되어 있어 약간의 관련성이 떨어진다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원본 텍스트와의 연결이 약해 논리적인 흐름이 부족하다. 특히, 추가된 정보가 원본과의 연관성을 약화시킨다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 잘못된 정보가 포함되어 있다. 예를 들어, 최초 합격자 등록 일정은 원본에 명시되어 있지 않다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 떨어지며, 정보의 정확성과 일관성이 부족하다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 정보가 원본의 의미와 맥락을 왜곡할 수 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보가 과도하게 추가되어 혼란을 줄 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8215987141336444</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 합격자 발표 일정은 다음과 같습니다.
+1. 최초 합격자 발표 및 등록금 납부:
+   - 일정: 2024. 02. 02.(금) 14:00
+   - 비고: 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+2. 최초 합격자 등록:
+   - 일정: 2024. 02. 07.(수) ~ 02. 13.(화) (은행 마감 시간 내)
+   - 비고: 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+3. 충원 합격자 1차 발표 및 등록:
+   - 일정: 2024. 02. 14.(수) 09:00
+   - 비고: 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+4. 충원 합격자 1차 등록:
+   - 일정: 2024. 02. 14.(수) 09:00 ~ 16:00
+   - 비고: 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+5. 충원 합격자 2차 발표 및 등록:
+   - 일정: 2024. 02. 15.(목) 09:00
+   - 비고: 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+6. 충원 합격자 2차 등록:
+   - 일정: 2024. 02. 15.(목) 09:00 ~ 16:00
+   - 비고: 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+7. 충원 합격자 3차 이후 발표 및 등록:
+   - 일정: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+   - 비고: 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+위와 같이 합격자 발표 및 등록 일정이 있습니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 면접고사 일정에 대한 잘못된 정보를 포함하고 있으며, 원본 텍스트와 전혀 일치하지 않습니다. 원본 텍스트는 2024년 1월 20일에 면접고사가 있다고 명시하고 있지만, 생성된 응답은 2024년 1월 16일에 다른 전형의 면접고사를 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트의 내용과 생성된 응답의 내용이 서로 모순되므로 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 면접고사 일정에 대한 질문에 대한 답변으로는 관련성이 낮습니다. 원본 텍스트의 특정 전형에 대한 정보를 제공하지 않고 다른 전형에 대한 정보를 언급하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 명확하지 않아 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 매우 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.4698112363496316</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>2024년 1월 16일(화)에 &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과의 면접고사를 보러 가야 합니다. 또한, 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 잘못 해석하고 있습니다. 응답에서는 "최저학력 기준이 없다"는 내용을 "최저학력 기준이 설정되지 않았다"는 식으로 설명하고 있으며, 이는 원문과 일치하지 않습니다. 또한, 제공된 웹사이트 링크는 원문에 포함되어 있지 않으므로 추가적인 정보로서의 신뢰성을 떨어뜨립니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 최저학력 기준이 없다고 명확히 언급하고 있지만, 생성된 응답은 이를 다르게 해석하여 혼란을 초래하고 있습니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 불필요한 정보(웹사이트 링크 등)를 포함하고 있어 주제와의 관련성이 떨어집니다. 원문에서 요구하는 정보에 비해 부가적인 내용이 많습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 표현이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문에서 제시한 정보와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실을 정확하게 반영하지 않고 있으며, 잘못된 해석을 포함하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 해석으로 인해 의미적으로 적절하지 않은 부분이 있습니다. 원문의 의미를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 불일치로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.4498917025532482</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>提供的信息中没有提到韩医科的具体最低学力标准。根据给出的信息，韩医科（한의예과）的招生类型是“一般学生型”，并且说明了其最低学力基准为无最低学力基准（수능최저기준 없음）。这意味着在一般学生型的招生中，并没有设定特定的最低学力要求。
+如果您需要更详细的信息，建议访问以下网站获取最新和最准确的数据：“https://ipsi. deu. ac. kr/main. do”。</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 모든 전형에서 수능 최저학력 기준이 없다는 점도 명확히 언급되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 일관되며, 수능 최저학력 기준이 없다는 정보를 일관되게 전달하고 있습니다. 다른 평가 요소들에 대한 언급도 원문과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 정보를 제공합니다. 수능 최저학력 기준이 없다는 점을 명확히 하고, 추가적인 정보도 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있습니다. 읽기에도 무리가 없으며, 문장 구조가 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 정보의 흐름이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 완벽하게 일치하며, 사실에 대한 정확성을 유지하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 맥락에 적합한 내용을 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 전달되어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.4905831071532021</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에 따르면, 모든 전형에서 수능최저학력기준이 없습니다. 따라서 정시 전형으로 지원할 때 수능최저학력기준을 충족해야 하는 것은 아닙니다. 그러나 각 전형별로 다른 평가 요소들이 있으므로, 지원하는 전형의 특징과 요구사항을 잘 이해하고 준비하는 것이 중요합니다.
+더 자세한 정보를 얻고 싶으시다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 일부 정확한 정보를 포함하고 있지만, 추가된 "인터넷 등록"과 "개별 전화 통보"에 대한 내용은 원본 텍스트에 명시되어 있지 않으므로 사실성이 떨어진다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 일관되게 제공하지만, 추가된 정보로 인해 원본과의 일관성이 떨어진다. 특히, "인터넷 등록"과 "개별 전화 통보"는 원본에 없는 내용이다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 충원합격자 발표 일정과 관련이 있지만, 추가된 정보가 원본의 핵심 내용과는 다소 관련이 떨어진다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 잘 작성되어 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있지만, 추가된 정보로 인해 약간의 혼란이 발생할 수 있다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 정보가 포함되어 있어 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 응답이 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 추가된 정보가 원본의 맥락과 맞지 않아 의미적으로 적절하지 않다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.876672238922635</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 다음과 같습니다:
+1. 충원 합격자 1차 (인터넷) 발표: 2024년 2월 14일(수) 09:00
+2. 충원 합격자 1차 (인터넷) 등록: 2024년 2월 14일(수) 09:00~16:00
+3. 충원 합격자 2차 (인터넷) 발표: 2024년 2월 15일(목) 09:00
+4. 충원 합격자 2차 (인터넷) 등록: 2024년 2월 15일(목) 09:00~16:00
+이후에 개별 전화 통보를 통해 최종 합격자를 발표합니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 구체적인 정보를 제공하지 않고, 공식 웹사이트를 참조하라는 내용으로 대체하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않으며, 중요한 정보를 누락하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 충원합격자 발표 일정에 대한 정보를 제공하지 않기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 공식 웹사이트를 참조하라는 내용이 포함되어 있지만, 원본 텍스트의 핵심 주제인 충원합격자 발표 일정과는 관련이 적습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 주제를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 중요한 정보를 누락하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 적절한 정보를 제공하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.4176285626014192</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>2024학년도 입시 관련 자세한 정보는 공식 웹사이트를 참조해주세요. "https://ipsi.deu.ac.kr/main.do" 해당 링크에서 최신 정보와 일정을 확인하실 수 있습니다. 추가합격자 발표 일정 등 입시 일정이 공개될 때까지 정확한 날짜는 알려드리지 못합니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가모집에 대한 명시적인 내용을 부정확하게 전달하고 있습니다. 원문에서는 추가모집이 이루어진다고 명확히 언급하고 있지만, 생성된 응답은 그러한 정보를 제공하지 않고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 원문에서 언급된 추가모집의 내용을 부정확하게 해석하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 추가모집에 대한 질문에 대한 답변을 시도하고 있지만, 원문에서 제공하는 정보와는 관련성이 떨어집니다. 원문에서 명시된 내용을 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 관련성이 떨어져서 내용이 흐릿하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원문과의 연결이 부족하여 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 일치하지 않으며, 추가모집에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 원문과의 일치성, 정확성, 관련성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문과의 맥락에서 벗어나 있어 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원문과의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.3848430191767095</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 추가모집에 대한 명시적인 내용이 없습니다. 추가모집 관련 자세한 사항은 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시기 바랍니다. 해당 사이트에서 최신 정보와 공지사항을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 모집단위 및 모집인원에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 "미래융합대학 라이프융합학부"에서 11명을 모집한다고 명시되어 있지만, 생성된 응답에서는 23명으로 잘못 기재되어 있습니다. 또한, 부동산자산경영학부에 대한 모집 인원도 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 모집단위와 모집인원에 대한 정보가 서로 다르며, 지원자격에 대한 설명도 원본과 다르게 기술되어 있습니다. 이러한 불일치는 응답의 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있으나, 일부 내용이 원본 텍스트와 다르기 때문에 완전한 관련성을 가지지 않습니다. 그러나 전반적으로 주제와 관련된 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 내용이 원본과 다르기 때문에 정보의 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 그러나 원본과의 불일치로 인해 일부 부분에서 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히 모집인원과 모집단위에 대한 정보가 잘못되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 일부 차별화된 정보를 제공하지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다. 그러나 여전히 관련성과 유창성은 어느 정도 유지되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트와의 불일치로 인해 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 정보의 정확성이 떨어지기 때문에 일부 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.697224088290859</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형은 다양한 경력과 학력을 가진 성인을 대상으로 하는 입학 전형입니다. 주요 내용은 다음과 같습니다:
+1. **모집단위 및 모집인원**:
+   - 미래융합대학 인문사회 계열 라이프융합학부 (신설)에서 11명을 모집합니다.
+   - 미래융합대학 인문사회 계열 라이프융합학부 (신설)에서 23명을 모집합니다.
+   - 부동산자산경영학부(부동산투자학, 부동산개발경영학)에서 7명을 모집합니다.
+   - 부동산자산경영학부(부동산투자학, 부동산개발경영학)에서 17명을 모집합니다.
+2. **지원자격**:
+   - 산업체 적용범위: 국가·지방자치단체 및 공공단체 소속 직원, 상시근로자 5인 이상 사업체, 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함).
+   - 재직기간: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상.
+3. **전형요소 반영비율**:
+   - 서류: 70%
+   - 면접: 30%
+4. **제출서류**:
+   - 고교 학교생활기록부 (온라인 제공 동의자는 제외)
+   - 검정고시 합격증서 사본 또는 합격증명서
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업(예정)증명서, 성적증명서
+5. **면접평가**:
+   - 평가영역: 학업역량, 전공적합성
+   - 평가요소: 문제해결능력, 진로정보 탐색능력
+   - 평가기준: 지원동기 및 학업계획, 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+6. **동점자 처리기준**:
+   - 순위 1: 면접고사 성적 상위자
+   - 순위 2: 서류평가 공동체역량 영역 성적 상위자
+   - 순위 3: 서류평가 전공적합성 영역 성적 상위자
+이러한 내용을 참고하시면 평생학습자전형에 대한 이해가 향상될 것입니다. 더 궁금하신 점이 있으시다면 추가로 질문해주세요.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 구체적인 내용을 잘못 전달하고 있습니다. 원문에서는 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"라고 명시되어 있지만, 생성된 응답은 다양한 고교 유형에 대한 지원 가능성을 나열하고 있어 원문의 핵심 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 특정한 지원자격을 제시하고 있지만, 생성된 응답은 여러 고교 유형을 나열하며 원문의 내용을 벗어나고 있습니다. 이로 인해 두 텍스트 간의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 원문의 핵심 정보인 지원자격에 대한 명확한 설명이 부족합니다. 다양한 고교 유형에 대한 언급은 관련성이 있지만, 원문에서 요구하는 정보와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 중복되거나 불필요하게 길어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 항목으로 나뉘어 있지만, 각 항목 간의 연결성이 부족하여 전체적으로 일관된 흐름이 떨어집니다. 원문과의 연결이 약해져 coherence가 낮아졌습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시한 지원자격을 정확히 반영하지 않고 있으며, 잘못된 정보를 포함하고 있습니다. 원문에서 요구하는 정보와는 다른 내용을 포함하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 특히 사실성, 일관성, 정확성에서 큰 문제가 있습니다. 전반적으로 원문과의 관계가 약해 다차원적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 다소 일치하지만, 원문에서 요구하는 특정한 지원자격에 대한 정보가 부족하여 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 문장도 명확하게 작성되어 있습니다. 그러나 원문과의 관계가 약해 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6223744064387563</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 일반고, 자율고는 지원이 가능합니다.
+2. 특수목적고의 과학고, 국제고, 외국어고는 지원이 가능합니다.
+3. 특수목적고의 예술고, 체육고는 지원이 가능합니다.
+4. 특수목적고의 마이스터고는 지원이 가능합니다.
+5. 특성화고의 특성(직업)은 지원이 가능합니다.
+6. 특성화고의 특성(대안)은 지원이 가능합니다.
+7. 영재학교는 지원이 가능합니다.
+8. 기타의 학력인정고는 지원이 가능합니다.
+9. 기타의 방송통신고는 지원이 가능합니다.
+10. 기타의 각종학교는 지원이 가능합니다.
+11. 검정고시도 지원이 가능합니다.
+12. 외국고는 지원이 가능합니다.
+위와 같이 평생학습자전형에서는 다양한 고교 유형에서 지원이 가능하며, 특수목적고나 특성화고에서도 특정 학과 또는 교육과정을 이수한 경우에 한해 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사에 대한 구체적인 정보를 제공하지만, 원본 텍스트에서 언급된 대기실 및 입실시간에 대한 정보는 포함되어 있지 않으며, 실기고사에 대한 내용이 원본과 관련이 없기 때문에 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 대기실 및 입실시간에 대한 정보만을 제공하는 반면, 생성된 응답은 특정 학과의 실기종목에 대한 정보를 포함하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용인 대기실 및 입실시간과는 관련이 적습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 다소 떨어집니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 원본의 핵심 정보를 누락하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관계가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미적 적절성 점수는 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 작성되어 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.3930030873855212</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 레저스포츠학과와 태권도학과에서 실시됩니다.
+1. **레저스포츠학과**에서는 제자리 멀리뛰기 또는 Z-런 중 하나를 선택하여 실시합니다.
+2. **태권도학과**에서는 품새, 시범, 겨루기 중 하나를 선택하여 실시합니다.
+각 학과별로 실기종목이 다르므로 해당 학과의 공지사항을 확인하시거나, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 실기고사 날짜를 잘못 기재하고 있습니다. 원본 텍스트는 대기실 및 입실시간을 2024년 1월 12일(금) 14:00 이후에 확인할 수 있다고 명시하고 있지만, 생성된 응답에서는 실기고사가 2024년 1월 17일(수)라고 잘못 언급하고 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 실기고사 날짜에 대한 정보가 상충되며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 실기고사와 관련된 정보를 제공하고 있으며, 원본 텍스트의 주요 내용과 관련이 있습니다. 그러나 잘못된 날짜로 인해 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장을 가지고 있지만, 잘못된 날짜로 인해 전체적인 일관성이 떨어집니다. 따라서 응답의 일관성이 약간 부족합니다.
+6. Accuracy Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 실기고사 날짜에 대한 정보가 잘못되어 있어 정확성이 낮습니다. 원본 텍스트의 사실과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5):
+   - 점수: 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성과 일관성에서 낮은 점수를 받았기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 날짜로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.6901277152164302</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 2024년 1월 17일(수)에 있습니다. 이 날은 대기실 및 입실시간 안내를 받을 수 있는 시점이며, 이 정보는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+따라서 체육학과의 실기고사는 2024년 1월 17일(수)에 대기실로 가셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 사실과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있어 일관성이 없습니다. 원본에서는 전화 통보가 이루어지지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 통보가 이루어진다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 전화 통보에 대한 잘못된 정보가 주제를 흐리고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 잘 구성되어 있지만, 잘못된 정보로 인해 논리적 일관성이 떨어집니다. 원본과의 불일치로 인해 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 내용을 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6554305956922689</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보 방식으로 안내를 드립니다. 따라서, 합격자 발표 이후에 개별적으로 전화를 받으실 예정입니다.
+만약 자세한 내용을 확인하고 싶으시다면, 입학안내 홈페이지를 참조해 보세요: https://ipsi. deu. ac. kr/main. do
+또한, 관련 정보는 공고일자 2024년 2월 15일 오후 7시 이후에 입학안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 잘 전달하고 있습니다. 그러나 "대학 입학 안내 홈페이지에서 최신 정보를 확인하시기 바랍니다"라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되며, 수시모집 결과에 대한 정보가 없다는 점을 강조하고 있습니다. 그러나 추가된 정보가 원본과 일치하지 않기 때문에 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수시모집 결과에 대한 정보가 없다는 점을 명확히 하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "deu"와 "ac" 사이의 점이 불필요하게 삽입되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따릅니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 포함되어 있지 않기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완전한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 그러나 약간의 불필요한 정보가 포함되어 있어 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.8331378267778526</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 문서 내에서는 언급되어 있지 않습니다. 관련 정보를 찾기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보시거나, 대학 입학 안내 홈페이지에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도부터 수능에 응시하지 않은 학생들도 정시모집에 지원할 수 있다고 주장하고 있지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 상반된 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있으며, 정시모집 지원 자격에 대한 내용이 서로 모순됩니다. 원문은 수능 응시가 필수라고 명시하고 있는데, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서의 질문에 대한 정확한 답변이 아닌 잘못된 정보가 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 품질은 낮아집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원문과의 내용적 불일치로 인해 전체적인 논리적 흐름이 약해집니다. 원문과의 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 최하점입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5796661904121279</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024학년도부터 정시모집에서 수능 응시를 하지 않은 학생들도 지원이 가능해졌습니다. 특히, 전형명 및 지원자격의 변경사항을 보면, 학생부종합(성인학습자(정원내)전형)에서는 만 30세 이상이고 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자를 대상으로 하고 있습니다. 따라서 수능 응시를 하지 않은 성인들도 지원이 가능해졌습니다.
+더 자세한 내용은 https://ipsi. deu. ac. kr/main. do 웹사이트에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 언급하고 있지만, 정시 모집에 대한 일반적인 요건과 특별전형에 대한 정보가 혼합되어 있어 일부 정보가 정확하지 않거나 불필요하게 복잡하게 설명되고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 정시 모집에 대한 일반적인 요건을 강조하면서 원본의 내용을 다소 왜곡하고 있습니다. 특히, 정시 지원이 어려울 것이라는 언급은 원본의 내용과 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보가 포함되어 있어 다소 주제를 벗어난 느낌이 있습니다. 그러나 여전히 관련된 정보가 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 정보가 중복되거나 불필요하게 복잡하게 설명되어 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 정시 지원에 대한 요건에 대한 설명이 원본과 일치하지 않으며, 잘못된 해석이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 정보가 추가되어 있어 다소 혼란스러울 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 구성되어 있어 명확성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.6739097541099349</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>10년 전에 고등학교를 졸업했다면, 일반적으로 정시 모집의 경우 학력 요건을 충족해야 합니다. 그러나 나군에서 농어촌학생전형이나 성인학습자전형, 재직자전형 등 특별전형이 있습니다.
+특히, 성인학습자전형과 재직자전형은 10년 전에 고등학교를 졸업한 경우에도 지원 가능합니다. 이들 전형의 지원 자격 중 하나는 '초·중·고등학교 전 교육과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자' 또는 '산업체에 재직한 경력이 있는 자'입니다.
+따라서, 10년 전에 고등학교를 졸업했다면 성인학습자전형이나 재직자전형을 통해 지원 가능할 수 있습니다. 그러나 정시 모집의 경우 일반적으로 고등학교 졸업 후 3년 이내에 대입 준비를 하는 것이 요구되므로, 정시로 지원하기는 어려울 것으로 보입니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하거나, 나군 입학처와 직접 문의하는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 비고 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 주제를 완벽하게 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.7981809462444276</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정은 다음과 같습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입니다.
+   - 비고는 입학안내 홈페이지 공고입니다.
+2. **원서접수(인터넷)**: 
+   - 일정은 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지입니다.
+   - 비고는 [http://ipsi. deu. ac. kr] 또는 [http://www. uwayapply. com] 입니다.
+3. **서류 제출**:
+   - 일정은 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착입니다.
+   - 비고는 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송입니다.
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 일정은 2024년 1월 16일 (화) 입니다.
+   - 비고는 대기실 및 입실시간 안내 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회입니다.
+5. **&lt;나&gt;군 실기고사**:
+   - 일정은 2024년 1월 17일 (수) 입니다.
+   - 비고는 대기실 및 입실시간 안내 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회입니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표는 2024년 2월 2일 (금) 14:00이며, 비고는 *발표: 홈페이지에서 개별 조회 *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 *등록장소: 학교 지정은행(등록금 고지서에 기재)입니다.
+7. **합격자 등록**:
+   - 일정은 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행마감시간 내입니다.
+   - 비고는 *발표: 홈페이지에서 개별 조회 *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 *등록장소: 학교 지정은행(등록금 고지서에 기재)입니다.
+8. **충원 합격자 발표 및 등록**:
+   - 1차 충원 합격자는 2024년 2월 14일 (수) 09:00이며, 비고는 *발표: 홈페이지에서 개별 조회 *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 *등록장소: 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 1차 충원 합격자 등록은 2024년 2월 14일 (수) 09:00 ~ 16:00이며, 비고는 동일합니다.
+9. **2차 충원 합격자 발표 및 등록**:
+   - 일정은 2024년 2월 15일 (목) 09:00이며, 비고는 동일합니다.
+   - 2차 충원 합격자 등록은 2024년 2월 15일 (목) 09:00 ~ 16:00이며, 비고는 동일합니다.
+10. **3차 충원 합격자 발표 및 등록**:
+    - 일정은 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지이며, 비고는 동일합니다.
+    - 3차 충원 합격자 등록은 개별 전화 통보 시 안내입니다.
+이상이 2024년 동의대학교 정시 모집일정입니다. 자세한 내용은 입학안내 홈페이지를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.848084384644865</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정은 다음과 같습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입니다.
+   - 비고는 입학 안내 홈페이지 공고입니다.
+2. **원서접수(인터넷)**: 
+   - 일정은 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일은 18시까지 입니다.
+   - 비고는 [http://ipsi. deu. ac. kr] 또는 [http://www. uwayapply. com]입니다.
+3. **서류 제출**:
+   - 일정은 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일은 17시까지 도착합니다.
+   - 비고는 서류 제출 대상 (Ⅳ. 전형별 세부 안내 참조)에 따라 제출 방법이 접수 사이트에서 우편 발송용 표지를 출력하여 부착 후 제출하거나 우편으로 보내는 것입니다.
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과의 일정은 2024년 1월 16일 (화)입니다.
+   - 비고는 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학 안내 홈페이지에서 조회 가능합니다.
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과, 체육학과의 일정은 2024년 1월 17일 (수)입니다.
+   - 비고는 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학 안내 홈페이지에서 조회 가능합니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표 일정은 2024년 2월 2일 (금) 14:00입니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+7. **합격자 등록**:
+   - 일정은 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행 마감 시간 내입니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+8. **충원 합격자 발표 및 등록**:
+   - 1차 충원 합격자 발표 일정은 2024년 2월 14일 (수) 9:00입니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 1차 충원 합격자 등록 일정은 2024년 2월 14일 (수) 9:00 ~ 16:00입니다.
+   - 2차 충원 합격자 발표 일정은 2024년 2월 15일 (목) 9:00입니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 2차 충원 합격자 등록 일정은 2024년 2월 15일 (목) 9:00 ~ 16:00입니다.
+   - 3차 충원 합격자 발표 일정은 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지입니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 3차 충원 합격자 등록 일정은 개별 전화 통보 시 안내입니다.
+이상이 동의대학교 정시 모집 일정입니다. 자세한 내용은 입학 안내 홈페이지를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 미응시자는 지원이 불가능하다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 미응시자가 지원할 수 없다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.8351386233700464</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 없습니다. 모든 전형에서 수능 점수 반영이 필요하며, 수능 미응시자는 지원이 불가능합니다. 자세한 내용은 https://ipsi. deu. ac. kr/main. do를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격 차수에 대한 구체적인 정보가 없다는 점을 언급하고 있으며, 이는 원본 텍스트와 일치합니다. 그러나 "36명까지 이루어졌습니다"라는 구체적인 사실이 누락되어 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 충원 합격 인원에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 원본 텍스트의 중요한 사실이 포함되지 않았습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 충원 합격에 대한 질문에 적절하게 답변하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있지만, 구체적인 숫자(36명)가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있지만, 일부 중요한 정보가 누락되어 있어 전반적인 품질이 약간 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 구체적인 사실이 누락되어 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 원본 텍스트의 중요한 정보가 누락되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.6550526753508311</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 전년도 전자공학과의 충원 합격이 이루어진 차수에 대한 구체적인 내용이 없습니다. 만약 더 자세한 정보를 원하신다면, 해당 대학의 입학 안내 홈페이지(https://ipsi. deu. ac. kr/main. do)를 참조해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 전화번호가 제공되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트에 명시된 전화번호를 무시하고 잘못된 주장을 하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주요 정보인 전화번호를 무시하고 있으며, 관련성이 낮습니다. 그러나 웹사이트 링크는 언급하고 있어 일부 관련성은 존재합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 전달하고 있으며, 전화번호에 대한 정보가 없다고 주장하는 것은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 표현을 사용하고 있지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6998764116112646</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 연락처 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 "등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다"는 중요한 사실을 누락하고 있습니다. 또한, 홈페이지에서 결과를 확인할 수 있다는 내용은 원본 텍스트와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 전화 통화가 되지 않을 경우의 처리 방식에 대한 설명이 상충합니다. 원본 텍스트는 등록 포기자로 처리된다고 명시하고 있지만, 생성된 응답은 홈페이지에서 확인할 수 있다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 등록 포기 처리에 대한 언급이 부족하여 관련성이 떨어집니다. 그러나 홈페이지와 고지서에 대한 정보는 관련성이 있지만, 주제에서 벗어난 부분도 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 정보가 분산되어 있어 논리적인 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 전화 통화가 되지 않을 경우의 처리 방식에 대한 설명이 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 일부 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있습니다. 특히, 전화 통화가 되지 않을 경우의 처리 방식에 대한 설명이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 일관성이 부족하여 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.4889137880023629</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시 전화 통화가 되지 않는 경우, 해당 합격자는 홈페이지에서 개별 조회를 통해 결과를 확인할 수 있습니다. 또한 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행(등록금 고지서에 기재된 곳)으로 처리됩니다.
+따라서 전화 통화가 되지 않더라도 홈페이지와 고지서를 통해 필요한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으나, 일부 세부사항이 누락되거나 다르게 표현되어 있어 완전한 정확성을 보장하지는 않습니다. 예를 들어, "고교 졸업증명서"와 같은 추가 서류가 언급되었지만, 원본 텍스트에서는 그러한 내용이 명시되어 있지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 추가 서류에 대한 언급이 원본에 없는 내용이므로 일관성이 떨어집니다. 또한, "6년 과정"과 "12년 과정"의 구분이 명확하지 않아 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 잘 전달하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 구조가 다소 복잡하여 약간의 유창성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 추가 서류에 대한 언급이 원본과 다르게 표현되어 있어 약간의 일관성 문제가 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일치하지만, 일부 세부사항이 누락되거나 다르게 표현되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성 등 여러 차원에서 긍정적인 평가를 받을 수 있습니다. 그러나 일부 세부사항에서의 차이가 아쉬운 점입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 추가 정보가 원본에 없는 내용이므로 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7410221649144011</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다.
+### 유형별 구분
+1. **6년 과정**
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+2. **12년 과정**
+   - 지원자 본인의 주민등록초본 1부
+   - 초등학교 학교생활기록부 1부
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+### 추가 제출서류
+- **6년 과정**
+  - 고교 졸업증명서, 지원자 본인, 부, 모 초본 각 1부 (총 3부)
+- **12년 과정**
+  - 고교 졸업증명서, 지원자 본인 초본 1부
+이러한 서류들을 정확하게 준비하여 제출해야 합니다. 필요한 경우 추가 정보를 확인하기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 제출해야 할 서류 목록을 대부분 정확하게 나열하고 있지만, "이 외에 추가로 제출해야 할 서류는 없습니다"라는 부분은 사실과 다릅니다. 최종등록자의 경우 추가 서류가 필요하므로 이 부분에서 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 추가 서류에 대한 언급이 누락되어 있어 일관성이 떨어집니다. 특히, 최종등록자에 대한 서류가 언급되지 않아 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있지만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 나열되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답의 정확성은 서류 목록에 대한 정보는 정확하지만, 최종등록자에 대한 추가 서류의 필요성을 누락하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으나, 일부 정보의 누락으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 정보의 누락으로 인해 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 정보의 누락으로 인해 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8276536901965791</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형에서 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자) 
+이 외에 추가로 제출해야 할 서류는 없습니다. 다만, 중·고등학교 재학 시 부모 모두 농어촌 지역에서 거주한 자는 '6년과정' 서류를 제출할 수 있다는 점을 참고하시기 바랍니다.
+위와 같은 서류들을 정확하게 준비하여 제출하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 기회균등 전형이 신설되었다고 주장하지만, 원본 텍스트에서는 해당 전형이 존재하지 않는다고 명시하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충하는 내용을 담고 있습니다. 원본에서는 기회균등 전형이 존재하지 않는다고 했으나, 생성된 응답에서는 신설되었다고 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 기회균등 전형에 대한 질문에 답하고 있으나, 잘못된 정보를 제공하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 신뢰성은 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 연결되어 있으며, 문장 간의 흐름이 자연스럽습니다. 그러나 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.6601868977798118</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집에서는 저소득 기회균등 전형이 신설되었습니다. 이전의 정보는 제공되지 않았으므로, 정확한 내용은 "https://ipsi.deu.ac.kr/main.do"를 참조해주세요. 해당 페이지에서 최신 정보와 자세한 사항을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급의 절사 여부에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있지만, 생성된 응답에서는 2.5 등급이 절사되지 않고 그대로 반영된다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 2.5 등급이 절사되지 않는다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으나, 원문에서 언급된 정보와는 다르게 잘못된 정보를 포함하고 있습니다. 따라서 관련성은 있지만, 잘못된 정보로 인해 그 관련성이 약해집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상반되는 내용을 포함하고 있어 정확성이 매우 낮습니다. 원문에서 명시된 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서 제공된 정보와는 다른 주장을 하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6759606900845077</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급은 절사되지 않고 그대로 반영됩니다. 즉, 사탐(사회탐구)의 경우 2.5 등급이 나온다면 그대로 2.5 등급으로 처리합니다. 수능 최저등급에서 사탐 2 과목 평균산출을 할 때도 절사 대상은 아닙니다.
+만약 더 자세한 정보가 필요하시거나 다른 질문이 있으시면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "정시 충원 합격자 발표는 총 4차로 이루어집니다."라고 언급하고 있지만, 원본 텍스트에서는 3차까지 발표가 이루어진다고 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 이로 인해 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공하고 있습니다. 원본 텍스트는 3차까지 발표가 이루어진다고 명시하고 있지만, 생성된 응답은 4차로 이루어진다고 하여 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 발표 일정에 대한 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있는 부분이 있어 4점을 부여합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 가지지 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 4차 발표가 있다고 언급하고 있어 정확성이 떨어집니다. 이로 인해 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성, 유창성, 일관성에서 어느 정도의 점수를 받지만, 사실성과 정확성에서 큰 결함이 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지 않지만, 발표 일정에 대한 정보는 적절하게 전달되고 있습니다. 그러나 4차 발표에 대한 언급이 부적절하여 3점을 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 발표 일정이 명확하게 제시되어 있습니다. 다만, 원본 텍스트와의 불일치로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8394736994727297</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다.
+1. **1차 발표**: 2024년 2월 14일(수) 09:00에 이루어집니다.
+2. **2차 발표**: 2024년 2월 15일(목) 09:00에 이루어집니다.
+3. **3차 이후 발표**: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 개별 전화 통보로 이루어집니다.
+이와 같이 총 4차에 걸쳐 정시 충원 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적과 관련된 정보에서 일부 정확한 내용을 포함하고 있지만, 모집 인원과 지원 인원에 대한 정보는 원본 텍스트에 명시되어 있지 않으며, 평균 수능 성적과 표준 편차에 대한 정보도 원본 텍스트와 일치하지 않습니다. 따라서 일부 사실이 정확하지 않거나 추가된 정보가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가된 정보(모집 인원, 지원 인원 등)로 인해 일관성이 떨어집니다. 원본 텍스트의 주요 내용과는 다소 다른 방향으로 전개되고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 정보가 많아 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다. 그러나 여전히 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해져서 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적에 대한 정보에서 일부 정확성을 가지고 있지만, 원본 텍스트의 평균 점수와 비교할 때 정확하지 않은 정보가 포함되어 있습니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부는 잘 수행되었지만 다른 부분에서는 부족함이 있습니다. 전반적으로 균형이 맞지 않는 느낌이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보로 인해 원본의 의도를 완전히 반영하지는 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 정보가 추가되어 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5733003248915912</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024학년도에 e비즈니스학과의 모집인원은 10명이며, 지원 인원은 28명입니다. 이 경우 경쟁률은 약 2.8명당 1명으로 매우 높습니다. 수능 성적 평균은 4.78이고, 표준 편차는 0.76입니다.
+수능 성적이 4.6인 경우, 평균보다 약간 낮지만, 표준 편차를 고려하면 상대적으로 좋은 성적입니다. 그러나 정시 전형으로 추가 합격 가능 여부는 여러 요소에 따라 결정됩니다:
+1. **수능 성적**: 4.6은 평균이 4.78이고 표준 편차가 0.76인 경우, 약 0.3점 아래입니다.
+2. **서류평가 점수**: 공동체역량, 학업역량, 전공적합성 등에서의 성적이 중요합니다.
+3. **면접 평가**: 면접에서는 지원동기, 학업계획, 학업역량, 전공적합성 등을 평가받습니다.
+따라서 4.6이라는 수능 성적만으로는 확실한 추가 합격을 보장할 수 없습니다. 그러나 적절한 서류평가와 면접 준비를 통해 추가 합격 가능성은 높일 수 있습니다. 자세한 정보는 해당 대학의 입시 홈페이지(https://ipsi. deu. ac. kr/main. do)에서 확인하시거나, 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률, 충원 합격자 수, 지원 인원 등의 정보를 포함하고 있지만, 영어 등급 평균이 3.00이라는 정보는 원본 텍스트의 영어 등급 평균 3.66과 일치하지 않습니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 영어 등급 평균에 대한 정보가 다르기 때문에 일관성이 떨어집니다. 경쟁률과 충원 합격자 수에 대한 정보는 일관되지만, 전체적으로는 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, e비즈니스학과의 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 일부 정보가 중복되거나 불필요하게 길어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 영어 등급 평균과 관련된 정보가 부정확하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 사실성과 정확성에서 일부 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 의미를 전달하고 있습니다. 그러나 일부 정보의 부정확성으로 인해 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6573263653859859</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률은 2.20이며, 충원 합격자는 6명입니다. 지원 인원이 11명으로 적당히 낮은 경쟁률을 보이고 있습니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.80이며, 이는 정시 등급 5.3에 해당하는 점수가 될 것입니다. 이 점수는 평균보다 약간 낮지만, 경쟁률이 낮아서 최초 합격 가능성은 있습니다.
+영어 등급의 평균은 3.00이며, 정시 등급 5.3에 해당하는 영어 점수도 이 수준을 유지할 것입니다. 따라서, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합과 영어 등급이 평균치를 유지한다면 최초 합격 가능성은 있습니다.
+하지만, 정확한 최초 합격 가능성을 확신하기 위해서는 동의대학교 e비즈니스학과의 최종 합격자 명단을 확인하거나, 입학처에 문의하는 것이 가장 좋습니다. 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 공식 웹사이트에서 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 38번의 합격 가능성에 대한 정보를 제공하고 있지만, 원본 텍스트에서 명시된 "충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다"는 사실을 명확히 반영하지 않고 있습니다. 따라서, 정보의 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 예비 38번의 합격 가능성에 대한 명확한 결론을 제시하지 않고 여러 요소를 고려해야 한다고 언급하고 있습니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 구체적인 데이터에 대한 언급이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 질문에 대한 답변을 체계적으로 제시하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 충분히 반영하지 않으며, 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않습니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 사실을 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변을 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 사실과의 연결이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.5872689679829716</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 예비합격 여부를 판단하기 어렵습니다. 전형일정과 모집단위, 지원자격 등 다양한 요소가 고려되어 합격 여부가 결정됩니다.
+특히 e비즈니스학전공에 대한 모집인원이나 지원자의 경쟁률 등을 확인해야 합니다. 또한 서류평가와 면접 등의 평가 항목에서의 성적도 중요한 요소입니다.
+이정도면 예비합격 가능할까요?라는 질문에 답변드리자면:
+1. **모집인원과 지원자 수**: e비즈니스학전공의 모집인원을 확인해야 합니다.
+2. **경쟁률**: 현재 지원자의 경쟁률을 파악해야 합니다.
+3. **서류평가와 면접 성적**: 서류평가 영역과 면접에서의 성적이 중요합니다.
+따라서, 정확한 답변을 위해서는 e비즈니스학전공에 대한 모집인원, 지원자의 경쟁률, 서류평가와 면접 등 평가 항목에서의 성적 등을 확인해보시기 바랍니다. 더 자세한 정보를 얻으려면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 경쟁률에 대한 정보를 제공하고 있지만, 평균 성적이 3.82 이상이라는 부분은 출처 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 출처 텍스트의 정보와 일부 일치하지만, 평균 성적에 대한 언급이 추가되어 있어 일관성이 떨어질 수 있습니다. 경쟁률에 대한 정보는 출처에 없으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 합격 가능성에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 평균 성적에 대한 추가 정보가 다소 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분 정확하지만, 평균 성적에 대한 정보가 출처에 명시되어 있지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 보이지만, 일부 정보의 정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 출처 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.5956984704282732</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44이라는 점수를 가지고 동의대학교 간호학과에 합격할 확률은 매우 낮습니다. 동의대학교 간호학과의 경쟁률이 6.59이며, 지원 인원이 많고 충원 합격자 수가 제한적입니다.
+간호학과의 경우 일반적으로 높은 경쟁률을 보여주며, 평균적인 성적이 3.82 이상인 것으로 나타났습니다. 따라서 3.44이라는 점수는 충분히 합격 가능성에 부족합니다.
+만약 다른 대학이나 전형을 고려해야 한다면, 다음과 같은 방법들을 검토해볼 수 있습니다:
+1. **다른 대학의 간호학과**를 찾아보세요.
+2. **특성화 전형** 또는 **학생부 종합전형**을 이용해 보세요.
+3. **재수**를 고려해 볼 수도 있습니다.
+추가적으로, 동의대학교 간호학과의 합격 기준 점수와 경쟁률 등을 확인하여 더 정확한 판단을 내릴 수 있을 것입니다. 필요하다면, 해당 대학의 입학처에 문의하거나, 전문적인 상담을 받는 것도 좋은 방법입니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 링크에서 동의대학교의 공식 입학정보를 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 2.52라는 성적이 동의대학교 간호학과에 대한 충분한 경쟁력을 갖추지 못한다고 주장하고 있습니다. 그러나 원본 텍스트에서는 2.52가 평균 등급보다 높은 성적이라고 명시하고 있어, 이 부분에서 사실과 다릅니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 주장을 하고 있습니다. 원본에서는 2.52가 합격 가능성이 높다고 언급했지만, 생성된 응답은 반대로 충분한 경쟁력이 없다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 주제와 관련된 여러 요인들을 고려하고 있지만, 원본 텍스트의 핵심 내용인 2.52 성적의 합격 가능성에 대한 직접적인 언급이 부족합니다. 그러나 전반적으로 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인에 대한 설명이 명확하게 이어집니다. 그러나 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반된 주장을 하고 있어 정확성이 떨어집니다. 2.52 성적이 평균보다 높다는 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 설명: 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6208778097300069</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 성적은 동의대학교 간호학과에 대한 충분한 경쟁력을 갖추지 못하는 것으로 판단됩니다. 동의대학교 간호학과의 경우, 평균적인 지원자들의 수능 점수와 영어 등급이 상당히 높습니다.
+특히, 동의대학교 간호학과는 매우 인기 있는 학과로, 경쟁률이 매우 높습니다. 따라서, 2.52라는 성적은 충분한 경쟁력을 갖추지 못할 가능성이 큽니다. 하지만, 최종합격 가능성은 여러 요인에 따라 달라질 수 있으므로, 다음과 같은 점들을 고려해 보시기 바랍니다:
+1. **영어 등급**: 동의대학교 간호학과는 영어 등급이 높게 요구됩니다. 2.52라는 성적만으로 충분한 영어 능력을 갖추고 있는지 확인해야 합니다.
+2. **서류평가 결과**: 서류평가에서 좋은 점수를 받았다면, 이는 합격 가능성에 긍정적인 영향을 미칠 수 있습니다.
+3. **면접 성적**: 면접에서도 좋은 성적을 받았다면, 이는 합격 가능성에 긍정적인 영향을 미칠 수 있습니다.
+4. **추천서 및 자기소개서 등 추가 서류**: 추천서와 자기소개서 등의 서류가 우수하다면, 이는 합격 가능성에 긍정적인 영향을 미칠 수 있습니다.
+따라서, 2.52라는 성적만으로 동의대학교 간호학과에 최종합격하기는 어려울 것으로 보입니다. 하지만, 다른 요인들이 좋은 결과를 가져올 수 있으므로, 추가 서류 준비와 면접 준비 등을 철저히 해보시는 것이 좋습니다.
+추가로 필요한 정보나 자세한 조언이 필요하시다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참고해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 3.7의 점수가 간호학과에 지원하는 데 충분할 수 있다고 언급하지만, 원본 텍스트에서는 3.7이 평균 등급보다 낮아 합격 가능성이 낮다고 명시하고 있습니다. 이로 인해 사실관계가 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본에서는 3.7이 낮은 성적이라고 했으나, 생성된 응답에서는 충분한 점수일 수 있다고 주장합니다. 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 정보를 제공하며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 일부 세부사항은 원본 텍스트와 직접적으로 관련이 없을 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 특히, 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 3.7의 점수가 낮다고 한 원본의 주장을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않으며, 사실관계와 일관성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 복잡하게 표현되어 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6683115536364227</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 평균점수는 간호학과에 지원하는 데 충분한 점수일 수 있습니다. 그러나 간호학과의 경우, 학생부 교과성적뿐만 아니라 실기 성적도 중요하게 고려되기 때문에, 정확한 합격 가능성은 모집인원, 전형요소 반영비율, 동점자 처리 기준 등을 고려해야 합니다.
+현재 제공된 정보를 바탕으로 간호학과에 대한 몇 가지 주요 사항을 확인해 보겠습니다:
+1. **모집인원**: 22명
+2. **전형요소 반영비율**:
+   - 수능: 100%
+   - 실기/실적: 없음 (즉, 수능 절대평가)
+3. **동점자 처리 기준**: 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수 상위자
+이 정보를 바탕으로, 3.7의 평균점수가 충분히 높은 점수일 것으로 보입니다. 그러나 수능 국어, 수학, 영어 등 각 과목별 성적도 중요하게 고려됩니다.
+따라서, 정확한 합격 가능성 판단을 위해서는:
+- **수능 절대평가** 결과를 확인해야 합니다.
+- **동점자 처리 기준**에 따라 수능 국어, 수학, 영어 등 각 과목별 성적도 중요하게 고려됩니다.
+따라서, 3.7의 평균점수가 간호학과에 지원하는 데 충분한 점수일 것으로 보이지만, 최종 합격 가능성은 수능 절대평가 결과와 동점자 처리 기준을 참조하여 판단해야 합니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문해 보시거나, 대학 입학처에 문의하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 정시 모집요강에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 등급과 비교하여 합격 가능성에 대한 명확한 결론을 제시하지 않고 있습니다. 따라서 일부 사실이 누락되었거나 정확하지 않을 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 정시 성적이 2.58이라는 점에서 국어와 수학 점수가 충족하지 못한다고 언급하면서도 영어 점수만 충족하면 가능하다고 하여 모순이 발생합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 모집요강에 대한 정보를 제공하며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 내용인 합격 가능성에 대한 직접적인 언급이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 결론 부분에서의 모순으로 인해 완전한 일관성을 유지하지 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 정시 모집요강에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급과 비교하여 합격 가능성에 대한 정확한 정보를 제공하지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 누락되어 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 문장에서의 모순으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6204425101425043</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집요강을 확인해보겠습니다.
+1. **전형명**: 정시모집(일반학생전형)
+2. **모집단위**: 간호학과
+**정시 모집요강**:
+- **성적 산출방법**: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+- **영어 등급 점수**: 4등급이 123점, 5등급이 107점 등으로 변환됩니다.
+- **정시 성적 기준**:
+  - 국어: 100점 이상
+  - 수학: 90점 이상
+  - 영어: 4등급 이상 (123점 이상)
+  - 탐구: 50점 이상
+이에 따라, 정시 성적이 2.58이라면 국어와 수학 점수는 충족하지 못하였습니다. 하지만 간호학과의 경우 영어 등급 점수가 4등급 이상이므로, 영어 점수만 충족하면 가능합니다.
+**결론**: 정시 성적이 2.58이라면 국어와 수학 점수가 충족하지 못하였으므로, 간호학과에 정시 전형으로 합격하기는 어렵습니다. 하지만 영어 등급이 4등급 이상이라면 가능성이 있습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 홈페이지나 전화로 문의하시는 것이 좋겠습니다. https://ipsi. deu.ac.kr/main.do 링크에서 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 7번 학생이 게임공학과에 합격할 가능성이 낮다는 원문 내용을 반영하고 있지만, "정원 외 모집단위"라는 추가 정보는 원문에 명시되어 있지 않으며, 모집인원에 대한 불확실성을 강조하고 있습니다. 따라서 일부 사실과 일치하지만, 원문에서 제공된 정보와는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "정원 외 모집단위"라는 언급은 원문에 없는 정보로, 일관성이 떨어집니다. 또한, 예비 7번의 합격 가능성에 대한 확답을 어렵다고 하면서도 추가적인 정보 제공을 제안하는 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 예비 7번 학생의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 "정원 외 모집단위"와 같은 추가 정보가 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, "정원 외 모집단위"와 같은 추가 정보는 원문에 명시되어 있지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 유창성, 일관성에서 좋은 점수를 받지만, 사실성과 정확성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치도가 높지만, 추가된 정보가 원문과의 맥락에서 다소 어색하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.652329578133066</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>7번 학생님이 게임공학과에 지원하셨다면, 정원 외 모집단위인 것 같습니다. 하지만 현재 제공된 정보로는 게임공학과에 대한 구체적인 모집인원이나 모집단위가 명시되어 있지 않습니다.
+현재의 정보를 바탕으로 추론해보면:
+- 나군 학생부종합(조기취업형계약학과전형)에서 정원 외 모집단위로 게임공학과가 포함되어 있습니다.
+- 그러나 정확한 모집인원이나 지원 가능 여부는 명시되어 있지 않습니다.
+따라서, 7번 학생님이 붙을 수 있는지 확답하기 어렵습니다. 
+더 자세한 정보를 얻으려면, "https://ipsi. deu. ac. kr/main. do" 링크에 접속하여 공식 모집요강이나 입학 안내 홈페이지를 확인해보시는 것이 좋겠습니다.
+또한 학교 관계자에게 직접 문의하시거나, 입학처에 방문하여 상세히 설명을 듣는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 등급에 대한 정보와 경쟁률, 평균 수능 점수, 표준 편차 등을 포함하고 있지만, 이러한 세부 사항은 원본 텍스트에 명시되어 있지 않습니다. 따라서 일부 정보는 정확하지 않거나 원본 텍스트와 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 일치하는 부분이 있지만, 추가된 정보(경쟁률, 평균 수능 점수 등)는 원본 텍스트와 일관되지 않습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 등급과 합격 가능성에 대한 정보를 제공합니다. 그러나 일부 추가 정보는 원본 텍스트와 직접적인 관련이 없을 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답에 포함된 일부 정보는 원본 텍스트와 일치하지 않거나 정확하지 않을 수 있습니다. 예를 들어, 평균 수능 점수와 표준 편차는 원본 텍스트에 명시되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 다소 부족합니다. 따라서 전반적인 품질은 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 추가된 정보가 맥락을 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장은 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6958833862954992</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 4개 영역 등급은 충분한 경쟁력을 가지고 있습니다. 동의대학교 게임공학과의 경우, 게임공학과는 모집인원이 3명이고 지원 인원이 16명으로, 경쟁률이 5.33입니다. 평균 수능 점수는 424.05이며, 표준 편차가 8.27입니다.
+당신의 수능 등급은 평균보다 약간 낮지만, 표준 편차를 고려하면 여전히 경쟁력을 가지고 있습니다. 특히, 지원 인원이 모집인원을 크게 초과하고 있지 않기 때문에 추가 합격 가능성은 높습니다.
+하지만, 최종 합격 여부는 서류평가와 면접평가 결과에 따라 결정되므로, 다음과 같은 점들을 고려해보세요:
+1. **서류평가**: 지원동기 및 학업계획, 학업역량, 전공적합성 등 서류 평가 영역에서 좋은 성과를 거두는 것이 중요합니다.
+2. **면접평가**: 면접에서는 지원 동기에 대한 설명, 학업 역량에 대한 답변, 전공 적합성에 대한 이야기 등을 잘 준비해야 합니다.
+따라서, 수능 등급이 조금 낮더라도 서류와 면접에서 좋은 성과를 거두면 추가 합격 가능성은 높습니다. 자세한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 제공하고 있으며, 3.75의 성적이 평균보다 높다는 점을 언급하고 있습니다. 그러나 최초 등록자로 지원 가능성에 대한 명확한 결론을 내리지 않고 조건을 확인하라고 하여 다소 모호한 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 최초 등록자로 지원 가능성에 대한 결론을 내리지 않고 조건을 확인하라고 하여 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 핵심인 최초 등록자로서의 지원 가능성에 대해 직접적으로 다루고 있으며, 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 성적 기준에 대한 정보도 정확하게 전달하고 있습니다. 다만, 최초 등록자로서의 지원 가능성에 대한 명확한 정보가 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현에서 더 명확한 의미 전달이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장에서 더 간결한 표현이 필요할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6951678313130814</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과의 정시 모집군에서 성적 3.75을 가진 학생이 최초 등록자로 지원 가능한지 확인하기 위해서는 해당 학과와 전형의 세부 조건을 살펴봐야 합니다.
+현재 제공된 정보만으로는 경영정보학과 정시 모집군에서 성적 3.75을 가진 최초 등록자의 지원 가능 여부를 단정 짓기 어렵습니다. 학교 홈페이지나 입학처에 직접 문의하여 해당 전형의 세부 조건, 특히 최초 등록자로 지원 가능한 성적 기준 등을 확인해 보시는 것이 좋겠습니다.
+입학 관련 자세한 정보는 https://ipsi.deu.ac.kr/main.do를 방문하시거나 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 제공하지만, 원본 텍스트에서 제시된 평균 등급(2.88, 3.88)과 비교하여 4.2의 성적이 낮다고 명시한 부분을 간과하고 있습니다. 따라서, 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과에 대한 합격 가능성을 논의하지만, 원본 텍스트의 결론과는 일치하지 않습니다. 원본 텍스트는 합격 가능성이 낮다고 명시했으나, 생성된 응답은 가능성이 있을 수 있다고 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과에 지원하는 데 필요한 정보와 고려사항을 제시하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 메시지인 합격 가능성이 낮다는 점을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트의 사실과는 다소 차이가 있습니다. 원본 텍스트는 합격 가능성이 낮다고 명시했으나, 생성된 응답은 가능성이 있다고 언급하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 핵심 메시지와는 다소 다르게 해석되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어질 경우 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.617913240196349</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.2인데 경영정보학과 최초 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>4.2이라는 성적은 경영정보학과에 지원하는 데 있어 경쟁률과 모집인원, 지원 인원 등을 고려하면 어느 정도의 가능성은 있을 수 있습니다. 그러나 정확한 확률을 예측하기 위해서는 다음과 같은 정보가 필요합니다:
+1. **경쟁률**: 4.2이라는 성적에서 해당 학과의 평균 점수와 비교하여 경쟁률을 파악해야 합니다.
+2. **모집인원 및 지원 인원**: 각 모집단위별로 모집인원이 몇 명이고, 지원 인원은 얼마나 되는지 확인해야 합니다.
+3. **평균 점수와 표준 편차**: 해당 학과의 평균 점수와 표준 편차를 파악하여 자신의 성적이 어느 정도 위치에 있는지를 판단해야 합니다.
+예를 들어, 만약 경영정보학과의 평균 점수가 4.5이고 표준 편차가 0.3이라면, 4.2는 약간 낮은 수치입니다. 그러나 모집인원이 많지 않고 지원 인원이 적다면, 충분히 합격 가능성은 있을 수 있습니다.
+따라서, 정확한 답변을 위해서는 해당 학과의 구체적인 정보를 확인해야 합니다. 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 더 자세한 정보를 찾아보시거나, 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 평균 성적과 관련된 정보를 잘 반영하고 있으며, 5.33이라는 성적이 낮다는 점을 강조하고 있습니다. 그러나 수능 전형성적 산출 방법에 대한 구체적인 정보는 원문에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 5.33이라는 성적이 낮다는 점을 강조하고 있으며, 경영정보학과의 성적 평균에 대한 언급도 일치합니다. 다만, 수능 전형성적 산출 방법에 대한 추가 정보는 원문에 포함되어 있지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 내용을 다루고 있으며, 합격 가능성에 대한 분석을 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 명확한 표현을 사용하고 있습니다. 따라서 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 따라서 일관성이 매우 높습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확하지만, 수능 전형성적 산출 방법에 대한 정보가 원문에 없기 때문에 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있지만, 일부 정보의 부정확성으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6118083990646062</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>5.33이라는 성적을 가지고 동의대학교 경영정보학과 일반학생전형에 합격 가능성은 높지 않을 것으로 보입니다.
+이유는 다음과 같습니다:
+1. **수능 전형성적 산출방법**: 동의대학교의 경우, 수능 전형성적 산출 방법은 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수입니다.
+2. **경영정보학과 일반학생전형**: 이 전형에서는 주로 수능 성적이 중요하게 작용합니다. 특히, 경영정보학과는 학생들의 수능 성적을 매우 중시하는 편입니다.
+3. **성적 평균**: 동의대학교 경영정보학과의 경우, 일반적으로 수능 성적 평균이 높은 편입니다. 5.33이라는 점수는 상대적으로 낮은 편으로, 합격 가능성은 매우 낮습니다.
+4. **기타 요인**: 이외에도 면접 성적, 학생부 종합 평가 등이 고려되지만, 수능 성적이 가장 중요한 요소임을 감안하면 5.33이라는 점수로는 합격하기 어려울 것으로 보입니다.
+따라서, 5.33이라는 성적을 가지고 동의대학교 경영정보학과 일반학생전형에 합격 가능성은 매우 낮다고 판단할 수 있습니다. 다른 대학이나 전형을 고려해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 모집 요강과 관련된 정보를 제공하지만, 원본 텍스트에서 언급된 평균 영어 등급(3.82)과 수능 4개 영역 등급 평균(4.74)과는 다르게, 영어 등급 평균을 3.25로 제시하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않으므로 점수를 낮추었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 제공된 성적에 대한 해석이 원본 텍스트와 일치하지 않습니다. 원본 텍스트는 3.33의 성적이 평균보다 높다고 언급했으나, 생성된 응답에서는 상대적으로 낮다고 설명하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 모집 요강과 관련된 정보를 제공하고 있으며, 질문의 맥락과 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보인 합격 가능성에 대한 직접적인 언급이 부족하여 점수를 약간 낮추었습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 자연스러워 유창성이 높습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 주요 사실과 다르게 제시된 부분이 있어 정확성이 떨어집니다. 특히, 평균 영어 등급과 수능 등급에 대한 정보가 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 유창성과 관련성은 높지만, 사실성과 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 일부 정보의 불일치로 인해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.6565374197262893</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 모집요강을 살펴보겠습니다.
+바이오응용공학부는 다음과 같은 특징을 가지고 있습니다:
+- 2023학년도에는 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학)로 모집되었습니다.
+- 2024학년도에는 의생명공학과, 바이오의약공학과, 식품공학과로 분리되어 각각 모집됩니다.
+성적 측면에서:
+- 동의대학교 수능(일반학생전형) 최종등록자의 경우, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.05이며, 표준 편차는 8.27입니다.
+- 영어 등급의 평균은 3.25이며, 표준 편차는 0.82입니다.
+성적 3.33 정도로 보면:
+- 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.05이고, 표준 편차는 8.27입니다.
+- 이 성적은 평균보다 약간 낮지만, 표준 편차를 고려하면 상대적으로 좋은 성적이므로 충분히 가능할 수 있습니다.
+하지만 정확한 가능성 판단을 위해서는:
+1. 해당 학과의 경쟁률을 확인해야 합니다.
+2. 모집인원과 지원 인원을 비교하여 경쟁률을 파악해야 합니다.
+3. 다른 평가 요소들(면접, 실기 등)도 고려해야 합니다.
+따라서, 현재 제공된 정보만으로는 확정적으로 가능하다고 말하기 어렵습니다. 더 자세한 정보를 얻으시려면 동의대학교 입학처 웹사이트를 방문하여 최신 모집요강을 확인하시거나, 직접 입학처에 문의하시는 것이 좋겠습니다.
+[참조 링크] https://ipsi. deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보와 현재 정시 등급이 4.4라는 사실을 언급하고 있지만, 방사선학과에 지원하기 위한 다른 조건들에 대한 정보가 포함되어 있어 원본 텍스트의 핵심 사실과는 다소 차이가 있습니다. 특히, 방사선학과의 평균 등급보다 낮은 성적을 가지고 있다는 점을 명확히 하지 않고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원하기 위한 여러 조건을 제시하고 있지만, 원본 텍스트에서 언급된 합격 가능성이 낮다는 점과는 일치하지 않습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 지원하기 위한 다양한 요소를 다루고 있어 관련성이 높지만, 원본 텍스트의 핵심 내용인 정시 등급과 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서의 표현이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 요소를 나열하고 있지만, 이들 간의 논리적 연결이 부족하여 일관된 흐름이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과에 대한 정보가 포함되어 있지만, 원본 텍스트의 핵심 사실인 정시 등급과 합격 가능성에 대한 정확한 반영이 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 복잡한 표현이 있어 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.5738422157861884</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024학년도의 방사선학과에 지원하려면, 학생부종합 평가를 받을 가능성이 높습니다. 현재 정시 등급이 4.4로 보통의 경우 방사선학과는 비교적 높은 성적을 요구하기 때문에, 방사선학과에 진학하려면 다음과 같은 점들을 고려해야 합니다:
+1. **학생부 종합 평가**: 현재 정시 등급이 4.4라면, 학생부종합 평가에서 좋은 결과를 얻기 위해서는 인성, 학업역량, 전공적합성을 잘 보여줘야 합니다.
+2. **진로선택과목 성적 반영**: 방사선학과에 지원하려면 관련 진로선택과목의 성적이 중요합니다. 방사선학과와 관련된 과목을 잘 수강하고 좋은 성적을 받는 것이 유리할 것입니다.
+3. **추천서 및 자기소개서**: 일부 학교에서는 추천서나 자기소개서를 요구하기도 합니다. 이에 대한 준비가 필요합니다.
+4. **면접 준비**: 방사선학과의 경우 면접을 통해 지원자의 적합성을 평가하는 경우가 많습니다.因此，根据提供的信息，目前您的成绩可能不太适合直接申请放射学专业。建议您先了解该专业的具体要求，并考虑其他与之相关的专业或课程作为过渡。
+如果您还有其他问题或者需要进一步的帮助，请访问“https://ipsi. deu. ac. kr/main. do”以获取更多信息。
+如果您想了解更多关于放射学专业的详细信息，可以参考上述链接中的相关信息。</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 방사선학과의 정시 등급에 대한 평가를 다루고 있지만, 원본 텍스트에서 제공된 평균 등급 정보와는 다소 다른 해석을 제시하고 있습니다. 원본 텍스트는 2.66이 평균보다 높다고 언급했으나, 생성된 응답은 2.66이 상대적으로 낮다고 평가하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 원본 텍스트는 2.66이 평균보다 높다고 명시했지만, 생성된 응답은 이를 반박하는 내용을 담고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 방사선학과의 정시 등급에 대한 질문에 관련된 정보를 제공하고 있으며, 추가적인 조언도 포함되어 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보를 간과한 점이 아쉬운 부분입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성 점수가 낮습니다. 2.66이 평균보다 높다는 원본의 주장을 반박하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점을 보이지만, 사실성과 일관성에서 큰 결함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 다르게 해석하고 있어 의미적으로 적절하지 않은 부분이 있습니다. 원본의 주장을 반박하는 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조언을 제공합니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.6289220494533735</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 방사선학과 정시에서 2.66이라는 점수를 어떻게 평가해야 하는지 확실하게 알기 어렵습니다. 학생부종합전형이나 조기취업형계약학과전형의 경우, 서류평가와 면접평가가 큰 비중을 차지하므로 정시모집에서의 성적 점수만으로는 전반적인 평가를 하기는 어렵습니다.
+정시 모집에서 2.66이라는 GPA는 상대적으로 낮은 편이므로, 방사선학과와 관련된 학업역량이나 전공적합성 등 면접평가와 서류평가에서 좋은 점수를 받을 필요가 있습니다.
+추천드리면:
+1. 방사선학과에 대한 깊은 이해와 관심을 보여주는 것이 중요합니다.
+2. 관련 활동이나 경험을 자세히 기재해야 합니다.
+3. 학업역량 평가에서 수업시간의 적극적인 참여나 성적 향상 노력 등을 강조하는 것이 좋습니다.
+더 구체적인 조언이 필요하시다면, 해당 대학의 입학처 웹사이트를 확인하거나 전문가와 상담을 받는 것을 추천드립니다. "https://ipsi. deu. ac. kr/main. do" 를 방문해 보시거나, 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 성적 3.66이 평균보다 높은 점수라는 사실을 언급하고 있으며, 경쟁률이 낮아진 점도 긍정적인 요소로 작용할 수 있다고 설명하고 있습니다. 그러나 서류 평가와 면접 등 여러 요소가 합격 여부에 영향을 미친다는 점에서 원문과의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 평균 성적과 경쟁률에 대한 정보를 포함하고 있지만, 서류 평가와 면접 등 추가적인 요소를 강조함으로써 원문과의 일관성이 다소 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문자의 성적과 경찰행정학과의 농어촌 전형에 대한 정보를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보에 기반하여 정확한 내용을 전달하고 있지만, 추가적인 요소를 언급함으로써 원문과의 차이가 발생합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치도가 높지만, 추가적인 요소를 언급함으로써 원문의 맥락에서 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 복잡하게 느껴질 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5902071711714676</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공의 농어촌 전형에 지원하셨다면, 학업역량 평가에서 좋은 점수를 받으실 가능성이 있습니다. 그러나 정확한 합격 여부는 서류평가와 면접 등 여러 요소가 결합되어 결정되므로 단순히 성적만으로 판단하기 어렵습니다.
+학업역량 평가에서는 다음과 같은 요소들이 고려될 것입니다:
+1. **출결상황**: 정시 성적이 3.66이라면, 출석률이 높았을 가능성이 있습니다.
+2. **창의적체험활동상황**: 학교에서 활동이나 프로젝트에 참여하였다면 이 부분에서 좋은 평가를 받으실 수 있습니다.
+3. **교과학습발달상황**: 과목별 성적이 높았다면, 이 부분에서도 좋은 점수를 받을 수 있습니다.
+또한 공동체역량과 전공적합성에서도 합격 가능성에 영향을 미칠 수 있으므로, 서류 제출 시 이러한 요소들을 강조하는 것이 좋습니다. 
+만약 추가 정보가 필요하다면, https://ipsi. deu. ac. kr/main. do를 참조하여 자세한 내용을 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 지원한 학과에 따라 합격 확률이 달라질 수 있다는 점을 언급하고 있지만, 원문에서 제공한 특정 학과 목록에 대한 언급이 없고, 예비 25번의 순위가 합격 가능성에 미치는 영향을 다소 일반화하여 설명하고 있습니다. 따라서 일부 사실이 누락되었거나 정확하지 않을 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 원문에서 제시한 특정 학과 목록을 언급하지 않으므로 일관성이 떨어집니다. 또한, 원문은 예비 25번 이상이 합격한 학과에 대한 정보를 제공하고 있지만, 생성된 응답은 그에 대한 구체적인 언급 없이 일반적인 조언을 하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있으며, 합격 가능성에 대한 일반적인 정보를 제공합니다. 그러나 원문에서 제공한 특정 학과 목록에 대한 언급이 없기 때문에 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 원문과의 연결성이 부족하여 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수와 경쟁률의 중요성을 강조하고 있지만, 원문에서 제공한 구체적인 정보(예비 25번 이상 합격한 학과 목록)를 포함하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원문과의 연결성 및 구체적인 정보의 부족으로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 일반적인 조언을 제공합니다. 그러나 원문에서 제공한 구체적인 정보와의 연결이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 다만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5120426987743661</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 순위가 나오더라도 확실하게 붙을 수 있는 것은 아닙니다. 정시 일반학생전형은 수능 위주로 이루어지므로, 수능 점수와 모집인원, 경쟁률 등이 매우 중요합니다.
+현재 정보만으로는 경쟁률과 수능 최저 기준 등을 알 수 없으니, 더 자세한 정보를 확인해 보시는 것이 좋습니다. 특히, 수능 점수가 높은 학생들이 많이 지원하는 모집단위에서는 낮은 순위라도 붙을 확률이 낮아질 수 있습니다.
+더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 또한, 입시 컨설팅 서비스 등을 활용해 보시는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보를 제공하고 있지만, 해당 학부는 존재하지 않으며, 제공된 성적 정보도 원본 텍스트와 일치하지 않습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 특히 성적 수치가 다릅니다. 이는 일관성이 부족함을 나타냅니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 동의대학교의 정시 모집에 대한 정보를 제공하고 있으나, 법경찰행정학부에 대한 잘못된 정보가 포함되어 있어 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다. 그러나 일부 문장 구조가 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 응답은 전반적으로 일관된 흐름을 가지고 있지만, 잘못된 정보로 인해 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 제공된 성적 정보와 관련된 수치가 원본 텍스트와 다르며, 법경찰행정학부의 존재 여부에 대한 정보도 부정확합니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 의미적으로는 적절한 부분이 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4  
+   - 전반적으로 이해하기 쉬운 표현을 사용하고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7760132810212542</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학부에 대한 정보를 바탕으로, 정시 모집에서 안정적인 합격을 위해서는 평균 성적이 다음과 같아야 합니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 315.78
+- **영어 등급의 평균**: 3.11
+이러한 성적을 받으면 안정권에 들어갈 수 있습니다.
+또한, 경쟁률이 높은 만큼, 조금 더 높은 점수를 받는 것이 좋습니다. 예를 들어, **4.00 이상의 영어 등급**과 **320점 이상의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**을 받으면 문 닫고 들어갈 수 있을 것입니다.
+이 정보는 2024년도의 데이터를 기반으로 한 추정치입니다. 실제 모집 시점에서는 변동될 수 있으므로, 최신 정보를 확인하는 것이 좋습니다. 추가로 필요한 자세한 정보나 도움이 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 아동학과의 변경 사항과 정시 등급에 대한 정보를 포함하고 있지만, 아동학과의 경쟁률에 대한 구체적인 수치(3.67)는 원본 텍스트에 명시되어 있지 않습니다. 따라서 일부 정보는 정확하지 않거나 원본 텍스트와 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 경쟁률에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트는 정시 등급과 합격 가능성에 대한 정보에 집중하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 경쟁률에 대한 추가 정보가 포함되어 있어 약간의 주제 이탈이 있습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 경쟁률에 대한 언급이 추가되어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률에 대한 정보는 원본에 포함되어 있지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 정보의 정확성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 경쟁률에 대한 추가 정보가 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.619822015920876</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 보육가정상담학과는 아동학과로 변경되었습니다. 따라서, 현재 정보에서는 아동학과의 경쟁률을 참고해야 합니다.
+아동학과의 최초합격자 중 가장 높은 경쟁률은 3.67입니다 (패션디자인학과에서 충원 합격된 경우). 이는 정시 산출 등급이 5.33인 지원자의 경우 상대적으로 낮은 경쟁률로 보아, 합격 가능성은 높습니다.
+하지만, 최종 합격 여부는 여러 요소에 따라 결정되므로, 동의대학교 입학사정관실이나 공식 웹사이트를 참조하여 자세한 정보를 확인하는 것이 좋습니다. 필요하다면, 전화나 이메일로 문의하시기 바랍니다.
+더 궁금하신 점이 있으시다면 https://ipsi. deu. ac. kr/main. do 를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원 합격자 발표와 관련된 정보에 대해 정확하게 언급하고 있으며, 예비 번호에 따른 합격 가능성에 대한 설명도 적절합니다. 그러나 동점자 처리 기준에 대한 구체적인 정보가 부족하다는 점에서 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 예비 번호와 충원 합격 가능성에 대한 설명이 일치합니다. 다만, 동점자 처리 기준에 대한 언급이 추가되어 원본 텍스트와의 일관성이 약간 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 예비 번호와 충원 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 동점자 처리 기준에 대한 추가 설명이 약간의 흐름을 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 동점자 처리 기준에 대한 구체적인 정보가 부족하여 완전한 정확성에는 다소 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 동점자 처리 기준에 대한 정보 부족이 약간의 감점을 초래했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 동점자 처리 기준에 대한 언급이 원본의 맥락과 약간의 차이를 보입니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.6263792033572664</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 보육가정상담 전형에 대한 정보를 바탕으로 답변 드리겠습니다.
+현재 제공된 정보로는 "충원 합격 3차"와 관련된 구체적인 동점자 처리 기준이 명시되어 있지 않습니다. 따라서, 예비 12번을 받았다는 점만으로는 충분한 합격 가능성 판단이 어렵습니다.
+일반적으로, 충원 합격 단계에서는 동점자 처리 기준에 따라 순위가 결정되며, 이 기준은 전형별로 다르게 적용됩니다. 예비 12번을 받았다는 것은 해당 순위에서의 위치를 의미하지만, 최종 합격 가능성은 동점자 처리 기준과 전체 지원자의 경쟁률 등에 따라 결정될 수 있습니다.
+따라서, 정확한 답변을 위해서는:
+1. 해당 전형의 동점자 처리 기준 확인이 필요합니다.
+2. 전체 지원자의 경쟁률을 파악해야 합니다.
+추가 정보를 얻기 위해 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나, 입학처에 직접 문의하는 것이 가장 정확한 답변을 받는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75라는 성적이 높은 점수라고 언급하고 있지만, 유아교육학과에 대한 구체적인 평균 성적(4.18)과 비교하여 지원 가능성을 명확히 언급하지 않고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과의 경쟁률과 전형 방식에 대한 고려를 강조하고 있지만, 원본 텍스트에서 제공된 구체적인 데이터와는 일치하지 않는 부분이 있습니다. 예를 들어, 유아교육학과의 평균 성적을 명시하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 질문에 적절하게 답변하고 있으며, 관련된 요인들을 고려하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와 비교할 때 일부 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인에 대한 설명이 명확합니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 4.75라는 성적이 유아교육학과에 충분할지에 대한 불확실성을 언급하고 있지만, 원본 텍스트의 구체적인 평균 성적을 반영하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 유용하지만, 사실성과 정확성에서 부족함이 있어 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 유아교육학과에 대한 적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 일부 문장이 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7038834194416672</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 성적은 매우 높은 점수입니다. 하지만 정시 모집에 지원하는 학과의 수준과 입학 경쟁률, 전형 방식 등 여러 요인을 고려해야 합니다.
+유아교육학과의 경우, 이는 교육 분야에서 비교적 경쟁이 덜한 학과일 수 있지만, 여전히 특정 학교에서는 높은 경쟁률을 보입니다. 따라서 4.75라는 성적이 유아교육학과에 충분할지는 다음과 같은 요인들을 고려해야 합니다:
+1. **학교별 경쟁률**: 각 대학의 유아교육학과 입학 경쟁률이 어떻게 되는지 확인해야 합니다.
+2. **전형 방식**: 학교마다 전형 방식이 다를 수 있으므로, 해당 학교의 전형 방식을 잘 이해하고 있어야 합니다.
+3. **기타 평가 요소**: 서류평가, 면접 등 다른 평가 요소들이 중요할 수 있습니다.
+따라서 4.75라는 성적만으로 유아교육학과에 충분하다고 단정 짓기는 어렵습니다. 각 대학의 입학 조건을 자세히 확인하고, 필요하다면 학교 관계자와 상담하는 것이 좋습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보시거나, 대학 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 보육가정상담학과의 일반학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 아동학과의 평균 등급과 관련된 정보는 포함되어 있지 않으며, 주어진 질문에 대한 직접적인 답변이 부족하다. 또한, 원본 텍스트의 핵심 정보가 누락되어 있다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족하다. 원본 텍스트는 특정한 등급에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 일반적인 전형 정보에 초점을 맞추고 있어 일관성이 떨어진다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 전형에 대한 정보를 제공하지만, 질문자가 원하는 합격 가능성에 대한 직접적인 답변이 부족하여 관련성이 떨어진다. 그러나 일부 정보는 여전히 관련이 있다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 주제를 다루고 있지만, 논리적인 흐름이 다소 부족하다. 원본 텍스트의 핵심 주제와 연결되지 않아 일관된 메시지를 전달하지 못하고 있다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 질문에 대한 정확한 답변을 제공하지 않는다. 따라서 정확성 점수가 낮다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있다. 질문에 대한 직접적인 답변이 부족하여 의미적 적절성이 떨어진다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 복잡하게 느껴질 수 있어 완전한 이해를 방해할 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5063848142742808</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 일반학생전형에 대한 정보를 제공하겠습니다.
+보육가정상담학과의 일반학생전형은 학생부종합 평가를 통해 선발되며, 주요 평가 영역은 공동체역량, 학업역량, 전공적합성입니다. 또한, 2024학년도에는 학생부 교과성적 반영방법이 변경되었는데, 이는 전반적으로 과목의 석차등급을 더 많이 반영하게 되었습니다.
+현재您的问题似乎是在询问关于东国大学保育·家庭咨询学专业的普通学生录取情况。根据您提供的信息，2024年东国大学保育·家庭咨询学专业采用综合评价的方式进行招生，并且主要评估领域包括：社会贡献能力、学业能力和专业适应性。
+此外，2024年的学生学业成绩评价方式也有所变化，更加注重各科目的等级排名。您目前的换算等第为4.16，这个成绩在一定程度上反映了您的学术水平和学习能力。
+为了更准确地判断您是否能够被录取，建议参考以下几点：
+1. **共同社会贡献能力**：这包括您的社团活动、志愿服务经历等。
+2. **学业能力**：根据您提供的换算等第4.16来看，这个成绩在一定程度上反映了您的学术水平。但具体还需要看各科目的等级排名是否符合学校的要求。
+3. **专业适应性**：这主要考察您对专业的兴趣和适合度。
+综合以上因素，如果您的共同社会贡献能力较强，并且学业能力和专业适应性也较好，那么被录取的可能性较大。但是最终能否被录取还需参考具体的招生标准和流程，请务必关注东国大学的官方通知或咨询相关部门以获取最准确的信息。
+如需更多信息，建议访问东国大学官网（https://ipsi. deu.ac.kr/main.do）查看最新的招生信息和要求。</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문 내용을 완전히 무시하고 있으며, 정시에 지원하기 위한 조건과 비율에 대한 잘못된 정보를 제공하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 포함하고 있습니다. 원문에서는 정시 지원이 불가능하다고 명시하고 있지만, 생성된 응답은 정시 지원을 위한 조건을 설명하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없으며, 정시 지원이 불가능하다는 핵심 질문에 대한 답변을 제공하지 않고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 약합니다. 원문과의 관계가 명확하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와 관련이 없는 내용을 포함하고 있습니다. 따라서 의미적 적절성이 매우 낮습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원문과 관련이 없기 때문에 전체적인 이해가 어렵습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.4411381005041404</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과를 정시로 지원하려는 경우, 전형 요소 반영 비율을 확인해야 합니다. 2023년도에는 실기/실적(경기실적우수자전형)의 학생부교과(출결포함)가 30%, 서류(실적)가 70%였습니다. 하지만 2024년도에는 실기/실적(경기실적우수자전형)의 학생부교과가 18%, 출결이 12%, 서류(실적)가 70%로 변경되었습니다.
+따라서, 소프트웨어융합학과를 정시로 지원하려면 학생부 교과 성적이 중요해졌습니다. 특히, 학생부 교과성적의 반영 방식이 바뀌었기 때문에, 평균 등급을 확인해야 합니다.
+2024년도에 소프트웨어융합학과를 정시로 지원하려면, 학생부 교과 성적이 중요해졌습니다. 2023년도의 경우, 국어, 수학, 영어교과 중 석차등급 상위 8과목을 반영했지만, 2024년도에는 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목이 반영됩니다.
+따라서, 평균 등급을 확인하기 위해서는 각 과목의 성적을 잘 유지해야 합니다. 특히, 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 등의 석차등급 상위 12과목이 중요합니다.
+상세한 정보는 "https://ipsi.deu.ac.kr/main.do"를 참조하시거나 대구교육대학교 입학처에 문의하시면 도움을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 면접 점수와 세특 내용의 중요성을 강조하고 있지만, "따로 준비해야 하는 서류는 없습니다"라는 부분은 사실과 다릅니다. 원문에서는 서류 평가와 관련된 내용을 언급하고 있으며, 준비해야 하는 서류가 없다는 주장은 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 서류 준비에 대한 정보에서 일관성이 부족합니다. 원문에서는 서류 평가가 포함되어 있다고 명시하고 있으나, 생성된 응답에서는 서류가 필요 없다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 면접 점수와 세특 내용에 대한 질문에 잘 대응하고 있으며, 관련된 정보를 제공합니다. 그러나 원문에서 언급된 서류 평가에 대한 정보가 누락되어 있어 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 서류 준비에 대한 모순이 있어 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 서류 준비에 대한 잘못된 정보가 포함되어 있어 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 서류 준비에 대한 잘못된 정보로 인해 일부 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 정보의 모순으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.4562994426896849</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>면접 점수와 세특 내용은 모두 중요한 요소입니다. 특히, 세특 내용은 지원자의 진정한 능력과 특성을 반영하기 때문에 면접 점수보다 더 많은 비중을 차지할 수 있습니다.
+따로 준비해야 하는 서류는 없습니다. 하지만, 지원자가 자신의 세특 내용을 잘 설명하고 증빙 자료를 첨부하는 것이 중요합니다. 예를 들어, 창의적 체험활동에 참여한 경우 해당 활동에서 얻은 경험과 배운 것을 세특 내용으로 작성할 수 있습니다.
+또한, 면접 시 제출된 서류와 내용이 일치하도록 준비해야 합니다. 이는 면접관에게 지원자의 진실성을 보여주고, 서류 평가와 면접 평가를 통합적으로 판단하게 하기 위함입니다.
+더 궁금한 사항이 있으시다면 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어융합학과의 경쟁률과 평균 점수에 대한 정보를 제공하지만, 소프트웨어공학부의 평균 등급에 대한 언급이 부족하고, 평균 점수에 대한 수치가 잘못된 것으로 보입니다. 따라서 일부 사실이 정확하지 않거나 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 정보와 소프트웨어공학부의 평균 등급을 비교하는 데 있어 일관성이 부족합니다. 두 학과의 정보를 혼동하고 있으며, 소스 텍스트와의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변으로서 관련성이 높지만, 소스 텍스트의 주요 내용인 소프트웨어공학부의 평균 등급에 대한 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 소스 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 점수와 관련된 수치가 잘못된 것으로 보이며, 소스 텍스트의 정보와 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으나, 소스 텍스트의 특정 세부사항을 간과하여 완전한 적절성을 갖추지 못했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 정보를 전달하고 있습니다. 그러나 일부 내용이 혼동을 줄 수 있는 부분이 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7862994259177919</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>4.08이라는 성적을 가지고 동의대학교 소프트웨어융합학과의 최초합격자로 합격하는 것은 어렵다고 볼 수 있습니다. 이유는 다음과 같습니다:
+1. **경쟁률**: 동의대학교 소프트웨어융합학과의 경쟁률이 높습니다. 예를 들어, 게임공학과의 경우 5.33이라는 높은 경쟁률을 보였으며, 영화학과의 경우도 2.20이라는 경쟁률을 보였습니다.
+2. **평균 점수**: 최초합격자들의 평균 점수가 상당히 높습니다. 예를 들어, 게임공학과의 평균 점수는 317.77이었고, 영화학과의 경우도 303.80이라는 점수를 보였습니다.
+3. **성적 기준**: 정시 성적이 4.08이라면, 이는 상당히 높은 성적입니다. 그러나 동의대학교 소프트웨어융합학과의 경우, 평균 점수가 430.10이라는 매우 높은 점수를 보였습니다.
+따라서, 정시 성적이 4.08이라면, 동의대학교 소프트웨어융합학과의 최초합격자로 합격하는 것은 어렵다고 볼 수 있습니다. 그러나 이는 단순히 성적만을 기준으로 한 것이므로, 서류평가와 면접 등 다른 평가 요소들이 중요하게 작용할 수 있다는 점을 기억해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것을 추천드립니다. "https://ipsi. deu. ac. kr/main. do" 를 방문하여 더 많은 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않고 있으며, 소프트웨어공학부의 신설에 대한 정보도 사실과 다릅니다. 또한, 학생부종합 평가영역의 성적 반영 비율에 대한 정보가 잘못된 것으로 보입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 소스 텍스트와 일치하지 않는 정보가 포함되어 있으며, 특히 소프트웨어융합학과와 관련된 내용이 모호하고 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소스 텍스트와 관련된 주제를 다루고 있지만, 소프트웨어융합학과에 대한 구체적인 정보가 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 다소 부족하며, 정보가 명확하게 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 사실과 다르거나 잘못된 정보를 포함하고 있어 정확성이 낮습니다. 특히, 정시 모집군과 관련된 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 소스 텍스트의 맥락과 일치하지 않는 부분이 있어 적절성이 떨어집니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 전반적으로 이해할 수 있지만, 일부 문장이 복잡하여 명확하게 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.667256071531216</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)가 신설되었으므로, 정시모집군 변경사항을 확인해야 합니다. 제공된 정보에서 소프트웨어공학부는 정시모집군이 변경되지 않았으며, 학생부종합 평가영역의 진로선택과목 성적반영은 A: 1등급 B: 3등급 C: 5등급으로 반영됩니다.
+따라서, 소프트웨어융합학과에 지원하려면 정시모집군을 확인하고, 학생부종합 평가영역의 진로선택과목 성적반영이 A: 1등급 B: 3등급 C: 5등급으로 반영되는 것을 고려해야 합니다. 따라서, 평균 5등급으로 지원할 수 있습니다.
+만약 추가 정보나 변경 사항이 있다면, "https://ipsi.deu.ac.kr/main.do"를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 성적과 지원자의 성적을 비교하고 있지만, 모집 인원과 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이로 인해 일부 정보가 추가되거나 변형되었습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하고 있지만, 추가된 정보(모집 인원, 경쟁률 등)로 인해 일관성이 떨어질 수 있습니다. 원본 텍스트와의 일관성을 고려할 때 점수는 3입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 지원자의 성적과 신소재공학과의 평균 성적을 비교하는 데 중점을 두고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 일부 추가 정보가 원본 텍스트와의 관련성을 약간 떨어뜨릴 수 있습니다. 따라서 점수는 4입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 반복되는 경향이 있어 약간의 유창성 저하가 있습니다. 따라서 점수는 4입니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 정보가 추가되면서 약간의 혼란을 줄 수 있습니다. 따라서 점수는 4입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 추가된 정보가 정확하지 않을 수 있으며, 원본 텍스트의 핵심 사실을 완전히 반영하지 못합니다. 따라서 점수는 3입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 다소 부족함이 있어 전반적인 품질 점수는 3입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 전반적으로 의미 전달이 잘 이루어졌습니다. 따라서 점수는 4입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 반복적인 내용이 있어 약간의 혼란을 줄 수 있습니다. 따라서 점수는 4입니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6663225719589899</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과의 지원 자료를 바탕으로 분석해보겠습니다.
+신소재공학과의 경우, 모집 인원이 6명이고 지원 인원이 22명이며 경쟁률은 3.67입니다. 또한, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 309.71이며, 이는 지원자의 성적이 4.28일 때 상대적으로 높은 점수입니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 309.71이고, 이는 지원자의 성적이 4.28일 때 상대적으로 높은 점수입니다. 또한, 영어 등급의 평균이 3.71이며, 이 역시 지원자의 성적이 4.28일 때 상대적으로 높은 점수입니다.
+따라서, 지원자의 성적인 4.28은 신소재공학과의 평균적인 지원자보다 높으므로 합격 가능성은 있습니다. 그러나 경쟁률이 높고 모집 인원이 제한적이기 때문에 확실하지는 않습니다.
+결론적으로, 지원자의 성적 4.28은 신소재공학과의 평균적인 지원자보다 높으므로 합격 가능성은 있지만, 최종 합격 여부는 입시 결과에 따라 결정됩니다. 따라서, 정확한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트나 입시 관련 자료를 확인하는 것이 좋습니다.
+더 궁금하신 점이 있으시면 https://ipsi.deu.ac.kr/main.do 에 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 일반학생전형에서 자기소개서가 필요 없다는 사실을 언급하고 있지만, 일부 전형에서 자기소개서가 필요할 수 있다는 추가 정보를 제공하고 있습니다. 그러나 이는 원문에서 명확히 언급된 내용이 아니므로, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분도 있지만, 추가적인 정보가 포함되어 있어 일관성이 떨어지는 부분이 있습니다. 특히, 일반학생전형에 대한 명확한 정보가 부족하여 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높습니다. 자기소개서의 필요성에 대한 정보를 제공하고 있어 주제와 잘 맞아떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장이 다소 복잡하게 연결되어 있어 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일반학생전형에서 자기소개서가 필요 없다는 점은 정확하지만, 다른 전형에 대한 정보는 원문에서 명시되지 않은 내용이므로 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 사실성과 정확성에서 약간의 부족함이 있어 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 내용을 담고 있습니다. 다만, 일부 추가 정보가 원문과의 일치성에 영향을 미쳐 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 문장이 복잡하게 표현되어 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.6057375200505922</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 일반학생전형에서 자기소개서는 필수적으로 작성하지 않아도 됩니다. 하지만 일부 전형에서는 자기소개서를 제출하도록 요구할 수 있습니다. 특히, 학생부종합전형이나 실기/실적전형 등에서는 자기소개서가 필요할 수 있으므로 해당 전형의 자세한 내용을 확인해보시는 것이 좋습니다.
+현재 제공된 정보로는 일반학생전형에서 자기소개서를 필수적으로 제출해야 하는 것은 아닌 것으로 보입니다. 하지만 자기소개서를 작성하여 지원하는 학생들의 경쟁력을 높일 수 있으므로, 자신이 지원하고자 하는 전형의 특성과 요구사항을 확인하시고 필요하다면 작성해보시는 것을 추천드립니다.
+더 자세한 정보가 필요하시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수 4.5에 대한 합격 가능성을 평가하기 위해 필요한 정보(경쟁률 및 충원 합격자 수)에 대해 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에서 제공된 구체적인 평균 등급과 표준 편차에 대한 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 일관되며, 수능 점수와 관련된 합격 가능성에 대한 분석을 제공합니다. 다만, 원본 텍스트의 특정 수치(예: 평균 등급)와는 다소 차이가 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 수능 점수 4.5에 대한 합격 가능성을 평가하는 데 필요한 정보를 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보에 대해 정확하게 설명하고 있으나, 원본 텍스트의 구체적인 수치와 비교할 때 일부 정보가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 정보 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.6886871497377685</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 표준 변환 점수가 주어졌을 때, 어떤 모집단위에서 합격할 수 있는지 판단하기 위해서는 해당 모집단위의 경쟁률과 충원 합격자를 알아야 합니다.
+주어진 정보를 바탕으로 다음과 같이 분석해볼 수 있습니다:
+1. **경쟁률**: 4.5라는 점수가 주어졌을 때, 어떤 단과대학의 어느 모집단위에서의 경쟁률이 4.5보다 낮다면 합격 가능성이 높아집니다.
+2. **충원 합격자 수**: 충원 합격자가 적은 모집단위에서는 점수가 높을수록 합격 가능성 증가합니다.
+주어진 정보를 보면, 경쟁률이 4.33인 경영학과와 2.00인 회계학과 등에서 4.5의 점수가 좋은 성적일 수 있습니다. 그러나 충원 합격자 수가 많다면 여전히 경쟁이 치열할 수 있습니다.
+따라서, 정확한 판단을 위해서는:
+- 해당 모집단위의 경쟁률
+- 충원 합격자 수
+등의 정보를 확인해야 합니다. 만약 추가모집에 대한 정보도 필요하다면, 해당 대학의 공식 웹사이트나 입학처와 연락하여 자세한 정보를 얻는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do"로 접속하여 확인해보시거나, 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 제공하지 않고, 잘못된 정보를 포함하고 있습니다. 예를 들어, 영어 등급의 평균이 3.33이라고 언급했으나, 원본 텍스트에서는 5.06이라고 명시되어 있습니다. 또한, 수능 4개 영역 등급 평균이 5.78이라는 정보도 누락되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있으며, 특히 영어 등급 평균과 수능 4개 영역 등급 평균에 대한 정보가 상충합니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학부의 합격 기준에 대한 정보를 제공하고 있으며, 관련된 전공 과목에 대한 언급도 포함되어 있습니다. 그러나 원본 텍스트의 구체적인 데이터와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 특히 평균 등급에 대한 정보가 잘못되었습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 의미가 적절하지만, 원본 텍스트의 구체적인 사실과는 다소 동떨어져 있습니다. 따라서 의미적으로 적절하나, 정확한 정보 전달에는 실패했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되었습니다. 그러나 일부 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6919459998825687</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학부에 대한 정확한 합격 기준 등급 정보가 제공되지 않았습니다. 하지만, 일반적으로 신소재공학과와 관련된 전공에서는 국어, 수학, 영어, 과학교육 등의 등급이 중요한 역할을 합니다.
+2024학년도 동의대학교의 경우, 신소재공학과는 다음과 같은 특징을 가집니다:
+- 모집 인원: 6명
+- 지원 인원: 22명
+- 경쟁률: 3.67
+- 충원 합격 (후보순위): 4명
+국어, 수학, 탐구(2개)의 표준 변환 점수 평균은 317.77이며, 영어 등급의 평균은 3.33입니다.
+이러한 정보를 바탕으로 추정해보면, 신소재공학과에 합격하기 위해서는 대체로 국어, 수학, 과학교육 등의 등급이 B등급 이상이어야 할 것으로 예상됩니다. 하지만, 정확한 합격 기준 등급은 해당 대학의 공식 입학 안내서나 홈페이지를 참조하는 것이 가장 정확할 것입니다.
+더 자세한 정보는 https://ipsi.deu.ac.kr/main.do 를 방문하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보를 제공하지만, "447점보다 약간 높았던 것은 맞습니다"라는 부분은 사실과 다릅니다. 실제로 작년 평균 점수는 378.15점이었으므로, 이 부분에서 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 작년 평균 점수와 관련된 정보를 제공하지만, "447점보다 약간 높았던 것은 맞습니다"라는 주장은 사실과 일치하지 않으며, 이로 인해 일관성이 떨어집니다. 또한, 응답의 후반부에서 언급된 충원 가능성에 대한 내용은 다소 모호하게 표현되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 잘 다루고 있으며, 신소재공학과의 합격 가능성에 대한 논의가 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 일부 내용이 다소 중복되거나 모호하게 표현되어 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답에서 제공된 정보 중 일부는 정확하지 않으며, 특히 작년 평균 점수에 대한 언급이 잘못되었습니다. 이로 인해 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 응답은 관련성은 높지만, 사실성과 정확성에서 문제가 있어 전반적인 품질이 떨어집니다. 따라서 다차원 품질 점수는 중간 정도로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답의 의미는 대체로 적절하며, 질문의 맥락에 잘 맞습니다. 그러나 일부 부정확한 정보가 포함되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 다만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.6925106277416655</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 표준점수 환산을 진행하였습니다. 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았던 것은 맞습니다. 하지만, 작년과 올해의 입학 경쟁률이나 지원 인원 등이 다르므로, 작년에 비해 상대적으로 낮은 표준점수로도 충원될 가능성은 있습니다.
+특히, 동일한 학과와 전공적합성, 학업역량 등의 평가 기준이 유사하다면, 작년보다 약간 낮은 표준점수로도 충원될 수 있는 경우가 있을 수 있습니다. 하지만, 이는 경쟁률이나 지원 인원 등 다양한 요인에 따라 달라질 수 있으므로 확실한 것은 아닙니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학사정관 홈페이지나 학교 관계자에게 직접 문의하는 것이 가장 정확할 것입니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 입학사정관들이 성적을 중요하게 고려한다는 점을 언급하고 있지만, 원본 텍스트에서 제공된 평균 성적과 비교하여 합격 가능성을 높게 평가한 부분과 상충하는 내용이 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 성적이 4.1~4.2일 경우 합격 가능성이 낮다고 언급하여 원본 텍스트의 긍정적인 평가와 일치하지 않습니다. 이로 인해 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 신소재공학부의 입학 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있어 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 내용이 원본 텍스트와 상충하여 완전한 일관성을 제공하지 않으므로 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 평균 성적 정보를 반영하지 않고, 성적이 4.1~4.2일 경우 합격 가능성이 낮다고 언급하여 정확성에 문제가 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 양호한 성과를 보이지만, 사실성과 일관성에서 다소 부족함이 있어 다차원 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 내용이 원본과 상충하여 의미의 일관성이 떨어질 수 있습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5624963261092844</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적이 4.1~4.2로 내려간다고 하셨는데, 이 경우 신소재공학부 일반학생전형에 합격할 수 있을지는 확실하지 않습니다. 신소재공학부의 입학사정관들은 학업역량 평가에서 성적을 매우 중요하게 고려합니다.
+신소재공학부의 서류평가 영역 중 학업역량 부분은 다음과 같은 점수를 받을 수 있습니다:
+- 1등급: 280점
+- 2등급: 259점
+- 3등급: 238점
+- 4등급: 217점
+- 5등급: 196점
+현재의 성적(4.1~4.2)으로는 1등급을 받기 어렵습니다. 따라서 합격 확률은 낮아 보입니다.
+하지만, 서류평가 영역 중 공동체역량과 전공적합성 부분에서 좋은 평가를 받으면 이점을 활용하여 합격 가능성은 높일 수 있습니다. 또한 면접에서도 긍정적인 인상을 줄 수 있도록 준비하는 것이 중요합니다.
+결론적으로, 현재의 성적이 4.1~4.2라면 신소재공학부 일반학생전형에 합격하기는 어려울 것으로 보입니다. 하지만, 다른 평가 영역에서 좋은 점수를 받을 경우 합격 가능성은 높일 수 있습니다.
+더 자세한 정보나 추가 지원이 필요하시다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 성적에 대한 구체적인 정보를 제공하지 않고, 성적 계산 방법에 대한 설명을 포함하고 있습니다. 원본 텍스트의 주요 내용인 최초합격자 성적에 대한 정보가 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 합격자 성적에 대한 구체적인 수치를 제공하는 반면, 생성된 응답은 성적 계산 방법에 대한 설명으로 대체되어 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 성적 계산 방법에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용인 최초합격자 성적에 대한 정보와는 관련성이 떨어집니다. 따라서 중간 정도의 관련성을 가집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 원본 텍스트와 다르게 번역되어 있어 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 성적 계산 방법에 대한 설명이 포함되어 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 전체적으로는 이해할 수 있지만, 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 성적 정보를 제공하지 않으며, 성적 계산 방법에 대한 설명이 포함되어 있지만, 이는 원본 텍스트의 사실과는 다릅니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 성적 계산 방법에 대한 설명을 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미적으로 적절하다고 보기 어려운 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.7476565414716564</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>东义大学人工智能学部的普通学生入学考试，其成绩计算方法如下：
+1. **국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수**를 합산합니다.
+2. **수학(미적분 또는 기하) 응시자에 한해 수학 표준점수 x 0.1의 가산점을 더합니다.**
+예를 들어, 성적이 다음과 같을 때:
+- 국어: 104
+- 수학(미적분): 108 (가산점 적용)
+- 영어: 4등급 (139 점)
+- 탐구: 47
+합산 점수는 다음과 같습니다:
+\[ 104 + (108 \times 1.1) + 139 + 47 = 104 + 118.8 + 139 + 47 = 408.8 \]
+따라서, 동의대학교 인공지능학부에 지원하려면 위와 같은 점수를 얻는 것이 목표가 됩니다.
+만약 다른 모집단위나 전형을 고려하고 있다면, 해당 전형의 성적 산출 방법을 확인하시기 바랍니다. 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 충원 합격 가능성을 언급하고 있지만, 원본 텍스트에서 제공된 각 학과의 평균 성적과 표준 편차를 고려하지 않고 경쟁률에 대한 정보만을 제시하고 있습니다. 이로 인해 일부 정보가 누락되었고, 원본의 세부 사항을 반영하지 못했습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 원본의 세부 사항과는 일관성이 떨어집니다. 특히, 충원 합격 가능성에 대한 판단이 원본의 데이터와는 다르게 제시되고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27 성적에 대한 충원 합격 가능성을 다루고 있어 관련성이 높지만, 원본 텍스트의 세부 사항을 충분히 반영하지 못하고 있습니다. 경쟁률에 대한 정보는 유용하지만, 원본의 평균 성적과 표준 편차에 대한 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 경쟁률을 나열하는 방식이 일관성을 유지하고 있습니다. 그러나 원본 텍스트의 세부 사항을 반영하지 않아 전체적인 맥락에서 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 평균 성적 및 표준 편차와 같은 중요한 세부 사항을 누락하고 있습니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 일부 차원에서 양호하지만, 원본 텍스트의 세부 사항을 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 5.27 성적에 대한 충원 합격 가능성을 다루고 있어 의미적으로 적절합니다. 그러나 원본의 세부 사항을 반영하지 않아 의미의 깊이가 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본의 세부 사항이 부족하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.6914168618705054</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 상경대학의 각 학과에서 충원 합격이 가능한지 판단하기 위해서는 해당 학과의 경쟁률, 지원 인원 등 정보를 고려해야 합니다.
+현재 제공된 정보 중에서 가장 가까운 경쟁률을 보자면:
+- 무역학과: 경쟁률 1.89
+- 유통물류학과: 경쟁률 1.33
+- 경영학과: 경쟁률 4.33 (이 경우 충원 합격은 23명)
+- 회계학과: 경쟁률 2.00
+5.27이라는 성적은 대체로 좋은 성적입니다. 특히, 경영학과의 경우 경쟁률이 높지만, 지원 인원이 많아서 충원 합격자수가 많습니다. 따라서, 무역학과와 유통물류학과에서는 충분히 충원 합격 가능성이 높을 것으로 보입니다.
+반면에 경영학과의 경우 경쟁률이 매우 높아서 5.27이라는 성적만으로는 충원 합격하기 어려울 것입니다. 회계학과도 비슷한 상황일 수 있습니다.
+따라서, 5.27이라는 성적을 가지고 상경대학의 무역학과와 유통물류학과에서는 충원 합격 가능성이 높다고 판단할 수 있습니다. 경영학과와 회계학과는 더 좋은 성적이 필요할 것으로 보입니다.
+만약 더 자세한 정보가 필요하다면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 입학처 웹사이트를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 관련된 정보를 제공하지만, 정시 성적 4.2가 평균보다 낮다고 언급한 부분은 사실과 다릅니다. 원본 텍스트에 따르면 4.2는 평균보다 높은 성적입니다. 따라서 일부 사실이 잘못 전달되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 정시 성적 4.2에 대한 해석이 상충합니다. 원본 텍스트는 4.2가 평균보다 높은 성적이라고 명시하고 있지만, 생성된 응답은 이를 부정하는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 지원자들의 성적 분포와 관련된 정보를 제공하고 있으며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 일관성이 떨어지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 정시 성적 4.2에 대한 해석이 잘못되어 있어 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이상의 성과를 보이지만, 사실성과 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있으며, 정보가 잘 전달됩니다. 다만, 일부 내용에서 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6876566012964961</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 지원자들의 성적 분포를 살펴보겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 424.05
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 8.06
+이 데이터를 바탕으로, 정시 성적 4.2는 평균보다 약간 낮은 수치입니다. 그러나 표준 편차가 8.06이라는 것을 고려하면, 이 점수도 합격 가능성에 포함될 수 있습니다.
+**경쟁률**: 5.33으로 높은 경쟁률을 보이고 있으므로, 정시 성적 4.2는 약간 낮은 점수이지만, 여전히 합격 가능성을 가지고 있습니다. 그러나 확실한 합격을 위해서는 추가적인 준비가 필요할 수 있습니다.
+**추천**: 
+1. **추가 과목 공부**: 국어, 수학, 탐구 등 주요 과목의 강화를 통해 성적을 높일 수 있습니다.
+2. **면접 준비**: 소프트웨어공학부는 종종 면접을 포함하여 전형을 진행하므로, 면접 준비도 필요합니다.
+3. **추천서 및 자기소개서 작성**: 이 부분에서도 경쟁력을 높일 수 있습니다.
+결론적으로, 정시 성적 4.2로 소프트웨어공학부에 합격하는 것은 가능하지만, 추가적인 노력이 필요할 것입니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다. [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu. ac. kr/main. do)</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 제공하고 있으며, 3.92라는 성적이 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나 구체적인 모집단위와 모집인원에 대한 정보가 부족하여 완전한 사실성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 추가적인 정보(모집인원, 경쟁률 등)를 요구하는 내용이 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 결론과는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 화학환경공학부에 지원 가능성을 판단하기 위한 정보를 제공하고 있으며, 원본 텍스트의 주제와 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 정보의 흐름이 약간 단절된 느낌을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 3.92라는 성적에 대한 해석도 적절합니다. 그러나 모집단위와 모집인원에 대한 구체적인 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 추가적인 정보 요구가 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6539947973475301</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92라는 성적 산출치가 주어졌을 때, 화학환경공학부에 지원이 가능한지 판단하기 위해서는 몇 가지 정보를 확인해야 합니다.
+1. **모집단위와 모집인원**: 화학환경공학부의 2024학년도 모집단위와 모집인원을 알아야 합니다.
+2. **경쟁률과 충원 합격자 수**: 해당 모집단위의 경쟁률과 충원 합격자를 확인해야 합니다.
+3. **성적 산출방법**: 동의대학교에서 사용하는 성적 산출 방법을 이해해야 합니다.
+주어진 정보를 바탕으로 판단해보겠습니다:
+- **성적 산출치 3.92**는 국어, 수학, 영어, 탐구 등급점수와 표준점수를 합산한 값입니다.
+- **화학환경공학부의 모집인원과 지원 인원**: 이 정보가 필요합니다. 예를 들어, 만약 모집인원이 20명이고 지원 인원이 40명이라면 경쟁률은 2배일 것입니다.
+만약 화학환경공학부의 모집인원이 30명이고 지원 인원이 60명이라면, 경쟁률은 약 2배입니다. 이 경우 성적 산출치가 3.92라면 충분히 경쟁력을 갖추고 있을 수 있습니다.
+하지만 정확한 판단을 위해서는:
+1. **화학환경공학부의 모집인원과 지원 인원**을 확인해야 합니다.
+2. **성적 산출방법**이 어떻게 적용되는지 이해해야 합니다.
+위 정보를 바탕으로 더 자세히 분석해보시거나, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 공식 홈페이지에서 필요한 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 정보를 제공하지만, 다른 학과의 모집 인원과 경쟁률을 언급하며 불확실한 정보를 포함하고 있습니다. 원본 텍스트의 구체적인 데이터와는 다소 차이가 있어 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 다른 학과의 데이터와 비교하는 방식으로 일관성이 부족합니다. 원본 텍스트의 핵심 정보에 대한 직접적인 언급이 부족하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 다른 학과의 데이터와 비교하는 부분이 다소 불필요하게 느껴질 수 있습니다. 그러나 전반적으로 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 다른 학과의 정보가 포함되어 있어 주제의 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 데이터와 비교할 때 정확성이 떨어지는 부분이 있습니다. 특히 다른 학과의 성적 평균과 경쟁률을 언급하면서 불확실한 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 정확성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 다른 학과의 정보가 포함되어 있어 다소 혼란스러울 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6880396246441945</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>4.25라는 성적을 가지고 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능성은 다음과 같이 판단됩니다.
+1. **모집단위와 지원인원**: 화학환경공학부는 모집 인원이 정확히 주어지지 않았지만, 다른 공과대학의 모집 인원을 참고로 할 수 있습니다. 예를 들어, 게임공학과의 경우 3명을 모집하였고, 지원 인원은 16명이었습니다. 이에 비해 경쟁률이 낮아 보입니다.
+2. **경쟁률**: 다른 공과대학의 경쟁률을 참고로 할 수 있습니다. 예를 들어, 게임공학과의 경우 경쟁률이 5.33였습니다. 화학환경공학부의 경쟁률은 이보다 낮아 보입니다.
+3. **성적 평균**: 다른 공과대학의 성적 평균을 참고로 할 수 있습니다. 예를 들어, 게임공학과의 경우 국어+수학+탐구(2개) 표준 변환 점수 합의 평균은 303.05였습니다. 이보다 낮은 점수가 있을 수 있지만, 특정 모집단위의 성적 평균을 정확히 알 수 없으므로, 일반적으로는 가능성이 있습니다.
+4. **등급 평균**: 영어 등급의 평균과 수능 4개 영역 등급의 평균도 참고로 할 수 있습니다. 예를 들어, 게임공학과의 경우 영어 등급의 평균이 3.25였습니다.
+따라서, 4.25라는 성적을 가지고 화학환경공학부에 지원한다면 합격 가능성은 높아 보입니다. 하지만 정확한 확률을 알기 위해서는 해당 모집단위의 실제 모집 인원과 지원 인원을 확인해야 합니다.
+만약 더 자세한 정보가 필요하다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 를 참고하여 입학처와 연락하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 영화학과의 평균 성적과 관련된 정보를 제공하고 있으며, 4.2라는 점수에 대한 합격 가능성을 언급하고 있습니다. 그러나, "현재 제공된 데이터만으로는 확실한 답변을 드리기 어렵습니다"라는 부분은 다소 모호하게 느껴질 수 있습니다. 전반적으로 사실에 기반한 정보가 포함되어 있으나, 일부 정보가 부족하여 완전한 정확성을 결여하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 일관되게 유지되고 있으며, 평균 성적과 관련된 세부 사항을 잘 반영하고 있습니다. 그러나, "정확한 합격 가능성은 현재의 점수만으로는 판단하기 어렵습니다"라는 문장은 다소 모순적으로 느껴질 수 있습니다. 전반적으로 일관성이 높지만, 약간의 모호함이 존재합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 영화학과의 평균 성적 및 경쟁률에 대한 정보를 포함하고 있어 매우 관련성이 높습니다. 원본 텍스트의 주요 포인트를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길고 복잡하여 약간의 유창성 저하가 느껴질 수 있습니다. 전반적으로는 유창한 표현이지만, 개선의 여지가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장이 다소 복잡하게 연결되어 있어 완전한 일관성을 위해 약간의 개선이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 평균 성적과 관련된 정보가 정확하게 전달됩니다. 그러나 "정확한 합격 가능성은 현재의 점수만으로는 판단하기 어렵습니다"라는 부분은 다소 애매하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행되고 있습니다. 그러나 약간의 모호함과 복잡성이 존재하여 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 문장은 다소 복잡하게 표현되어 있어 의미 전달이 약간 어려울 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길고 복잡하여 약간의 혼란을 초래할 수 있습니다. 전반적으로는 명확하게 전달되지만, 개선의 여지가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6826262723891818</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수를 가지고 영화학과에 지원하셨다면, 현재 제공된 데이터만으로는 확실한 답변을 드리기 어렵습니다. 하지만, 지난해의 지원자들의 평균 점수와 경쟁률 등을 고려하면 다음과 같은 정보가 도움이 될 수 있습니다.
+영화학과의 경우:
+- 모집 인원: 5명
+- 지원 인원: 11명
+- 경쟁률: 2.20
+- 충원 합격 (후보순위): 6명
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 286.77이며, 이는 지원자의 성적을 비교하는 데 중요한 기준이 됩니다.
+현재 제공된 점수가 4.2라면, 이 점수가 286.77보다 높다면 좋은 성적이지만, 정확한 합격 가능성은 현재의 점수만으로는 판단하기 어렵습니다. 실제 합격 가능성을 확인하려면, 해당 과목별로 구체적인 점수를 가지고 평균 점수와 비교해야 합니다.
+따라서, 가장 정확한 정보를 얻기 위해서는:
+1. 현재의 성적을 각 과목별로 확인합니다.
+2. 이 성적들이 4.2라는 전체 점수에 어떻게 반영되는지 확인합니다.
+3. 해당 학과의 평균 점수와 비교하여 판단합니다.
+만약 자세한 정보를 원하시면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 내용도 사실에 기반하고 있습니다. 따라서 사실성 점수는 5입니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 내용이 원본의 정보와 충돌하지 않습니다. 따라서 일관성 점수는 5입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제를 잘 다루고 있으며, 면접 절차에 대한 추가적인 설명도 포함되어 있어 매우 관련성이 높습니다. 따라서 관련성 점수는 5입니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다. 따라서 유창성 점수는 5입니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 매끄럽습니다. 따라서 일관성 점수는 5입니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 따라서 정확성 점수는 5입니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다. 따라서 다차원 품질 점수는 5입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 의미적으로 적절합니다. 따라서 의미 적합성 점수는 5입니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 따라서 이해 가능성 점수는 5입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.8552328875688843</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 통해 입학사정관 2인이 수험생을 대상으로 개별적으로 면접을 실시하며, 정성적이고 종합적인 평가를 진행합니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
